--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22820"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452FCD9-5E77-6644-B305-ACF5B1F641FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId4"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId3"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId5"/>
     <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -87,6 +87,48 @@
   </si>
   <si>
     <t>81+</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Category</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Values</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian Pacific Islander</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>Refused During Interview</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>NOT Hispanic or Latino</t>
   </si>
   <si>
     <t>Testing</t>
@@ -263,48 +305,6 @@
     <t>Total Number of Lives Lost Among IIC</t>
   </si>
   <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Category</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Values</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>American Indian</t>
-  </si>
-  <si>
-    <t>Native Hawaiian Pacific Islander</t>
-  </si>
-  <si>
-    <t>Two or More Races</t>
-  </si>
-  <si>
-    <t>Refused During Interview</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>NOT Hispanic or Latino</t>
-  </si>
-  <si>
     <t>Homeless</t>
   </si>
   <si>
@@ -450,7 +450,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -482,6 +482,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -827,7 +828,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -859,16 +860,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>3206</v>
+        <v>3361</v>
       </c>
       <c r="C2" s="13">
-        <v>1571</v>
+        <v>1648</v>
       </c>
       <c r="D2" s="13">
-        <v>1626</v>
+        <v>1705</v>
       </c>
       <c r="E2" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -876,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
@@ -885,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -893,16 +894,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -910,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="C5" s="8">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D5" s="8">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -927,16 +928,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="C6" s="8">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D6" s="8">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -944,13 +945,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C7" s="8">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D7" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -961,13 +962,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="C8" s="8">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D8" s="8">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -978,13 +979,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="C9" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D9" s="8">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -995,13 +996,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C10" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D10" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -1012,13 +1013,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C11" s="8">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D11" s="8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1034,12 +1035,1842 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43922</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43923</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43924</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43925</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43927</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43928</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43929</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="L2" s="5">
+        <v>43931</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43932</v>
+      </c>
+      <c r="N2" s="5">
+        <v>43933</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43934</v>
+      </c>
+      <c r="P2" s="5">
+        <v>43935</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>43936</v>
+      </c>
+      <c r="R2" s="5">
+        <v>43937</v>
+      </c>
+      <c r="S2" s="5">
+        <v>43938</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43939</v>
+      </c>
+      <c r="U2" s="5">
+        <v>43940</v>
+      </c>
+      <c r="V2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="5">
+        <v>43942</v>
+      </c>
+      <c r="X2" s="5">
+        <v>43943</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <v>84</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8">
+        <v>107</v>
+      </c>
+      <c r="G3" s="8">
+        <v>119</v>
+      </c>
+      <c r="H3" s="8">
+        <v>135</v>
+      </c>
+      <c r="I3" s="8">
+        <v>160</v>
+      </c>
+      <c r="J3" s="8">
+        <v>172</v>
+      </c>
+      <c r="K3" s="8">
+        <v>183</v>
+      </c>
+      <c r="L3" s="8">
+        <v>202</v>
+      </c>
+      <c r="M3" s="8">
+        <v>218</v>
+      </c>
+      <c r="N3" s="8">
+        <v>223</v>
+      </c>
+      <c r="O3" s="8">
+        <v>230</v>
+      </c>
+      <c r="P3" s="8">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>264</v>
+      </c>
+      <c r="R3" s="8">
+        <v>282</v>
+      </c>
+      <c r="S3" s="8">
+        <v>309</v>
+      </c>
+      <c r="T3" s="8">
+        <v>330</v>
+      </c>
+      <c r="U3" s="8">
+        <v>344</v>
+      </c>
+      <c r="V3" s="8">
+        <v>355</v>
+      </c>
+      <c r="W3" s="8">
+        <v>359</v>
+      </c>
+      <c r="X3" s="8">
+        <v>376</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8">
+        <v>92</v>
+      </c>
+      <c r="G4" s="8">
+        <v>107</v>
+      </c>
+      <c r="H4" s="8">
+        <v>117</v>
+      </c>
+      <c r="I4" s="8">
+        <v>134</v>
+      </c>
+      <c r="J4" s="8">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8">
+        <v>145</v>
+      </c>
+      <c r="L4" s="8">
+        <v>151</v>
+      </c>
+      <c r="M4" s="8">
+        <v>160</v>
+      </c>
+      <c r="N4" s="8">
+        <v>180</v>
+      </c>
+      <c r="O4" s="8">
+        <v>182</v>
+      </c>
+      <c r="P4" s="8">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>193</v>
+      </c>
+      <c r="R4" s="8">
+        <v>207</v>
+      </c>
+      <c r="S4" s="8">
+        <v>215</v>
+      </c>
+      <c r="T4" s="8">
+        <v>218</v>
+      </c>
+      <c r="U4" s="8">
+        <v>225</v>
+      </c>
+      <c r="V4" s="8">
+        <v>228</v>
+      </c>
+      <c r="W4" s="8">
+        <v>234</v>
+      </c>
+      <c r="X4" s="8">
+        <v>252</v>
+      </c>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>83</v>
+      </c>
+      <c r="G5" s="8">
+        <v>89</v>
+      </c>
+      <c r="H5" s="8">
+        <v>95</v>
+      </c>
+      <c r="I5" s="8">
+        <v>104</v>
+      </c>
+      <c r="J5" s="8">
+        <v>113</v>
+      </c>
+      <c r="K5" s="8">
+        <v>128</v>
+      </c>
+      <c r="L5" s="8">
+        <v>139</v>
+      </c>
+      <c r="M5" s="8">
+        <v>143</v>
+      </c>
+      <c r="N5" s="8">
+        <v>146</v>
+      </c>
+      <c r="O5" s="8">
+        <v>149</v>
+      </c>
+      <c r="P5" s="8">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>169</v>
+      </c>
+      <c r="R5" s="8">
+        <v>176</v>
+      </c>
+      <c r="S5" s="8">
+        <v>205</v>
+      </c>
+      <c r="T5" s="8">
+        <v>211</v>
+      </c>
+      <c r="U5" s="8">
+        <v>226</v>
+      </c>
+      <c r="V5" s="8">
+        <v>223</v>
+      </c>
+      <c r="W5" s="8">
+        <v>215</v>
+      </c>
+      <c r="X5" s="8">
+        <v>227</v>
+      </c>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8">
+        <v>135</v>
+      </c>
+      <c r="F6" s="8">
+        <v>145</v>
+      </c>
+      <c r="G6" s="8">
+        <v>168</v>
+      </c>
+      <c r="H6" s="8">
+        <v>185</v>
+      </c>
+      <c r="I6" s="8">
+        <v>223</v>
+      </c>
+      <c r="J6" s="8">
+        <v>244</v>
+      </c>
+      <c r="K6" s="8">
+        <v>267</v>
+      </c>
+      <c r="L6" s="8">
+        <v>288</v>
+      </c>
+      <c r="M6" s="8">
+        <v>303</v>
+      </c>
+      <c r="N6" s="8">
+        <v>312</v>
+      </c>
+      <c r="O6" s="8">
+        <v>326</v>
+      </c>
+      <c r="P6" s="8">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>389</v>
+      </c>
+      <c r="R6" s="8">
+        <v>423</v>
+      </c>
+      <c r="S6" s="8">
+        <v>459</v>
+      </c>
+      <c r="T6" s="8">
+        <v>477</v>
+      </c>
+      <c r="U6" s="8">
+        <v>499</v>
+      </c>
+      <c r="V6" s="8">
+        <v>515</v>
+      </c>
+      <c r="W6" s="8">
+        <v>543</v>
+      </c>
+      <c r="X6" s="8">
+        <v>562</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8">
+        <v>122</v>
+      </c>
+      <c r="F7" s="8">
+        <v>126</v>
+      </c>
+      <c r="G7" s="8">
+        <v>136</v>
+      </c>
+      <c r="H7" s="8">
+        <v>150</v>
+      </c>
+      <c r="I7" s="8">
+        <v>179</v>
+      </c>
+      <c r="J7" s="8">
+        <v>198</v>
+      </c>
+      <c r="K7" s="8">
+        <v>210</v>
+      </c>
+      <c r="L7" s="8">
+        <v>231</v>
+      </c>
+      <c r="M7" s="8">
+        <v>250</v>
+      </c>
+      <c r="N7" s="8">
+        <v>257</v>
+      </c>
+      <c r="O7" s="8">
+        <v>262</v>
+      </c>
+      <c r="P7" s="8">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>311</v>
+      </c>
+      <c r="R7" s="8">
+        <v>328</v>
+      </c>
+      <c r="S7" s="8">
+        <v>350</v>
+      </c>
+      <c r="T7" s="8">
+        <v>363</v>
+      </c>
+      <c r="U7" s="8">
+        <v>383</v>
+      </c>
+      <c r="V7" s="8">
+        <v>404</v>
+      </c>
+      <c r="W7" s="8">
+        <v>429</v>
+      </c>
+      <c r="X7" s="8">
+        <v>456</v>
+      </c>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8">
+        <v>130</v>
+      </c>
+      <c r="E8" s="8">
+        <v>154</v>
+      </c>
+      <c r="F8" s="8">
+        <v>156</v>
+      </c>
+      <c r="G8" s="8">
+        <v>187</v>
+      </c>
+      <c r="H8" s="8">
+        <v>202</v>
+      </c>
+      <c r="I8" s="8">
+        <v>235</v>
+      </c>
+      <c r="J8" s="8">
+        <v>241</v>
+      </c>
+      <c r="K8" s="8">
+        <v>255</v>
+      </c>
+      <c r="L8" s="8">
+        <v>266</v>
+      </c>
+      <c r="M8" s="8">
+        <v>281</v>
+      </c>
+      <c r="N8" s="8">
+        <v>288</v>
+      </c>
+      <c r="O8" s="8">
+        <v>290</v>
+      </c>
+      <c r="P8" s="8">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>313</v>
+      </c>
+      <c r="R8" s="8">
+        <v>337</v>
+      </c>
+      <c r="S8" s="8">
+        <v>353</v>
+      </c>
+      <c r="T8" s="8">
+        <v>355</v>
+      </c>
+      <c r="U8" s="8">
+        <v>366</v>
+      </c>
+      <c r="V8" s="8">
+        <v>374</v>
+      </c>
+      <c r="W8" s="8">
+        <v>387</v>
+      </c>
+      <c r="X8" s="8">
+        <v>406</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8">
+        <v>117</v>
+      </c>
+      <c r="G9" s="8">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8">
+        <v>154</v>
+      </c>
+      <c r="I9" s="8">
+        <v>186</v>
+      </c>
+      <c r="J9" s="8">
+        <v>219</v>
+      </c>
+      <c r="K9" s="8">
+        <v>238</v>
+      </c>
+      <c r="L9" s="8">
+        <v>266</v>
+      </c>
+      <c r="M9" s="8">
+        <v>284</v>
+      </c>
+      <c r="N9" s="8">
+        <v>292</v>
+      </c>
+      <c r="O9" s="8">
+        <v>296</v>
+      </c>
+      <c r="P9" s="8">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>361</v>
+      </c>
+      <c r="R9" s="8">
+        <v>382</v>
+      </c>
+      <c r="S9" s="8">
+        <v>402</v>
+      </c>
+      <c r="T9" s="8">
+        <v>440</v>
+      </c>
+      <c r="U9" s="8">
+        <v>454</v>
+      </c>
+      <c r="V9" s="8">
+        <v>482</v>
+      </c>
+      <c r="W9" s="8">
+        <v>492</v>
+      </c>
+      <c r="X9" s="8">
+        <v>508</v>
+      </c>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
+        <v>108</v>
+      </c>
+      <c r="H10" s="8">
+        <v>128</v>
+      </c>
+      <c r="I10" s="8">
+        <v>168</v>
+      </c>
+      <c r="J10" s="8">
+        <v>178</v>
+      </c>
+      <c r="K10" s="8">
+        <v>192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>202</v>
+      </c>
+      <c r="M10" s="8">
+        <v>218</v>
+      </c>
+      <c r="N10" s="8">
+        <v>228</v>
+      </c>
+      <c r="O10" s="8">
+        <v>237</v>
+      </c>
+      <c r="P10" s="8">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>293</v>
+      </c>
+      <c r="R10" s="8">
+        <v>316</v>
+      </c>
+      <c r="S10" s="8">
+        <v>339</v>
+      </c>
+      <c r="T10" s="8">
+        <v>354</v>
+      </c>
+      <c r="U10" s="8">
+        <v>376</v>
+      </c>
+      <c r="V10" s="8">
+        <v>445</v>
+      </c>
+      <c r="W10" s="8">
+        <v>458</v>
+      </c>
+      <c r="X10" s="8">
+        <v>477</v>
+      </c>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8">
+        <v>86</v>
+      </c>
+      <c r="P11" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>57</v>
+      </c>
+      <c r="R11" s="8">
+        <v>25</v>
+      </c>
+      <c r="S11" s="8">
+        <v>34</v>
+      </c>
+      <c r="T11" s="8">
+        <v>45</v>
+      </c>
+      <c r="U11" s="8">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8">
+        <v>72</v>
+      </c>
+      <c r="W11" s="8">
+        <v>89</v>
+      </c>
+      <c r="X11" s="8">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10:T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>7</v>
+      </c>
+      <c r="T7" s="8">
+        <v>7</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8" s="8">
+        <v>153</v>
+      </c>
+      <c r="G8" s="8">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8">
+        <v>226</v>
+      </c>
+      <c r="I8" s="8">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8">
+        <v>256</v>
+      </c>
+      <c r="K8" s="8">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>386</v>
+      </c>
+      <c r="O8" s="8">
+        <v>431</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>415</v>
+      </c>
+      <c r="R8" s="8">
+        <v>450</v>
+      </c>
+      <c r="S8" s="8">
+        <v>481</v>
+      </c>
+      <c r="T8" s="8">
+        <v>508</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8">
+        <v>520</v>
+      </c>
+      <c r="E10" s="8">
+        <v>585</v>
+      </c>
+      <c r="F10" s="8">
+        <v>550</v>
+      </c>
+      <c r="G10" s="8">
+        <v>564</v>
+      </c>
+      <c r="H10" s="8">
+        <v>443</v>
+      </c>
+      <c r="I10" s="8">
+        <v>483</v>
+      </c>
+      <c r="J10" s="8">
+        <v>496</v>
+      </c>
+      <c r="K10" s="8">
+        <v>501</v>
+      </c>
+      <c r="L10" s="8">
+        <v>527</v>
+      </c>
+      <c r="M10" s="8">
+        <v>539</v>
+      </c>
+      <c r="N10" s="8">
+        <v>544</v>
+      </c>
+      <c r="O10" s="8">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>563</v>
+      </c>
+      <c r="R10" s="8">
+        <v>615</v>
+      </c>
+      <c r="S10" s="8">
+        <v>601</v>
+      </c>
+      <c r="T10" s="8">
+        <v>663</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>154</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169</v>
+      </c>
+      <c r="G11" s="8">
+        <v>188</v>
+      </c>
+      <c r="H11" s="8">
+        <v>227</v>
+      </c>
+      <c r="I11" s="8">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8">
+        <v>263</v>
+      </c>
+      <c r="K11" s="8">
+        <v>299</v>
+      </c>
+      <c r="L11" s="8">
+        <v>324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>403</v>
+      </c>
+      <c r="O11" s="8">
+        <v>439</v>
+      </c>
+      <c r="P11" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>555</v>
+      </c>
+      <c r="S11" s="8">
+        <v>589</v>
+      </c>
+      <c r="T11" s="8">
+        <v>610</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
+        <v>517</v>
+      </c>
+      <c r="D12" s="8">
+        <v>580</v>
+      </c>
+      <c r="E12" s="8">
+        <v>696</v>
+      </c>
+      <c r="F12" s="8">
+        <v>799</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1146</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1191</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1252</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1340</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1445</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1613</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1783</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1832</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1914</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2074</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
+        <v>14</v>
+      </c>
+      <c r="S13" s="8">
+        <v>14</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV81"/>
+  <dimension ref="A1:AW81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AS60" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV66" sqref="AV66:AV80"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AV59" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW66" sqref="AW66:AW80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1051,7 +2882,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -1192,11 +3023,14 @@
       <c r="AV1" s="5">
         <v>43942</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="23">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1245,12 +3079,12 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1378,10 +3212,13 @@
       <c r="AV3" s="12">
         <v>15502</v>
       </c>
-    </row>
-    <row r="4" spans="1:48">
+      <c r="AW3">
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1524,13 +3361,16 @@
       <c r="AV4" s="12">
         <v>3206</v>
       </c>
-    </row>
-    <row r="5" spans="1:48">
+      <c r="AW4">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1658,13 +3498,16 @@
       <c r="AV5" s="12">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:48">
+      <c r="AW5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1772,8 +3615,11 @@
       <c r="AV6" s="12">
         <v>645</v>
       </c>
-    </row>
-    <row r="7" spans="1:48">
+      <c r="AW6">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -1823,12 +3669,12 @@
       <c r="AU7" s="12"/>
       <c r="AV7" s="12"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1932,13 +3778,16 @@
       <c r="AV8" s="12">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:48">
+      <c r="AW8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2042,13 +3891,16 @@
       <c r="AV9" s="12">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:48">
+      <c r="AW9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2152,13 +4004,16 @@
       <c r="AV10" s="12">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:48">
+      <c r="AW10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2262,8 +4117,11 @@
       <c r="AV11" s="12">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:48">
+      <c r="AW11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -2313,10 +4171,10 @@
       <c r="AU12" s="12"/>
       <c r="AV12" s="12"/>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2365,12 +4223,12 @@
       <c r="AU13" s="12"/>
       <c r="AV13" s="12"/>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2419,12 +4277,12 @@
       <c r="AU14" s="12"/>
       <c r="AV14" s="12"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2530,13 +4388,16 @@
       <c r="AV15" s="12">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:48">
+      <c r="AW15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2606,13 +4467,16 @@
       <c r="AV16" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:48">
+      <c r="AW16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2682,13 +4546,16 @@
       <c r="AV17" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:48">
+      <c r="AW17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2788,13 +4655,16 @@
       <c r="AV18" s="12">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:48">
+      <c r="AW18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -2894,13 +4764,16 @@
       <c r="AV19" s="12">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:48">
+      <c r="AW19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3000,8 +4873,11 @@
       <c r="AV20" s="12">
         <v>589</v>
       </c>
-    </row>
-    <row r="21" spans="1:48">
+      <c r="AW20">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -3051,10 +4927,10 @@
       <c r="AU21" s="12"/>
       <c r="AV21" s="12"/>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:49">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3103,12 +4979,12 @@
       <c r="AU22" s="12"/>
       <c r="AV22" s="12"/>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:49">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3214,13 +5090,16 @@
       <c r="AV23" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:48">
+      <c r="AW23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3290,13 +5169,16 @@
       <c r="AV24" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:48">
+      <c r="AW24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -3361,18 +5243,21 @@
         <v>21</v>
       </c>
       <c r="AU25" s="12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AV25" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:48">
+      <c r="AW25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3472,13 +5357,16 @@
       <c r="AV26" s="12">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:48">
+      <c r="AW26">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3578,13 +5466,16 @@
       <c r="AV27" s="12">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:48">
+      <c r="AW27">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -3684,8 +5575,11 @@
       <c r="AV28" s="12">
         <v>640</v>
       </c>
-    </row>
-    <row r="29" spans="1:48">
+      <c r="AW28">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -3735,10 +5629,10 @@
       <c r="AU29" s="12"/>
       <c r="AV29" s="12"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:49">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -3787,12 +5681,12 @@
       <c r="AU30" s="12"/>
       <c r="AV30" s="12"/>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:49">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3892,13 +5786,16 @@
       <c r="AV31" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:48">
+      <c r="AW31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3966,13 +5863,16 @@
       <c r="AV32" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:48">
+      <c r="AW32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -4040,13 +5940,16 @@
       <c r="AV33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:48">
+      <c r="AW33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -4146,13 +6049,16 @@
       <c r="AV34" s="12">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:48">
+      <c r="AW34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -4250,13 +6156,16 @@
       <c r="AV35" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:48">
+      <c r="AW35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
       <c r="A36" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4356,13 +6265,16 @@
       <c r="AV36" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:48">
+      <c r="AW36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
       <c r="A37" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -4418,8 +6330,11 @@
       <c r="AV37" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:48">
+      <c r="AW37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -4469,10 +6384,10 @@
       <c r="AU38" s="12"/>
       <c r="AV38" s="12"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:49">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -4521,12 +6436,12 @@
       <c r="AU39" s="12"/>
       <c r="AV39" s="12"/>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:49">
       <c r="A40" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -4628,13 +6543,16 @@
       <c r="AV40" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:48">
+      <c r="AW40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
       <c r="A41" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -4704,13 +6622,16 @@
       <c r="AV41" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:48">
+      <c r="AW41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -4780,13 +6701,16 @@
       <c r="AV42" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:48">
+      <c r="AW42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
       <c r="A43" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -4886,13 +6810,16 @@
       <c r="AV43" s="12">
         <v>1014</v>
       </c>
-    </row>
-    <row r="44" spans="1:48">
+      <c r="AW43">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -4962,13 +6889,16 @@
       <c r="AV44" s="12">
         <v>1059</v>
       </c>
-    </row>
-    <row r="45" spans="1:48">
+      <c r="AW44">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5036,13 +6966,16 @@
       <c r="AV45" s="12">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:48">
+      <c r="AW45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5106,8 +7039,11 @@
       <c r="AV46" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:48">
+      <c r="AW46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -5157,10 +7093,10 @@
       <c r="AU47" s="12"/>
       <c r="AV47" s="12"/>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:49">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5209,12 +7145,12 @@
       <c r="AU48" s="12"/>
       <c r="AV48" s="12"/>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5306,13 +7242,16 @@
       <c r="AV49" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:48">
+      <c r="AW49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49">
       <c r="A50" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -5378,15 +7317,18 @@
         <v>16</v>
       </c>
       <c r="AV50" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48">
+        <v>16</v>
+      </c>
+      <c r="AW50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49">
       <c r="A51" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -5454,13 +7396,16 @@
       <c r="AV51" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:48">
+      <c r="AW51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49">
       <c r="A52" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -5552,13 +7497,16 @@
       <c r="AV52" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:48">
+      <c r="AW52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49">
       <c r="A53" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -5650,13 +7598,16 @@
       <c r="AV53" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:48">
+      <c r="AW53">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49">
       <c r="A54" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -5748,13 +7699,16 @@
       <c r="AV54" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:48">
+      <c r="AW54">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49">
       <c r="A55" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -5818,8 +7772,11 @@
       <c r="AV55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:48">
+      <c r="AW55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -5869,12 +7826,12 @@
       <c r="AU56" s="12"/>
       <c r="AV56" s="12"/>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -5966,13 +7923,16 @@
       <c r="AV57" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:48">
+      <c r="AW57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -6040,13 +8000,16 @@
       <c r="AV58" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:48">
+      <c r="AW58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -6114,13 +8077,16 @@
       <c r="AV59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:48">
+      <c r="AW59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:49">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -6212,13 +8178,16 @@
       <c r="AV60" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:48">
+      <c r="AW60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -6310,13 +8279,16 @@
       <c r="AV61" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:48">
+      <c r="AW61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -6406,13 +8378,16 @@
       <c r="AV62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:48">
+      <c r="AW62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -6480,8 +8455,11 @@
       <c r="AV63" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:48">
+      <c r="AW63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -6531,10 +8509,10 @@
       <c r="AU64" s="12"/>
       <c r="AV64" s="12"/>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:49">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -6583,12 +8561,12 @@
       <c r="AU65" s="12"/>
       <c r="AV65" s="12"/>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:49">
       <c r="A66" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -6680,13 +8658,16 @@
       <c r="AV66" s="12">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -6778,13 +8759,16 @@
       <c r="AV67" s="12">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -6876,13 +8860,16 @@
       <c r="AV68" s="12">
         <v>236</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -6946,8 +8933,11 @@
       <c r="AV69" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -6997,12 +8987,12 @@
       <c r="AU70" s="12"/>
       <c r="AV70" s="12"/>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:49">
       <c r="A71" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -7094,13 +9084,16 @@
       <c r="AV71" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -7192,13 +9185,16 @@
       <c r="AV72" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:48">
+      <c r="AW72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
       <c r="A73" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -7290,13 +9286,16 @@
       <c r="AV73" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:48">
+      <c r="AW73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49">
       <c r="A74" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -7380,8 +9379,11 @@
       <c r="AV74" s="12">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:48">
+      <c r="AW74">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -7431,12 +9433,12 @@
       <c r="AU75" s="12"/>
       <c r="AV75" s="12"/>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:49">
       <c r="A76" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -7528,13 +9530,16 @@
       <c r="AV76" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:48">
+      <c r="AW76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49">
       <c r="A77" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -7626,13 +9631,16 @@
       <c r="AV77" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:48">
+      <c r="AW77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49">
       <c r="A78" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -7702,13 +9710,16 @@
       <c r="AV78" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:48">
+      <c r="AW78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49">
       <c r="A79" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -7774,13 +9785,16 @@
       <c r="AV79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:48">
+      <c r="AW79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -7868,6 +9882,9 @@
         <v>5</v>
       </c>
       <c r="AV80" s="12">
+        <v>6</v>
+      </c>
+      <c r="AW80">
         <v>6</v>
       </c>
     </row>
@@ -7927,1796 +9944,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43921</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43922</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43923</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43924</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43925</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43927</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43928</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43929</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43930</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43931</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43932</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43933</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43934</v>
-      </c>
-      <c r="P2" s="5">
-        <v>43935</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>43936</v>
-      </c>
-      <c r="R2" s="5">
-        <v>43937</v>
-      </c>
-      <c r="S2" s="5">
-        <v>43938</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43939</v>
-      </c>
-      <c r="U2" s="5">
-        <v>43940</v>
-      </c>
-      <c r="V2" s="5">
-        <v>43941</v>
-      </c>
-      <c r="W2" s="5">
-        <v>43942</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>65</v>
-      </c>
-      <c r="C3" s="8">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8">
-        <v>84</v>
-      </c>
-      <c r="E3" s="8">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8">
-        <v>107</v>
-      </c>
-      <c r="G3" s="8">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8">
-        <v>135</v>
-      </c>
-      <c r="I3" s="8">
-        <v>160</v>
-      </c>
-      <c r="J3" s="8">
-        <v>172</v>
-      </c>
-      <c r="K3" s="8">
-        <v>183</v>
-      </c>
-      <c r="L3" s="8">
-        <v>202</v>
-      </c>
-      <c r="M3" s="8">
-        <v>218</v>
-      </c>
-      <c r="N3" s="8">
-        <v>223</v>
-      </c>
-      <c r="O3" s="8">
-        <v>230</v>
-      </c>
-      <c r="P3" s="8">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>264</v>
-      </c>
-      <c r="R3" s="8">
-        <v>282</v>
-      </c>
-      <c r="S3" s="8">
-        <v>309</v>
-      </c>
-      <c r="T3" s="8">
-        <v>330</v>
-      </c>
-      <c r="U3" s="8">
-        <v>344</v>
-      </c>
-      <c r="V3" s="8">
-        <v>355</v>
-      </c>
-      <c r="W3" s="8">
-        <v>359</v>
-      </c>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8">
-        <v>79</v>
-      </c>
-      <c r="E4" s="8">
-        <v>92</v>
-      </c>
-      <c r="F4" s="8">
-        <v>92</v>
-      </c>
-      <c r="G4" s="8">
-        <v>107</v>
-      </c>
-      <c r="H4" s="8">
-        <v>117</v>
-      </c>
-      <c r="I4" s="8">
-        <v>134</v>
-      </c>
-      <c r="J4" s="8">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8">
-        <v>145</v>
-      </c>
-      <c r="L4" s="8">
-        <v>151</v>
-      </c>
-      <c r="M4" s="8">
-        <v>160</v>
-      </c>
-      <c r="N4" s="8">
-        <v>180</v>
-      </c>
-      <c r="O4" s="8">
-        <v>182</v>
-      </c>
-      <c r="P4" s="8">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>193</v>
-      </c>
-      <c r="R4" s="8">
-        <v>207</v>
-      </c>
-      <c r="S4" s="8">
-        <v>215</v>
-      </c>
-      <c r="T4" s="8">
-        <v>218</v>
-      </c>
-      <c r="U4" s="8">
-        <v>225</v>
-      </c>
-      <c r="V4" s="8">
-        <v>228</v>
-      </c>
-      <c r="W4" s="8">
-        <v>234</v>
-      </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8">
-        <v>77</v>
-      </c>
-      <c r="E5" s="8">
-        <v>79</v>
-      </c>
-      <c r="F5" s="8">
-        <v>83</v>
-      </c>
-      <c r="G5" s="8">
-        <v>89</v>
-      </c>
-      <c r="H5" s="8">
-        <v>95</v>
-      </c>
-      <c r="I5" s="8">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8">
-        <v>113</v>
-      </c>
-      <c r="K5" s="8">
-        <v>128</v>
-      </c>
-      <c r="L5" s="8">
-        <v>139</v>
-      </c>
-      <c r="M5" s="8">
-        <v>143</v>
-      </c>
-      <c r="N5" s="8">
-        <v>146</v>
-      </c>
-      <c r="O5" s="8">
-        <v>149</v>
-      </c>
-      <c r="P5" s="8">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>169</v>
-      </c>
-      <c r="R5" s="8">
-        <v>176</v>
-      </c>
-      <c r="S5" s="8">
-        <v>205</v>
-      </c>
-      <c r="T5" s="8">
-        <v>211</v>
-      </c>
-      <c r="U5" s="8">
-        <v>226</v>
-      </c>
-      <c r="V5" s="8">
-        <v>223</v>
-      </c>
-      <c r="W5" s="8">
-        <v>215</v>
-      </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8">
-        <v>108</v>
-      </c>
-      <c r="E6" s="8">
-        <v>135</v>
-      </c>
-      <c r="F6" s="8">
-        <v>145</v>
-      </c>
-      <c r="G6" s="8">
-        <v>168</v>
-      </c>
-      <c r="H6" s="8">
-        <v>185</v>
-      </c>
-      <c r="I6" s="8">
-        <v>223</v>
-      </c>
-      <c r="J6" s="8">
-        <v>244</v>
-      </c>
-      <c r="K6" s="8">
-        <v>267</v>
-      </c>
-      <c r="L6" s="8">
-        <v>288</v>
-      </c>
-      <c r="M6" s="8">
-        <v>303</v>
-      </c>
-      <c r="N6" s="8">
-        <v>312</v>
-      </c>
-      <c r="O6" s="8">
-        <v>326</v>
-      </c>
-      <c r="P6" s="8">
-        <v>361</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>389</v>
-      </c>
-      <c r="R6" s="8">
-        <v>423</v>
-      </c>
-      <c r="S6" s="8">
-        <v>459</v>
-      </c>
-      <c r="T6" s="8">
-        <v>477</v>
-      </c>
-      <c r="U6" s="8">
-        <v>499</v>
-      </c>
-      <c r="V6" s="8">
-        <v>515</v>
-      </c>
-      <c r="W6" s="8">
-        <v>543</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>76</v>
-      </c>
-      <c r="C7" s="8">
-        <v>83</v>
-      </c>
-      <c r="D7" s="8">
-        <v>98</v>
-      </c>
-      <c r="E7" s="8">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8">
-        <v>126</v>
-      </c>
-      <c r="G7" s="8">
-        <v>136</v>
-      </c>
-      <c r="H7" s="8">
-        <v>150</v>
-      </c>
-      <c r="I7" s="8">
-        <v>179</v>
-      </c>
-      <c r="J7" s="8">
-        <v>198</v>
-      </c>
-      <c r="K7" s="8">
-        <v>210</v>
-      </c>
-      <c r="L7" s="8">
-        <v>231</v>
-      </c>
-      <c r="M7" s="8">
-        <v>250</v>
-      </c>
-      <c r="N7" s="8">
-        <v>257</v>
-      </c>
-      <c r="O7" s="8">
-        <v>262</v>
-      </c>
-      <c r="P7" s="8">
-        <v>278</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>311</v>
-      </c>
-      <c r="R7" s="8">
-        <v>328</v>
-      </c>
-      <c r="S7" s="8">
-        <v>350</v>
-      </c>
-      <c r="T7" s="8">
-        <v>363</v>
-      </c>
-      <c r="U7" s="8">
-        <v>383</v>
-      </c>
-      <c r="V7" s="8">
-        <v>404</v>
-      </c>
-      <c r="W7" s="8">
-        <v>429</v>
-      </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8">
-        <v>112</v>
-      </c>
-      <c r="D8" s="8">
-        <v>130</v>
-      </c>
-      <c r="E8" s="8">
-        <v>154</v>
-      </c>
-      <c r="F8" s="8">
-        <v>156</v>
-      </c>
-      <c r="G8" s="8">
-        <v>187</v>
-      </c>
-      <c r="H8" s="8">
-        <v>202</v>
-      </c>
-      <c r="I8" s="8">
-        <v>235</v>
-      </c>
-      <c r="J8" s="8">
-        <v>241</v>
-      </c>
-      <c r="K8" s="8">
-        <v>255</v>
-      </c>
-      <c r="L8" s="8">
-        <v>266</v>
-      </c>
-      <c r="M8" s="8">
-        <v>281</v>
-      </c>
-      <c r="N8" s="8">
-        <v>288</v>
-      </c>
-      <c r="O8" s="8">
-        <v>290</v>
-      </c>
-      <c r="P8" s="8">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>313</v>
-      </c>
-      <c r="R8" s="8">
-        <v>337</v>
-      </c>
-      <c r="S8" s="8">
-        <v>353</v>
-      </c>
-      <c r="T8" s="8">
-        <v>355</v>
-      </c>
-      <c r="U8" s="8">
-        <v>366</v>
-      </c>
-      <c r="V8" s="8">
-        <v>374</v>
-      </c>
-      <c r="W8" s="8">
-        <v>387</v>
-      </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8">
-        <v>66</v>
-      </c>
-      <c r="D9" s="8">
-        <v>83</v>
-      </c>
-      <c r="E9" s="8">
-        <v>104</v>
-      </c>
-      <c r="F9" s="8">
-        <v>117</v>
-      </c>
-      <c r="G9" s="8">
-        <v>138</v>
-      </c>
-      <c r="H9" s="8">
-        <v>154</v>
-      </c>
-      <c r="I9" s="8">
-        <v>186</v>
-      </c>
-      <c r="J9" s="8">
-        <v>219</v>
-      </c>
-      <c r="K9" s="8">
-        <v>238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>266</v>
-      </c>
-      <c r="M9" s="8">
-        <v>284</v>
-      </c>
-      <c r="N9" s="8">
-        <v>292</v>
-      </c>
-      <c r="O9" s="8">
-        <v>296</v>
-      </c>
-      <c r="P9" s="8">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>361</v>
-      </c>
-      <c r="R9" s="8">
-        <v>382</v>
-      </c>
-      <c r="S9" s="8">
-        <v>402</v>
-      </c>
-      <c r="T9" s="8">
-        <v>440</v>
-      </c>
-      <c r="U9" s="8">
-        <v>454</v>
-      </c>
-      <c r="V9" s="8">
-        <v>482</v>
-      </c>
-      <c r="W9" s="8">
-        <v>492</v>
-      </c>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8">
-        <v>101</v>
-      </c>
-      <c r="G10" s="8">
-        <v>108</v>
-      </c>
-      <c r="H10" s="8">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8">
-        <v>168</v>
-      </c>
-      <c r="J10" s="8">
-        <v>178</v>
-      </c>
-      <c r="K10" s="8">
-        <v>192</v>
-      </c>
-      <c r="L10" s="8">
-        <v>202</v>
-      </c>
-      <c r="M10" s="8">
-        <v>218</v>
-      </c>
-      <c r="N10" s="8">
-        <v>228</v>
-      </c>
-      <c r="O10" s="8">
-        <v>237</v>
-      </c>
-      <c r="P10" s="8">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>293</v>
-      </c>
-      <c r="R10" s="8">
-        <v>316</v>
-      </c>
-      <c r="S10" s="8">
-        <v>339</v>
-      </c>
-      <c r="T10" s="8">
-        <v>354</v>
-      </c>
-      <c r="U10" s="8">
-        <v>376</v>
-      </c>
-      <c r="V10" s="8">
-        <v>445</v>
-      </c>
-      <c r="W10" s="8">
-        <v>458</v>
-      </c>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8">
-        <v>71</v>
-      </c>
-      <c r="G11" s="8">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8">
-        <v>45</v>
-      </c>
-      <c r="I11" s="8">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8">
-        <v>42</v>
-      </c>
-      <c r="L11" s="8">
-        <v>33</v>
-      </c>
-      <c r="M11" s="8">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
-        <v>86</v>
-      </c>
-      <c r="P11" s="8">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>57</v>
-      </c>
-      <c r="R11" s="8">
-        <v>25</v>
-      </c>
-      <c r="S11" s="8">
-        <v>34</v>
-      </c>
-      <c r="T11" s="8">
-        <v>45</v>
-      </c>
-      <c r="U11" s="8">
-        <v>54</v>
-      </c>
-      <c r="V11" s="8">
-        <v>72</v>
-      </c>
-      <c r="W11" s="8">
-        <v>89</v>
-      </c>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8">
-        <v>11</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6</v>
-      </c>
-      <c r="S7" s="8">
-        <v>7</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8">
-        <v>123</v>
-      </c>
-      <c r="F8" s="8">
-        <v>153</v>
-      </c>
-      <c r="G8" s="8">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8">
-        <v>226</v>
-      </c>
-      <c r="I8" s="8">
-        <v>242</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256</v>
-      </c>
-      <c r="K8" s="8">
-        <v>275</v>
-      </c>
-      <c r="L8" s="8">
-        <v>300</v>
-      </c>
-      <c r="M8" s="8">
-        <v>345</v>
-      </c>
-      <c r="N8" s="8">
-        <v>386</v>
-      </c>
-      <c r="O8" s="8">
-        <v>431</v>
-      </c>
-      <c r="P8" s="8">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>415</v>
-      </c>
-      <c r="R8" s="8">
-        <v>450</v>
-      </c>
-      <c r="S8" s="8">
-        <v>481</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>341</v>
-      </c>
-      <c r="D10" s="8">
-        <v>520</v>
-      </c>
-      <c r="E10" s="8">
-        <v>585</v>
-      </c>
-      <c r="F10" s="8">
-        <v>550</v>
-      </c>
-      <c r="G10" s="8">
-        <v>564</v>
-      </c>
-      <c r="H10" s="8">
-        <v>443</v>
-      </c>
-      <c r="I10" s="8">
-        <v>483</v>
-      </c>
-      <c r="J10" s="8">
-        <v>496</v>
-      </c>
-      <c r="K10" s="8">
-        <v>501</v>
-      </c>
-      <c r="L10" s="8">
-        <v>527</v>
-      </c>
-      <c r="M10" s="8">
-        <v>539</v>
-      </c>
-      <c r="N10" s="8">
-        <v>544</v>
-      </c>
-      <c r="O10" s="8">
-        <v>607</v>
-      </c>
-      <c r="P10" s="8">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>563</v>
-      </c>
-      <c r="R10" s="8">
-        <v>615</v>
-      </c>
-      <c r="S10" s="8">
-        <v>601</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="8">
-        <v>98</v>
-      </c>
-      <c r="D11" s="8">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>154</v>
-      </c>
-      <c r="F11" s="8">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8">
-        <v>188</v>
-      </c>
-      <c r="H11" s="8">
-        <v>227</v>
-      </c>
-      <c r="I11" s="8">
-        <v>241</v>
-      </c>
-      <c r="J11" s="8">
-        <v>263</v>
-      </c>
-      <c r="K11" s="8">
-        <v>299</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324</v>
-      </c>
-      <c r="M11" s="8">
-        <v>361</v>
-      </c>
-      <c r="N11" s="8">
-        <v>403</v>
-      </c>
-      <c r="O11" s="8">
-        <v>439</v>
-      </c>
-      <c r="P11" s="8">
-        <v>494</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>516</v>
-      </c>
-      <c r="R11" s="8">
-        <v>555</v>
-      </c>
-      <c r="S11" s="8">
-        <v>589</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="8">
-        <v>517</v>
-      </c>
-      <c r="D12" s="8">
-        <v>580</v>
-      </c>
-      <c r="E12" s="8">
-        <v>696</v>
-      </c>
-      <c r="F12" s="8">
-        <v>799</v>
-      </c>
-      <c r="G12" s="8">
-        <v>903</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1104</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1146</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1191</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1252</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1340</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1445</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1522</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1613</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1783</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1832</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1914</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2002</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="O13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9726,7 +9959,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5">
         <v>43940</v>
@@ -9737,7 +9970,9 @@
       <c r="D1" s="5">
         <v>43942</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -9761,7 +9996,9 @@
       <c r="D2" s="22">
         <v>127</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="22">
+        <v>8</v>
+      </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -9784,7 +10021,9 @@
       <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -9807,7 +10046,9 @@
       <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -9830,7 +10071,9 @@
       <c r="D5" s="8">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8">
+        <v>17</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -9853,7 +10096,9 @@
       <c r="D6" s="8">
         <v>16</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>19</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -9876,7 +10121,9 @@
       <c r="D7" s="8">
         <v>17</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>25</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -9899,7 +10146,9 @@
       <c r="D8" s="8">
         <v>23</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <v>18</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -9922,7 +10171,9 @@
       <c r="D9" s="8">
         <v>17</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>30</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -9945,7 +10196,9 @@
       <c r="D10" s="8">
         <v>29</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -9968,7 +10221,9 @@
       <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -10037,8 +10292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R7"/>
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10099,7 +10354,9 @@
       <c r="R1" s="5">
         <v>43942</v>
       </c>
-      <c r="S1" s="5"/>
+      <c r="S1" s="5">
+        <v>43943</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -10111,7 +10368,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10142,7 +10399,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -10195,7 +10452,9 @@
       <c r="R3" s="8">
         <v>3</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="8">
+        <v>3</v>
+      </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -10207,7 +10466,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -10260,7 +10519,9 @@
       <c r="R4" s="8">
         <v>102</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="8">
+        <v>112</v>
+      </c>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -10325,7 +10586,9 @@
       <c r="R5" s="8">
         <v>8</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -10390,7 +10653,9 @@
       <c r="R6" s="8">
         <v>14</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="8">
+        <v>15</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -10453,7 +10718,9 @@
       <c r="R7" s="8">
         <v>0</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452FCD9-5E77-6644-B305-ACF5B1F641FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF37A-A62D-994F-9D6A-050013359FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
-    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId3"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId5"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId4"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -47,6 +47,12 @@
     <t>*There is no data for “people tested overall” result for 3/20, an averaged number (adjacent days) has been inserted for graphing purposes until the data can be corrected.</t>
   </si>
   <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Patient Age (yrs)</t>
   </si>
   <si>
@@ -57,9 +63,6 @@
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>All</t>
@@ -87,48 +90,6 @@
   </si>
   <si>
     <t>81+</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Category</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity Values</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>American Indian</t>
-  </si>
-  <si>
-    <t>Native Hawaiian Pacific Islander</t>
-  </si>
-  <si>
-    <t>Two or More Races</t>
-  </si>
-  <si>
-    <t>Refused During Interview</t>
-  </si>
-  <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
-    <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>NOT Hispanic or Latino</t>
   </si>
   <si>
     <t>Testing</t>
@@ -305,7 +266,43 @@
     <t>Total Number of Lives Lost Among IIC</t>
   </si>
   <si>
-    <t>Homeless</t>
+    <t>Race/Ethnicity Category</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity Values</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian Pacific Islander</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>Refused During Interview</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>NOT Hispanic or Latino</t>
   </si>
   <si>
     <t>Hispanic/Latinx</t>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Homeless</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -482,7 +482,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -824,222 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13">
-        <v>3361</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1648</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1705</v>
-      </c>
-      <c r="E2" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13">
-        <v>90</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13">
-        <v>540</v>
-      </c>
-      <c r="C5" s="8">
-        <v>292</v>
-      </c>
-      <c r="D5" s="8">
-        <v>245</v>
-      </c>
-      <c r="E5" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13">
-        <v>641</v>
-      </c>
-      <c r="C6" s="8">
-        <v>309</v>
-      </c>
-      <c r="D6" s="8">
-        <v>330</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13">
-        <v>549</v>
-      </c>
-      <c r="C7" s="8">
-        <v>264</v>
-      </c>
-      <c r="D7" s="8">
-        <v>285</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13">
-        <v>596</v>
-      </c>
-      <c r="C8" s="8">
-        <v>261</v>
-      </c>
-      <c r="D8" s="8">
-        <v>335</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13">
-        <v>505</v>
-      </c>
-      <c r="C9" s="8">
-        <v>231</v>
-      </c>
-      <c r="D9" s="8">
-        <v>273</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="13">
-        <v>243</v>
-      </c>
-      <c r="C10" s="8">
-        <v>118</v>
-      </c>
-      <c r="D10" s="8">
-        <v>125</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="13">
-        <v>195</v>
-      </c>
-      <c r="C11" s="8">
-        <v>129</v>
-      </c>
-      <c r="D11" s="8">
-        <v>66</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X11"/>
+      <selection activeCell="Y3" sqref="Y3:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1079,7 +867,7 @@
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5">
         <v>43921</v>
@@ -1150,7 +938,9 @@
       <c r="X2" s="5">
         <v>43943</v>
       </c>
-      <c r="Y2" s="4"/>
+      <c r="Y2" s="5">
+        <v>43944</v>
+      </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
@@ -1227,7 +1017,9 @@
       <c r="X3" s="8">
         <v>376</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="8">
+        <v>403</v>
+      </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
@@ -1304,7 +1096,9 @@
       <c r="X4" s="8">
         <v>252</v>
       </c>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="8">
+        <v>251</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
@@ -1381,7 +1175,9 @@
       <c r="X5" s="8">
         <v>227</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="8">
+        <v>252</v>
+      </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
@@ -1458,7 +1254,9 @@
       <c r="X6" s="8">
         <v>562</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>595</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
@@ -1535,7 +1333,9 @@
       <c r="X7" s="8">
         <v>456</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="8">
+        <v>488</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
@@ -1612,7 +1412,9 @@
       <c r="X8" s="8">
         <v>406</v>
       </c>
-      <c r="Y8" s="8"/>
+      <c r="Y8" s="8">
+        <v>409</v>
+      </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
@@ -1689,7 +1491,9 @@
       <c r="X9" s="8">
         <v>508</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="8">
+        <v>522</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
@@ -1766,13 +1570,15 @@
       <c r="X10" s="8">
         <v>477</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="8">
+        <v>498</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7">
         <v>25</v>
@@ -1843,7 +1649,9 @@
       <c r="X11" s="8">
         <v>97</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="8">
+        <v>110</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
@@ -1853,1024 +1661,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:T13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" spans="1:27">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13">
+        <v>3528</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1718</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1803</v>
+      </c>
+      <c r="E2" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13">
+        <v>565</v>
+      </c>
+      <c r="C5" s="8">
+        <v>301</v>
+      </c>
+      <c r="D5" s="8">
+        <v>261</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13">
+        <v>673</v>
+      </c>
+      <c r="C6" s="8">
+        <v>323</v>
+      </c>
+      <c r="D6" s="8">
         <v>349</v>
       </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8">
-        <v>603</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1670</v>
-      </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="B7" s="13">
+        <v>571</v>
+      </c>
+      <c r="C7" s="8">
+        <v>272</v>
+      </c>
+      <c r="D7" s="8">
+        <v>299</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
+        <v>621</v>
+      </c>
+      <c r="C8" s="8">
+        <v>270</v>
+      </c>
+      <c r="D8" s="8">
+        <v>351</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B9" s="13">
+        <v>532</v>
+      </c>
+      <c r="C9" s="8">
+        <v>240</v>
+      </c>
+      <c r="D9" s="8">
+        <v>291</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8">
-        <v>11</v>
-      </c>
-      <c r="T6" s="8">
-        <v>12</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6</v>
-      </c>
-      <c r="S7" s="8">
-        <v>7</v>
-      </c>
-      <c r="T7" s="8">
-        <v>7</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13">
+        <v>251</v>
+      </c>
+      <c r="C10" s="8">
         <v>123</v>
       </c>
-      <c r="F8" s="8">
-        <v>153</v>
-      </c>
-      <c r="G8" s="8">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8">
-        <v>226</v>
-      </c>
-      <c r="I8" s="8">
-        <v>242</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256</v>
-      </c>
-      <c r="K8" s="8">
-        <v>275</v>
-      </c>
-      <c r="L8" s="8">
-        <v>300</v>
-      </c>
-      <c r="M8" s="8">
-        <v>345</v>
-      </c>
-      <c r="N8" s="8">
-        <v>386</v>
-      </c>
-      <c r="O8" s="8">
-        <v>431</v>
-      </c>
-      <c r="P8" s="8">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>415</v>
-      </c>
-      <c r="R8" s="8">
-        <v>450</v>
-      </c>
-      <c r="S8" s="8">
-        <v>481</v>
-      </c>
-      <c r="T8" s="8">
-        <v>508</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25</v>
-      </c>
-      <c r="T9" s="8">
-        <v>24</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>341</v>
-      </c>
       <c r="D10" s="8">
-        <v>520</v>
-      </c>
-      <c r="E10" s="8">
-        <v>585</v>
-      </c>
-      <c r="F10" s="8">
-        <v>550</v>
-      </c>
-      <c r="G10" s="8">
-        <v>564</v>
-      </c>
-      <c r="H10" s="8">
-        <v>443</v>
-      </c>
-      <c r="I10" s="8">
-        <v>483</v>
-      </c>
-      <c r="J10" s="8">
-        <v>496</v>
-      </c>
-      <c r="K10" s="8">
-        <v>501</v>
-      </c>
-      <c r="L10" s="8">
-        <v>527</v>
-      </c>
-      <c r="M10" s="8">
-        <v>539</v>
-      </c>
-      <c r="N10" s="8">
-        <v>544</v>
-      </c>
-      <c r="O10" s="8">
-        <v>607</v>
-      </c>
-      <c r="P10" s="8">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>563</v>
-      </c>
-      <c r="R10" s="8">
-        <v>615</v>
-      </c>
-      <c r="S10" s="8">
-        <v>601</v>
-      </c>
-      <c r="T10" s="8">
-        <v>663</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27">
+        <v>128</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="13">
+        <v>217</v>
       </c>
       <c r="C11" s="8">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D11" s="8">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>154</v>
-      </c>
-      <c r="F11" s="8">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8">
-        <v>188</v>
-      </c>
-      <c r="H11" s="8">
-        <v>227</v>
-      </c>
-      <c r="I11" s="8">
-        <v>241</v>
-      </c>
-      <c r="J11" s="8">
-        <v>263</v>
-      </c>
-      <c r="K11" s="8">
-        <v>299</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324</v>
-      </c>
-      <c r="M11" s="8">
-        <v>361</v>
-      </c>
-      <c r="N11" s="8">
-        <v>403</v>
-      </c>
-      <c r="O11" s="8">
-        <v>439</v>
-      </c>
-      <c r="P11" s="8">
-        <v>494</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>516</v>
-      </c>
-      <c r="R11" s="8">
-        <v>555</v>
-      </c>
-      <c r="S11" s="8">
-        <v>589</v>
-      </c>
-      <c r="T11" s="8">
-        <v>610</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8">
-        <v>517</v>
-      </c>
-      <c r="D12" s="8">
-        <v>580</v>
-      </c>
-      <c r="E12" s="8">
-        <v>696</v>
-      </c>
-      <c r="F12" s="8">
-        <v>799</v>
-      </c>
-      <c r="G12" s="8">
-        <v>903</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1104</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1146</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1191</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1252</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1340</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1445</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1522</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1613</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1783</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1832</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1914</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2002</v>
-      </c>
-      <c r="T12" s="8">
-        <v>2074</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="O13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>14</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW81"/>
+  <dimension ref="A1:AX81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AV59" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW66" sqref="AW66:AW80"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2882,7 +1890,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:50">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -3023,14 +2031,17 @@
       <c r="AV1" s="5">
         <v>43942</v>
       </c>
-      <c r="AW1" s="23">
+      <c r="AW1" s="5">
         <v>43943</v>
       </c>
-    </row>
-    <row r="2" spans="1:49">
+      <c r="AX1" s="5">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3078,13 +2089,15 @@
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -3212,16 +2225,19 @@
       <c r="AV3" s="12">
         <v>15502</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="12">
         <v>15930</v>
       </c>
-    </row>
-    <row r="4" spans="1:49">
+      <c r="AX3" s="12">
+        <v>16533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -3361,16 +2377,19 @@
       <c r="AV4" s="12">
         <v>3206</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="12">
         <v>3361</v>
       </c>
-    </row>
-    <row r="5" spans="1:49">
+      <c r="AX4" s="12">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3498,16 +2517,19 @@
       <c r="AV5" s="12">
         <v>127</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="12">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:49">
+      <c r="AX5" s="12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3615,11 +2637,14 @@
       <c r="AV6" s="12">
         <v>645</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="12">
         <v>648</v>
       </c>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="AX6" s="12">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -3668,13 +2693,15 @@
       <c r="AT7" s="12"/>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12"/>
-    </row>
-    <row r="8" spans="1:49">
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+    </row>
+    <row r="8" spans="1:50">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3778,16 +2805,19 @@
       <c r="AV8" s="12">
         <v>91</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="AX8" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3891,16 +2921,19 @@
       <c r="AV9" s="12">
         <v>444</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="12">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:49">
+      <c r="AX9" s="12">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4004,16 +3037,19 @@
       <c r="AV10" s="12">
         <v>200</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="12">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:49">
+      <c r="AX10" s="12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4117,11 +3153,14 @@
       <c r="AV11" s="12">
         <v>244</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="12">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="AX11" s="12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -4170,11 +3209,13 @@
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="12"/>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+    </row>
+    <row r="13" spans="1:50">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4222,13 +3263,15 @@
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
       <c r="AV13" s="12"/>
-    </row>
-    <row r="14" spans="1:49">
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+    </row>
+    <row r="14" spans="1:50">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4276,13 +3319,15 @@
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>
       <c r="AV14" s="12"/>
-    </row>
-    <row r="15" spans="1:49">
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+    </row>
+    <row r="15" spans="1:50">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4388,16 +3433,19 @@
       <c r="AV15" s="12">
         <v>77</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:49">
+      <c r="AX15" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -4467,16 +3515,19 @@
       <c r="AV16" s="12">
         <v>40</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" s="12">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:49">
+      <c r="AX16" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4546,16 +3597,19 @@
       <c r="AV17" s="12">
         <v>37</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:49">
+      <c r="AX17" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4655,16 +3709,19 @@
       <c r="AV18" s="12">
         <v>103</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" s="12">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:49">
+      <c r="AX18" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4764,16 +3821,19 @@
       <c r="AV19" s="12">
         <v>143</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" s="12">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:49">
+      <c r="AX19" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4873,11 +3933,14 @@
       <c r="AV20" s="12">
         <v>589</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" s="12">
         <v>615</v>
       </c>
-    </row>
-    <row r="21" spans="1:49">
+      <c r="AX20" s="12">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -4926,11 +3989,13 @@
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
       <c r="AV21" s="12"/>
-    </row>
-    <row r="22" spans="1:49">
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+    </row>
+    <row r="22" spans="1:50">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4978,13 +4043,15 @@
       <c r="AT22" s="12"/>
       <c r="AU22" s="12"/>
       <c r="AV22" s="12"/>
-    </row>
-    <row r="23" spans="1:49">
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+    </row>
+    <row r="23" spans="1:50">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -5090,16 +4157,19 @@
       <c r="AV23" s="12">
         <v>86</v>
       </c>
-      <c r="AW23">
+      <c r="AW23" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:49">
+      <c r="AX23" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -5169,16 +4239,19 @@
       <c r="AV24" s="12">
         <v>61</v>
       </c>
-      <c r="AW24">
+      <c r="AW24" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:49">
+      <c r="AX24" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -5248,16 +4321,19 @@
       <c r="AV25" s="12">
         <v>25</v>
       </c>
-      <c r="AW25">
+      <c r="AW25" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:49">
+      <c r="AX25" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
       <c r="A26" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5357,16 +4433,19 @@
       <c r="AV26" s="12">
         <v>109</v>
       </c>
-      <c r="AW26">
+      <c r="AW26" s="12">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:49">
+      <c r="AX26" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -5466,16 +4545,19 @@
       <c r="AV27" s="12">
         <v>170</v>
       </c>
-      <c r="AW27">
+      <c r="AW27" s="12">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="1:49">
+      <c r="AX27" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5575,11 +4657,14 @@
       <c r="AV28" s="12">
         <v>640</v>
       </c>
-      <c r="AW28">
+      <c r="AW28" s="12">
         <v>670</v>
       </c>
-    </row>
-    <row r="29" spans="1:49">
+      <c r="AX28" s="12">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -5628,11 +4713,13 @@
       <c r="AT29" s="12"/>
       <c r="AU29" s="12"/>
       <c r="AV29" s="12"/>
-    </row>
-    <row r="30" spans="1:49">
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+    </row>
+    <row r="30" spans="1:50">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -5680,13 +4767,15 @@
       <c r="AT30" s="12"/>
       <c r="AU30" s="12"/>
       <c r="AV30" s="12"/>
-    </row>
-    <row r="31" spans="1:49">
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+    </row>
+    <row r="31" spans="1:50">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -5786,16 +4875,19 @@
       <c r="AV31" s="12">
         <v>27</v>
       </c>
-      <c r="AW31">
+      <c r="AW31" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:49">
+      <c r="AX31" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -5863,16 +4955,19 @@
       <c r="AV32" s="12">
         <v>19</v>
       </c>
-      <c r="AW32">
+      <c r="AW32" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:49">
+      <c r="AX32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
       <c r="A33" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -5940,16 +5035,19 @@
       <c r="AV33" s="12">
         <v>7</v>
       </c>
-      <c r="AW33">
+      <c r="AW33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:49">
+      <c r="AX33" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
       <c r="A34" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -6049,16 +5147,19 @@
       <c r="AV34" s="12">
         <v>126</v>
       </c>
-      <c r="AW34">
+      <c r="AW34" s="12">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:49">
+      <c r="AX34" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -6156,16 +5257,19 @@
       <c r="AV35" s="12">
         <v>145</v>
       </c>
-      <c r="AW35">
+      <c r="AW35" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="36" spans="1:49">
+      <c r="AX35" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -6265,16 +5369,19 @@
       <c r="AV36" s="12">
         <v>100</v>
       </c>
-      <c r="AW36">
+      <c r="AW36" s="12">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:49">
+      <c r="AX36" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
       <c r="A37" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -6330,11 +5437,14 @@
       <c r="AV37" s="12">
         <v>1</v>
       </c>
-      <c r="AW37">
+      <c r="AW37" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:49">
+      <c r="AX37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -6383,11 +5493,13 @@
       <c r="AT38" s="12"/>
       <c r="AU38" s="12"/>
       <c r="AV38" s="12"/>
-    </row>
-    <row r="39" spans="1:49">
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+    </row>
+    <row r="39" spans="1:50">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -6435,13 +5547,15 @@
       <c r="AT39" s="12"/>
       <c r="AU39" s="12"/>
       <c r="AV39" s="12"/>
-    </row>
-    <row r="40" spans="1:49">
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+    </row>
+    <row r="40" spans="1:50">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -6543,16 +5657,19 @@
       <c r="AV40" s="12">
         <v>99</v>
       </c>
-      <c r="AW40">
+      <c r="AW40" s="12">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:49">
+      <c r="AX40" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
       <c r="A41" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -6622,16 +5739,19 @@
       <c r="AV41" s="12">
         <v>45</v>
       </c>
-      <c r="AW41">
+      <c r="AW41" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:49">
+      <c r="AX41" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
       <c r="A42" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -6701,16 +5821,19 @@
       <c r="AV42" s="12">
         <v>52</v>
       </c>
-      <c r="AW42">
+      <c r="AW42" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:49">
+      <c r="AX42" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
       <c r="A43" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -6810,16 +5933,19 @@
       <c r="AV43" s="12">
         <v>1014</v>
       </c>
-      <c r="AW43">
+      <c r="AW43" s="12">
         <v>976</v>
       </c>
-    </row>
-    <row r="44" spans="1:49">
+      <c r="AX43" s="12">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50">
       <c r="A44" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -6889,16 +6015,19 @@
       <c r="AV44" s="12">
         <v>1059</v>
       </c>
-      <c r="AW44">
+      <c r="AW44" s="12">
         <v>1022</v>
       </c>
-    </row>
-    <row r="45" spans="1:49">
+      <c r="AX44" s="12">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50">
       <c r="A45" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -6966,16 +6095,19 @@
       <c r="AV45" s="12">
         <v>53</v>
       </c>
-      <c r="AW45">
+      <c r="AW45" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:49">
+      <c r="AX45" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50">
       <c r="A46" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7039,11 +6171,14 @@
       <c r="AV46" s="12">
         <v>1</v>
       </c>
-      <c r="AW46">
+      <c r="AW46" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:49">
+      <c r="AX46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -7092,11 +6227,13 @@
       <c r="AT47" s="12"/>
       <c r="AU47" s="12"/>
       <c r="AV47" s="12"/>
-    </row>
-    <row r="48" spans="1:49">
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+    </row>
+    <row r="48" spans="1:50">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -7144,13 +6281,15 @@
       <c r="AT48" s="12"/>
       <c r="AU48" s="12"/>
       <c r="AV48" s="12"/>
-    </row>
-    <row r="49" spans="1:49">
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+    </row>
+    <row r="49" spans="1:50">
       <c r="A49" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7242,16 +6381,19 @@
       <c r="AV49" s="12">
         <v>19</v>
       </c>
-      <c r="AW49">
+      <c r="AW49" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:49">
+      <c r="AX49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50">
       <c r="A50" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7319,16 +6461,19 @@
       <c r="AV50" s="12">
         <v>16</v>
       </c>
-      <c r="AW50">
+      <c r="AW50" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:49">
+      <c r="AX50" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50">
       <c r="A51" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -7396,16 +6541,19 @@
       <c r="AV51" s="12">
         <v>2</v>
       </c>
-      <c r="AW51">
+      <c r="AW51" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:49">
+      <c r="AX51" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50">
       <c r="A52" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7497,16 +6645,19 @@
       <c r="AV52" s="12">
         <v>49</v>
       </c>
-      <c r="AW52">
+      <c r="AW52" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:49">
+      <c r="AX52" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50">
       <c r="A53" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -7598,16 +6749,19 @@
       <c r="AV53" s="12">
         <v>66</v>
       </c>
-      <c r="AW53">
+      <c r="AW53" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:49">
+      <c r="AX53" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50">
       <c r="A54" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -7699,16 +6853,19 @@
       <c r="AV54" s="12">
         <v>68</v>
       </c>
-      <c r="AW54">
+      <c r="AW54" s="12">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:49">
+      <c r="AX54" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50">
       <c r="A55" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -7772,11 +6929,14 @@
       <c r="AV55" s="12">
         <v>1</v>
       </c>
-      <c r="AW55">
+      <c r="AW55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:49">
+      <c r="AX55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -7825,13 +6985,15 @@
       <c r="AT56" s="12"/>
       <c r="AU56" s="12"/>
       <c r="AV56" s="12"/>
-    </row>
-    <row r="57" spans="1:49">
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="12"/>
+    </row>
+    <row r="57" spans="1:50">
       <c r="A57" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -7923,16 +7085,19 @@
       <c r="AV57" s="12">
         <v>9</v>
       </c>
-      <c r="AW57">
+      <c r="AW57" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:49">
+      <c r="AX57" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50">
       <c r="A58" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -8000,16 +7165,19 @@
       <c r="AV58" s="12">
         <v>8</v>
       </c>
-      <c r="AW58">
+      <c r="AW58" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:49">
+      <c r="AX58" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50">
       <c r="A59" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -8077,16 +7245,19 @@
       <c r="AV59" s="12">
         <v>1</v>
       </c>
-      <c r="AW59">
+      <c r="AW59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:49">
+      <c r="AX59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50">
       <c r="A60" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -8178,16 +7349,19 @@
       <c r="AV60" s="12">
         <v>38</v>
       </c>
-      <c r="AW60">
+      <c r="AW60" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:49">
+      <c r="AX60" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50">
       <c r="A61" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -8279,16 +7453,19 @@
       <c r="AV61" s="12">
         <v>46</v>
       </c>
-      <c r="AW61">
+      <c r="AW61" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:49">
+      <c r="AX61" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50">
       <c r="A62" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -8378,16 +7555,19 @@
       <c r="AV62" s="12">
         <v>0</v>
       </c>
-      <c r="AW62">
+      <c r="AW62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:49">
+      <c r="AX62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50">
       <c r="A63" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -8455,11 +7635,14 @@
       <c r="AV63" s="12">
         <v>1</v>
       </c>
-      <c r="AW63">
+      <c r="AW63" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:49">
+      <c r="AX63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:50">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -8508,11 +7691,13 @@
       <c r="AT64" s="12"/>
       <c r="AU64" s="12"/>
       <c r="AV64" s="12"/>
-    </row>
-    <row r="65" spans="1:49">
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+    </row>
+    <row r="65" spans="1:50">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -8560,13 +7745,15 @@
       <c r="AT65" s="12"/>
       <c r="AU65" s="12"/>
       <c r="AV65" s="12"/>
-    </row>
-    <row r="66" spans="1:49">
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="12"/>
+    </row>
+    <row r="66" spans="1:50">
       <c r="A66" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -8658,16 +7845,19 @@
       <c r="AV66" s="12">
         <v>131</v>
       </c>
-      <c r="AW66">
+      <c r="AW66" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:49">
+      <c r="AX66" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50">
       <c r="A67" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -8759,16 +7949,19 @@
       <c r="AV67" s="12">
         <v>253</v>
       </c>
-      <c r="AW67">
+      <c r="AW67" s="12">
         <v>247</v>
       </c>
-    </row>
-    <row r="68" spans="1:49">
+      <c r="AX67" s="12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50">
       <c r="A68" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8860,16 +8053,19 @@
       <c r="AV68" s="12">
         <v>236</v>
       </c>
-      <c r="AW68">
+      <c r="AW68" s="12">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:49">
+      <c r="AX68" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:50">
       <c r="A69" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -8933,11 +8129,14 @@
       <c r="AV69" s="12">
         <v>7</v>
       </c>
-      <c r="AW69">
+      <c r="AW69" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:49">
+      <c r="AX69" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:50">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -8986,13 +8185,15 @@
       <c r="AT70" s="12"/>
       <c r="AU70" s="12"/>
       <c r="AV70" s="12"/>
-    </row>
-    <row r="71" spans="1:49">
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+    </row>
+    <row r="71" spans="1:50">
       <c r="A71" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -9084,16 +8285,19 @@
       <c r="AV71" s="12">
         <v>66</v>
       </c>
-      <c r="AW71">
+      <c r="AW71" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:49">
+      <c r="AX71" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50">
       <c r="A72" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -9185,16 +8389,19 @@
       <c r="AV72" s="12">
         <v>23</v>
       </c>
-      <c r="AW72">
+      <c r="AW72" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:49">
+      <c r="AX72" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50">
       <c r="A73" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -9286,16 +8493,19 @@
       <c r="AV73" s="12">
         <v>85</v>
       </c>
-      <c r="AW73">
+      <c r="AW73" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:49">
+      <c r="AX73" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50">
       <c r="A74" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -9379,11 +8589,14 @@
       <c r="AV74" s="12">
         <v>77</v>
       </c>
-      <c r="AW74">
+      <c r="AW74" s="12">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:49">
+      <c r="AX74" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:50">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -9432,13 +8645,15 @@
       <c r="AT75" s="12"/>
       <c r="AU75" s="12"/>
       <c r="AV75" s="12"/>
-    </row>
-    <row r="76" spans="1:49">
+      <c r="AW75" s="12"/>
+      <c r="AX75" s="12"/>
+    </row>
+    <row r="76" spans="1:50">
       <c r="A76" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -9530,16 +8745,19 @@
       <c r="AV76" s="12">
         <v>41</v>
       </c>
-      <c r="AW76">
+      <c r="AW76" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:49">
+      <c r="AX76" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:50">
       <c r="A77" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -9631,16 +8849,19 @@
       <c r="AV77" s="12">
         <v>29</v>
       </c>
-      <c r="AW77">
+      <c r="AW77" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:49">
+      <c r="AX77" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50">
       <c r="A78" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -9710,16 +8931,19 @@
       <c r="AV78" s="12">
         <v>29</v>
       </c>
-      <c r="AW78">
+      <c r="AW78" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:49">
+      <c r="AX78" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50">
       <c r="A79" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -9785,16 +9009,19 @@
       <c r="AV79" s="12">
         <v>2</v>
       </c>
-      <c r="AW79">
+      <c r="AW79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:49">
+      <c r="AX79" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50">
       <c r="A80" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -9884,11 +9111,14 @@
       <c r="AV80" s="12">
         <v>6</v>
       </c>
-      <c r="AW80">
+      <c r="AW80" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:48">
+      <c r="AX80" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
@@ -9937,6 +9167,8 @@
       <c r="AT81" s="19"/>
       <c r="AU81" s="19"/>
       <c r="AV81" s="19"/>
+      <c r="AW81" s="19"/>
+      <c r="AX81" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9944,329 +9176,1028 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:M21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:27">
       <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>7</v>
+      </c>
+      <c r="T7" s="8">
+        <v>7</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8" s="8">
+        <v>153</v>
+      </c>
+      <c r="G8" s="8">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8">
+        <v>226</v>
+      </c>
+      <c r="I8" s="8">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8">
+        <v>256</v>
+      </c>
+      <c r="K8" s="8">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>386</v>
+      </c>
+      <c r="O8" s="8">
+        <v>431</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>415</v>
+      </c>
+      <c r="R8" s="8">
+        <v>450</v>
+      </c>
+      <c r="S8" s="8">
+        <v>481</v>
+      </c>
+      <c r="T8" s="8">
+        <v>508</v>
+      </c>
+      <c r="U8" s="8">
+        <v>538</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8">
+        <v>24</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8">
+        <v>520</v>
+      </c>
+      <c r="E10" s="8">
+        <v>585</v>
+      </c>
+      <c r="F10" s="8">
+        <v>550</v>
+      </c>
+      <c r="G10" s="8">
+        <v>564</v>
+      </c>
+      <c r="H10" s="8">
+        <v>443</v>
+      </c>
+      <c r="I10" s="8">
+        <v>483</v>
+      </c>
+      <c r="J10" s="8">
+        <v>496</v>
+      </c>
+      <c r="K10" s="8">
+        <v>501</v>
+      </c>
+      <c r="L10" s="8">
+        <v>527</v>
+      </c>
+      <c r="M10" s="8">
+        <v>539</v>
+      </c>
+      <c r="N10" s="8">
+        <v>544</v>
+      </c>
+      <c r="O10" s="8">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>563</v>
+      </c>
+      <c r="R10" s="8">
+        <v>615</v>
+      </c>
+      <c r="S10" s="8">
+        <v>601</v>
+      </c>
+      <c r="T10" s="8">
+        <v>663</v>
+      </c>
+      <c r="U10" s="8">
+        <v>705</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>154</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169</v>
+      </c>
+      <c r="G11" s="8">
+        <v>188</v>
+      </c>
+      <c r="H11" s="8">
+        <v>227</v>
+      </c>
+      <c r="I11" s="8">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8">
+        <v>263</v>
+      </c>
+      <c r="K11" s="8">
+        <v>299</v>
+      </c>
+      <c r="L11" s="8">
+        <v>324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>403</v>
+      </c>
+      <c r="O11" s="8">
+        <v>439</v>
+      </c>
+      <c r="P11" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>555</v>
+      </c>
+      <c r="S11" s="8">
+        <v>589</v>
+      </c>
+      <c r="T11" s="8">
+        <v>610</v>
+      </c>
+      <c r="U11" s="8">
+        <v>636</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8">
+        <v>517</v>
+      </c>
+      <c r="D12" s="8">
+        <v>580</v>
+      </c>
+      <c r="E12" s="8">
+        <v>696</v>
+      </c>
+      <c r="F12" s="8">
+        <v>799</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1146</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1191</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1252</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1340</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1445</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1613</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1783</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1832</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1914</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2074</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2173</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
         <v>16</v>
       </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="22">
-        <v>112</v>
-      </c>
-      <c r="D2" s="22">
-        <v>127</v>
-      </c>
-      <c r="E2" s="22">
-        <v>8</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11"/>
+      <c r="S13" s="8">
+        <v>14</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8">
+        <v>14</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="11"/>
@@ -10276,24 +10207,18 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10357,7 +10282,9 @@
       <c r="S1" s="5">
         <v>43943</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="5">
+        <v>43944</v>
+      </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
@@ -10368,7 +10295,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10399,7 +10326,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -10455,7 +10382,9 @@
       <c r="S3" s="8">
         <v>3</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="8">
+        <v>3</v>
+      </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -10466,7 +10395,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -10522,7 +10451,9 @@
       <c r="S4" s="8">
         <v>112</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="8">
+        <v>124</v>
+      </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -10533,7 +10464,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -10589,7 +10520,9 @@
       <c r="S5" s="8">
         <v>9</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="8">
+        <v>9</v>
+      </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
@@ -10600,7 +10533,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -10656,7 +10589,9 @@
       <c r="S6" s="8">
         <v>15</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="8">
+        <v>16</v>
+      </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -10667,7 +10602,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -10721,7 +10656,9 @@
       <c r="S7" s="8">
         <v>0</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -10879,4 +10816,374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="22">
+        <v>112</v>
+      </c>
+      <c r="D2" s="22">
+        <v>127</v>
+      </c>
+      <c r="E2" s="22">
+        <v>139</v>
+      </c>
+      <c r="F2" s="22">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -10,16 +10,16 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF37A-A62D-994F-9D6A-050013359FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId4"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId7"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId5"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId6"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -266,6 +266,9 @@
     <t>Total Number of Lives Lost Among IIC</t>
   </si>
   <si>
+    <t>Homeless</t>
+  </si>
+  <si>
     <t>Race/Ethnicity Category</t>
   </si>
   <si>
@@ -312,9 +315,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Homeless</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -482,6 +482,7 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -826,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y11"/>
+    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -941,7 +942,9 @@
       <c r="Y2" s="5">
         <v>43944</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="5">
+        <v>43945</v>
+      </c>
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27">
@@ -1020,7 +1023,9 @@
       <c r="Y3" s="8">
         <v>403</v>
       </c>
-      <c r="Z3" s="8"/>
+      <c r="Z3" s="8">
+        <v>427</v>
+      </c>
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27">
@@ -1099,7 +1104,9 @@
       <c r="Y4" s="8">
         <v>251</v>
       </c>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="8">
+        <v>256</v>
+      </c>
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27">
@@ -1178,7 +1185,9 @@
       <c r="Y5" s="8">
         <v>252</v>
       </c>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="8">
+        <v>258</v>
+      </c>
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27">
@@ -1257,7 +1266,9 @@
       <c r="Y6" s="8">
         <v>595</v>
       </c>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>636</v>
+      </c>
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27">
@@ -1336,7 +1347,9 @@
       <c r="Y7" s="8">
         <v>488</v>
       </c>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="8">
+        <v>513</v>
+      </c>
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27">
@@ -1415,7 +1428,9 @@
       <c r="Y8" s="8">
         <v>409</v>
       </c>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="8">
+        <v>414</v>
+      </c>
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27">
@@ -1494,7 +1509,9 @@
       <c r="Y9" s="8">
         <v>522</v>
       </c>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="8">
+        <v>543</v>
+      </c>
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27">
@@ -1573,7 +1590,9 @@
       <c r="Y10" s="8">
         <v>498</v>
       </c>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="8">
+        <v>518</v>
+      </c>
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27">
@@ -1652,7 +1671,9 @@
       <c r="Y11" s="8">
         <v>110</v>
       </c>
-      <c r="Z11" s="8"/>
+      <c r="Z11" s="8">
+        <v>134</v>
+      </c>
       <c r="AA11" s="8"/>
     </row>
   </sheetData>
@@ -1666,7 +1687,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1698,16 +1719,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="13">
-        <v>3528</v>
+        <v>3699</v>
       </c>
       <c r="C2" s="13">
-        <v>1718</v>
+        <v>1803</v>
       </c>
       <c r="D2" s="13">
-        <v>1803</v>
+        <v>1887</v>
       </c>
       <c r="E2" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1715,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4</v>
+      </c>
+      <c r="D3" s="20">
         <v>2</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1732,16 +1753,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1749,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="13">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="C5" s="8">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D5" s="8">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -1766,13 +1787,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="13">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="C6" s="8">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D6" s="8">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -1783,13 +1804,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="13">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="C7" s="8">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D7" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1800,13 +1821,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="13">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="C8" s="8">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D8" s="8">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -1817,13 +1838,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="13">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="C9" s="8">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D9" s="8">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1834,16 +1855,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="13">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D10" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1851,13 +1872,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="13">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C11" s="8">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1874,11 +1895,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX81"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB16" sqref="BB16"/>
+      <pane xSplit="2" topLeftCell="AV59" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY66" sqref="AY66:AY80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1890,7 +1911,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -2037,8 +2058,11 @@
       <c r="AX1" s="5">
         <v>43944</v>
       </c>
-    </row>
-    <row r="2" spans="1:50">
+      <c r="AY1" s="23">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -2092,7 +2116,7 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -2231,8 +2255,11 @@
       <c r="AX3" s="12">
         <v>16533</v>
       </c>
-    </row>
-    <row r="4" spans="1:50">
+      <c r="AY3">
+        <v>17302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2383,8 +2410,11 @@
       <c r="AX4" s="12">
         <v>3528</v>
       </c>
-    </row>
-    <row r="5" spans="1:50">
+      <c r="AY4">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2523,8 +2553,11 @@
       <c r="AX5" s="12">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:50">
+      <c r="AY5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2643,8 +2676,11 @@
       <c r="AX6" s="12">
         <v>651</v>
       </c>
-    </row>
-    <row r="7" spans="1:50">
+      <c r="AY6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -2696,7 +2732,7 @@
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2811,8 +2847,11 @@
       <c r="AX8" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:50">
+      <c r="AY8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2927,8 +2966,11 @@
       <c r="AX9" s="12">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:50">
+      <c r="AY9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -3043,8 +3085,11 @@
       <c r="AX10" s="12">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="1:50">
+      <c r="AY10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -3159,8 +3204,11 @@
       <c r="AX11" s="12">
         <v>265</v>
       </c>
-    </row>
-    <row r="12" spans="1:50">
+      <c r="AY11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -3212,7 +3260,7 @@
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -3266,7 +3314,7 @@
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3322,7 +3370,7 @@
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -3439,8 +3487,11 @@
       <c r="AX15" s="12">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:50">
+      <c r="AY15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3521,8 +3572,11 @@
       <c r="AX16" s="12">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:50">
+      <c r="AY16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -3603,8 +3657,11 @@
       <c r="AX17" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:50">
+      <c r="AY17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -3715,8 +3772,11 @@
       <c r="AX18" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:50">
+      <c r="AY18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -3827,8 +3887,11 @@
       <c r="AX19" s="12">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:50">
+      <c r="AY19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -3939,8 +4002,11 @@
       <c r="AX20" s="12">
         <v>634</v>
       </c>
-    </row>
-    <row r="21" spans="1:50">
+      <c r="AY20">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -3992,7 +4058,7 @@
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>35</v>
@@ -4046,7 +4112,7 @@
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -4163,8 +4229,11 @@
       <c r="AX23" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:50">
+      <c r="AY23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -4245,8 +4314,11 @@
       <c r="AX24" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:50">
+      <c r="AY24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -4327,8 +4399,11 @@
       <c r="AX25" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:50">
+      <c r="AY25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -4439,8 +4514,11 @@
       <c r="AX26" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:50">
+      <c r="AY26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -4551,8 +4629,11 @@
       <c r="AX27" s="12">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:50">
+      <c r="AY27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -4663,8 +4744,11 @@
       <c r="AX28" s="12">
         <v>697</v>
       </c>
-    </row>
-    <row r="29" spans="1:50">
+      <c r="AY28">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -4716,7 +4800,7 @@
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>40</v>
@@ -4770,7 +4854,7 @@
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
@@ -4881,8 +4965,11 @@
       <c r="AX31" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:50">
+      <c r="AY31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51">
       <c r="A32" s="6" t="s">
         <v>41</v>
       </c>
@@ -4961,8 +5048,11 @@
       <c r="AX32" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:50">
+      <c r="AY32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
@@ -5041,8 +5131,11 @@
       <c r="AX33" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:50">
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -5153,8 +5246,11 @@
       <c r="AX34" s="12">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:50">
+      <c r="AY34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -5263,8 +5359,11 @@
       <c r="AX35" s="12">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:50">
+      <c r="AY35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -5375,8 +5474,11 @@
       <c r="AX36" s="12">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:50">
+      <c r="AY36">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51">
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
@@ -5443,8 +5545,11 @@
       <c r="AX37" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:50">
+      <c r="AY37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -5496,7 +5601,7 @@
       <c r="AW38" s="12"/>
       <c r="AX38" s="12"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>40</v>
@@ -5550,7 +5655,7 @@
       <c r="AW39" s="12"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
@@ -5663,8 +5768,11 @@
       <c r="AX40" s="12">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:50">
+      <c r="AY40">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51">
       <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
@@ -5745,8 +5853,11 @@
       <c r="AX41" s="12">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:50">
+      <c r="AY41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51">
       <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
@@ -5827,8 +5938,11 @@
       <c r="AX42" s="12">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:50">
+      <c r="AY42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
@@ -5939,8 +6053,11 @@
       <c r="AX43" s="12">
         <v>971</v>
       </c>
-    </row>
-    <row r="44" spans="1:50">
+      <c r="AY43">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -6021,8 +6138,11 @@
       <c r="AX44" s="12">
         <v>1018</v>
       </c>
-    </row>
-    <row r="45" spans="1:50">
+      <c r="AY44">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -6101,8 +6221,11 @@
       <c r="AX45" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:50">
+      <c r="AY45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -6177,8 +6300,11 @@
       <c r="AX46" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:50">
+      <c r="AY46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -6230,7 +6356,7 @@
       <c r="AW47" s="12"/>
       <c r="AX47" s="12"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:51">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>53</v>
@@ -6284,7 +6410,7 @@
       <c r="AW48" s="12"/>
       <c r="AX48" s="12"/>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:51">
       <c r="A49" s="6" t="s">
         <v>54</v>
       </c>
@@ -6387,8 +6513,11 @@
       <c r="AX49" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:50">
+      <c r="AY49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51">
       <c r="A50" s="6" t="s">
         <v>54</v>
       </c>
@@ -6467,8 +6596,11 @@
       <c r="AX50" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:50">
+      <c r="AY50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
@@ -6547,8 +6679,11 @@
       <c r="AX51" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:50">
+      <c r="AY51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51">
       <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
@@ -6651,8 +6786,11 @@
       <c r="AX52" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:50">
+      <c r="AY52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51">
       <c r="A53" s="6" t="s">
         <v>54</v>
       </c>
@@ -6755,8 +6893,11 @@
       <c r="AX53" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:50">
+      <c r="AY53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -6859,8 +7000,11 @@
       <c r="AX54" s="12">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:50">
+      <c r="AY54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -6935,8 +7079,11 @@
       <c r="AX55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:50">
+      <c r="AY55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -6988,7 +7135,7 @@
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:51">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -7091,8 +7238,11 @@
       <c r="AX57" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:50">
+      <c r="AY57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -7171,8 +7321,11 @@
       <c r="AX58" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:50">
+      <c r="AY58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
@@ -7251,8 +7404,11 @@
       <c r="AX59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:50">
+      <c r="AY59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -7355,8 +7511,11 @@
       <c r="AX60" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:50">
+      <c r="AY60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -7459,8 +7618,11 @@
       <c r="AX61" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:50">
+      <c r="AY61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -7561,8 +7723,11 @@
       <c r="AX62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:50">
+      <c r="AY62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -7641,8 +7806,11 @@
       <c r="AX63" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:50">
+      <c r="AY63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -7694,7 +7862,7 @@
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:51">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
         <v>63</v>
@@ -7748,7 +7916,7 @@
       <c r="AW65" s="12"/>
       <c r="AX65" s="12"/>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:51">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
@@ -7851,8 +8019,11 @@
       <c r="AX66" s="12">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:50">
+      <c r="AY66">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51">
       <c r="A67" s="6" t="s">
         <v>64</v>
       </c>
@@ -7955,8 +8126,11 @@
       <c r="AX67" s="12">
         <v>253</v>
       </c>
-    </row>
-    <row r="68" spans="1:50">
+      <c r="AY67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51">
       <c r="A68" s="6" t="s">
         <v>64</v>
       </c>
@@ -8059,8 +8233,11 @@
       <c r="AX68" s="12">
         <v>213</v>
       </c>
-    </row>
-    <row r="69" spans="1:50">
+      <c r="AY68">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51">
       <c r="A69" s="6" t="s">
         <v>64</v>
       </c>
@@ -8135,8 +8312,11 @@
       <c r="AX69" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:50">
+      <c r="AY69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -8188,7 +8368,7 @@
       <c r="AW70" s="12"/>
       <c r="AX70" s="12"/>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:51">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
@@ -8291,8 +8471,11 @@
       <c r="AX71" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:50">
+      <c r="AY71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51">
       <c r="A72" s="6" t="s">
         <v>69</v>
       </c>
@@ -8395,8 +8578,11 @@
       <c r="AX72" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:50">
+      <c r="AY72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51">
       <c r="A73" s="6" t="s">
         <v>69</v>
       </c>
@@ -8499,8 +8685,11 @@
       <c r="AX73" s="12">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:50">
+      <c r="AY73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51">
       <c r="A74" s="6" t="s">
         <v>69</v>
       </c>
@@ -8595,8 +8784,11 @@
       <c r="AX74" s="12">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:50">
+      <c r="AY74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -8648,7 +8840,7 @@
       <c r="AW75" s="12"/>
       <c r="AX75" s="12"/>
     </row>
-    <row r="76" spans="1:50">
+    <row r="76" spans="1:51">
       <c r="A76" s="6" t="s">
         <v>70</v>
       </c>
@@ -8751,8 +8943,11 @@
       <c r="AX76" s="12">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:50">
+      <c r="AY76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51">
       <c r="A77" s="6" t="s">
         <v>70</v>
       </c>
@@ -8855,8 +9050,11 @@
       <c r="AX77" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:50">
+      <c r="AY77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51">
       <c r="A78" s="6" t="s">
         <v>70</v>
       </c>
@@ -8937,8 +9135,11 @@
       <c r="AX78" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:50">
+      <c r="AY78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51">
       <c r="A79" s="6" t="s">
         <v>70</v>
       </c>
@@ -9015,8 +9216,11 @@
       <c r="AX79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:50">
+      <c r="AY79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51">
       <c r="A80" s="6" t="s">
         <v>70</v>
       </c>
@@ -9115,6 +9319,9 @@
         <v>6</v>
       </c>
       <c r="AX80" s="12">
+        <v>6</v>
+      </c>
+      <c r="AY80">
         <v>6</v>
       </c>
     </row>
@@ -9177,11 +9384,405 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="22">
+        <v>112</v>
+      </c>
+      <c r="D2" s="22">
+        <v>127</v>
+      </c>
+      <c r="E2" s="22">
+        <v>139</v>
+      </c>
+      <c r="F2" s="22">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22">
+        <v>165</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <v>23</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9195,10 +9796,10 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5">
         <v>43926</v>
@@ -9257,7 +9858,9 @@
       <c r="U1" s="5">
         <v>43944</v>
       </c>
-      <c r="V1" s="4"/>
+      <c r="V1" s="5">
+        <v>43945</v>
+      </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -9266,7 +9869,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -9328,7 +9931,9 @@
       <c r="U2" s="8">
         <v>490</v>
       </c>
-      <c r="V2" s="8"/>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -9337,10 +9942,10 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8">
         <v>135</v>
@@ -9399,7 +10004,9 @@
       <c r="U3" s="8">
         <v>635</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -9408,10 +10015,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8">
         <v>303</v>
@@ -9470,7 +10077,9 @@
       <c r="U4" s="8">
         <v>1762</v>
       </c>
-      <c r="V4" s="8"/>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -9479,10 +10088,10 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8">
         <v>12</v>
@@ -9541,7 +10150,9 @@
       <c r="U5" s="8">
         <v>60</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -9550,10 +10161,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -9612,7 +10223,9 @@
       <c r="U6" s="8">
         <v>12</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8">
+        <v>12</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -9621,10 +10234,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -9679,7 +10292,9 @@
       <c r="U7" s="8">
         <v>7</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8">
+        <v>7</v>
+      </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -9688,10 +10303,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8">
         <v>78</v>
@@ -9750,7 +10365,9 @@
       <c r="U8" s="8">
         <v>538</v>
       </c>
-      <c r="V8" s="8"/>
+      <c r="V8" s="8">
+        <v>599</v>
+      </c>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
@@ -9759,10 +10376,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
@@ -9821,7 +10438,9 @@
       <c r="U9" s="8">
         <v>24</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="8">
+        <v>25</v>
+      </c>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
@@ -9830,7 +10449,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -9892,7 +10511,9 @@
       <c r="U10" s="8">
         <v>705</v>
       </c>
-      <c r="V10" s="8"/>
+      <c r="V10" s="8">
+        <v>744</v>
+      </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -9901,10 +10522,10 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8">
         <v>98</v>
@@ -9963,7 +10584,9 @@
       <c r="U11" s="8">
         <v>636</v>
       </c>
-      <c r="V11" s="8"/>
+      <c r="V11" s="8">
+        <v>678</v>
+      </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
@@ -9972,10 +10595,10 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8">
         <v>517</v>
@@ -10034,7 +10657,9 @@
       <c r="U12" s="8">
         <v>2173</v>
       </c>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8">
+        <v>2263</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
@@ -10043,10 +10668,10 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -10105,7 +10730,9 @@
       <c r="U13" s="8">
         <v>14</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="8">
+        <v>14</v>
+      </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -10213,12 +10840,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T7"/>
+      <selection activeCell="U3" sqref="U3:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10285,7 +10912,9 @@
       <c r="T1" s="5">
         <v>43944</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="5">
+        <v>43945</v>
+      </c>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
@@ -10295,7 +10924,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10326,7 +10955,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -10385,7 +11014,9 @@
       <c r="T3" s="8">
         <v>3</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="8">
+        <v>4</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
@@ -10395,7 +11026,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -10454,7 +11085,9 @@
       <c r="T4" s="8">
         <v>124</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="8">
+        <v>131</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
@@ -10464,7 +11097,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -10523,7 +11156,9 @@
       <c r="T5" s="8">
         <v>9</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="8">
+        <v>10</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
@@ -10533,7 +11168,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -10592,7 +11227,9 @@
       <c r="T6" s="8">
         <v>16</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="8">
+        <v>19</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
@@ -10602,7 +11239,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -10659,7 +11296,9 @@
       <c r="T7" s="8">
         <v>1</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
@@ -10816,374 +11455,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="22">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="22">
-        <v>112</v>
-      </c>
-      <c r="D2" s="22">
-        <v>127</v>
-      </c>
-      <c r="E2" s="22">
-        <v>139</v>
-      </c>
-      <c r="F2" s="22">
-        <v>153</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>33</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -10,16 +10,16 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF37A-A62D-994F-9D6A-050013359FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId2"/>
-    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId4"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId5"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId6"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId7"/>
+    <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId4"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -47,12 +47,6 @@
     <t>*There is no data for “people tested overall” result for 3/20, an averaged number (adjacent days) has been inserted for graphing purposes until the data can be corrected.</t>
   </si>
   <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Patient Age (yrs)</t>
   </si>
   <si>
@@ -63,6 +57,9 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>All</t>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>Total Number of Lives Lost Among IIC</t>
+  </si>
+  <si>
+    <t>Ward</t>
   </si>
   <si>
     <t>Homeless</t>
@@ -824,865 +824,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43921</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43922</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43923</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43924</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43925</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43927</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43928</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43929</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43930</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43931</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43932</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43933</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43934</v>
-      </c>
-      <c r="P2" s="5">
-        <v>43935</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>43936</v>
-      </c>
-      <c r="R2" s="5">
-        <v>43937</v>
-      </c>
-      <c r="S2" s="5">
-        <v>43938</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43939</v>
-      </c>
-      <c r="U2" s="5">
-        <v>43940</v>
-      </c>
-      <c r="V2" s="5">
-        <v>43941</v>
-      </c>
-      <c r="W2" s="5">
-        <v>43942</v>
-      </c>
-      <c r="X2" s="5">
-        <v>43943</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>43944</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>43945</v>
-      </c>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>65</v>
-      </c>
-      <c r="C3" s="8">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8">
-        <v>84</v>
-      </c>
-      <c r="E3" s="8">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8">
-        <v>107</v>
-      </c>
-      <c r="G3" s="8">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8">
-        <v>135</v>
-      </c>
-      <c r="I3" s="8">
-        <v>160</v>
-      </c>
-      <c r="J3" s="8">
-        <v>172</v>
-      </c>
-      <c r="K3" s="8">
-        <v>183</v>
-      </c>
-      <c r="L3" s="8">
-        <v>202</v>
-      </c>
-      <c r="M3" s="8">
-        <v>218</v>
-      </c>
-      <c r="N3" s="8">
-        <v>223</v>
-      </c>
-      <c r="O3" s="8">
-        <v>230</v>
-      </c>
-      <c r="P3" s="8">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>264</v>
-      </c>
-      <c r="R3" s="8">
-        <v>282</v>
-      </c>
-      <c r="S3" s="8">
-        <v>309</v>
-      </c>
-      <c r="T3" s="8">
-        <v>330</v>
-      </c>
-      <c r="U3" s="8">
-        <v>344</v>
-      </c>
-      <c r="V3" s="8">
-        <v>355</v>
-      </c>
-      <c r="W3" s="8">
-        <v>359</v>
-      </c>
-      <c r="X3" s="8">
-        <v>376</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>403</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>427</v>
-      </c>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8">
-        <v>79</v>
-      </c>
-      <c r="E4" s="8">
-        <v>92</v>
-      </c>
-      <c r="F4" s="8">
-        <v>92</v>
-      </c>
-      <c r="G4" s="8">
-        <v>107</v>
-      </c>
-      <c r="H4" s="8">
-        <v>117</v>
-      </c>
-      <c r="I4" s="8">
-        <v>134</v>
-      </c>
-      <c r="J4" s="8">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8">
-        <v>145</v>
-      </c>
-      <c r="L4" s="8">
-        <v>151</v>
-      </c>
-      <c r="M4" s="8">
-        <v>160</v>
-      </c>
-      <c r="N4" s="8">
-        <v>180</v>
-      </c>
-      <c r="O4" s="8">
-        <v>182</v>
-      </c>
-      <c r="P4" s="8">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>193</v>
-      </c>
-      <c r="R4" s="8">
-        <v>207</v>
-      </c>
-      <c r="S4" s="8">
-        <v>215</v>
-      </c>
-      <c r="T4" s="8">
-        <v>218</v>
-      </c>
-      <c r="U4" s="8">
-        <v>225</v>
-      </c>
-      <c r="V4" s="8">
-        <v>228</v>
-      </c>
-      <c r="W4" s="8">
-        <v>234</v>
-      </c>
-      <c r="X4" s="8">
-        <v>252</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>251</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>256</v>
-      </c>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8">
-        <v>77</v>
-      </c>
-      <c r="E5" s="8">
-        <v>79</v>
-      </c>
-      <c r="F5" s="8">
-        <v>83</v>
-      </c>
-      <c r="G5" s="8">
-        <v>89</v>
-      </c>
-      <c r="H5" s="8">
-        <v>95</v>
-      </c>
-      <c r="I5" s="8">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8">
-        <v>113</v>
-      </c>
-      <c r="K5" s="8">
-        <v>128</v>
-      </c>
-      <c r="L5" s="8">
-        <v>139</v>
-      </c>
-      <c r="M5" s="8">
-        <v>143</v>
-      </c>
-      <c r="N5" s="8">
-        <v>146</v>
-      </c>
-      <c r="O5" s="8">
-        <v>149</v>
-      </c>
-      <c r="P5" s="8">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>169</v>
-      </c>
-      <c r="R5" s="8">
-        <v>176</v>
-      </c>
-      <c r="S5" s="8">
-        <v>205</v>
-      </c>
-      <c r="T5" s="8">
-        <v>211</v>
-      </c>
-      <c r="U5" s="8">
-        <v>226</v>
-      </c>
-      <c r="V5" s="8">
-        <v>223</v>
-      </c>
-      <c r="W5" s="8">
-        <v>215</v>
-      </c>
-      <c r="X5" s="8">
-        <v>227</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>252</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>258</v>
-      </c>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8">
-        <v>108</v>
-      </c>
-      <c r="E6" s="8">
-        <v>135</v>
-      </c>
-      <c r="F6" s="8">
-        <v>145</v>
-      </c>
-      <c r="G6" s="8">
-        <v>168</v>
-      </c>
-      <c r="H6" s="8">
-        <v>185</v>
-      </c>
-      <c r="I6" s="8">
-        <v>223</v>
-      </c>
-      <c r="J6" s="8">
-        <v>244</v>
-      </c>
-      <c r="K6" s="8">
-        <v>267</v>
-      </c>
-      <c r="L6" s="8">
-        <v>288</v>
-      </c>
-      <c r="M6" s="8">
-        <v>303</v>
-      </c>
-      <c r="N6" s="8">
-        <v>312</v>
-      </c>
-      <c r="O6" s="8">
-        <v>326</v>
-      </c>
-      <c r="P6" s="8">
-        <v>361</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>389</v>
-      </c>
-      <c r="R6" s="8">
-        <v>423</v>
-      </c>
-      <c r="S6" s="8">
-        <v>459</v>
-      </c>
-      <c r="T6" s="8">
-        <v>477</v>
-      </c>
-      <c r="U6" s="8">
-        <v>499</v>
-      </c>
-      <c r="V6" s="8">
-        <v>515</v>
-      </c>
-      <c r="W6" s="8">
-        <v>543</v>
-      </c>
-      <c r="X6" s="8">
-        <v>562</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>595</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>636</v>
-      </c>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>76</v>
-      </c>
-      <c r="C7" s="8">
-        <v>83</v>
-      </c>
-      <c r="D7" s="8">
-        <v>98</v>
-      </c>
-      <c r="E7" s="8">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8">
-        <v>126</v>
-      </c>
-      <c r="G7" s="8">
-        <v>136</v>
-      </c>
-      <c r="H7" s="8">
-        <v>150</v>
-      </c>
-      <c r="I7" s="8">
-        <v>179</v>
-      </c>
-      <c r="J7" s="8">
-        <v>198</v>
-      </c>
-      <c r="K7" s="8">
-        <v>210</v>
-      </c>
-      <c r="L7" s="8">
-        <v>231</v>
-      </c>
-      <c r="M7" s="8">
-        <v>250</v>
-      </c>
-      <c r="N7" s="8">
-        <v>257</v>
-      </c>
-      <c r="O7" s="8">
-        <v>262</v>
-      </c>
-      <c r="P7" s="8">
-        <v>278</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>311</v>
-      </c>
-      <c r="R7" s="8">
-        <v>328</v>
-      </c>
-      <c r="S7" s="8">
-        <v>350</v>
-      </c>
-      <c r="T7" s="8">
-        <v>363</v>
-      </c>
-      <c r="U7" s="8">
-        <v>383</v>
-      </c>
-      <c r="V7" s="8">
-        <v>404</v>
-      </c>
-      <c r="W7" s="8">
-        <v>429</v>
-      </c>
-      <c r="X7" s="8">
-        <v>456</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>488</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>513</v>
-      </c>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8">
-        <v>112</v>
-      </c>
-      <c r="D8" s="8">
-        <v>130</v>
-      </c>
-      <c r="E8" s="8">
-        <v>154</v>
-      </c>
-      <c r="F8" s="8">
-        <v>156</v>
-      </c>
-      <c r="G8" s="8">
-        <v>187</v>
-      </c>
-      <c r="H8" s="8">
-        <v>202</v>
-      </c>
-      <c r="I8" s="8">
-        <v>235</v>
-      </c>
-      <c r="J8" s="8">
-        <v>241</v>
-      </c>
-      <c r="K8" s="8">
-        <v>255</v>
-      </c>
-      <c r="L8" s="8">
-        <v>266</v>
-      </c>
-      <c r="M8" s="8">
-        <v>281</v>
-      </c>
-      <c r="N8" s="8">
-        <v>288</v>
-      </c>
-      <c r="O8" s="8">
-        <v>290</v>
-      </c>
-      <c r="P8" s="8">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>313</v>
-      </c>
-      <c r="R8" s="8">
-        <v>337</v>
-      </c>
-      <c r="S8" s="8">
-        <v>353</v>
-      </c>
-      <c r="T8" s="8">
-        <v>355</v>
-      </c>
-      <c r="U8" s="8">
-        <v>366</v>
-      </c>
-      <c r="V8" s="8">
-        <v>374</v>
-      </c>
-      <c r="W8" s="8">
-        <v>387</v>
-      </c>
-      <c r="X8" s="8">
-        <v>406</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>409</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>414</v>
-      </c>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8">
-        <v>66</v>
-      </c>
-      <c r="D9" s="8">
-        <v>83</v>
-      </c>
-      <c r="E9" s="8">
-        <v>104</v>
-      </c>
-      <c r="F9" s="8">
-        <v>117</v>
-      </c>
-      <c r="G9" s="8">
-        <v>138</v>
-      </c>
-      <c r="H9" s="8">
-        <v>154</v>
-      </c>
-      <c r="I9" s="8">
-        <v>186</v>
-      </c>
-      <c r="J9" s="8">
-        <v>219</v>
-      </c>
-      <c r="K9" s="8">
-        <v>238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>266</v>
-      </c>
-      <c r="M9" s="8">
-        <v>284</v>
-      </c>
-      <c r="N9" s="8">
-        <v>292</v>
-      </c>
-      <c r="O9" s="8">
-        <v>296</v>
-      </c>
-      <c r="P9" s="8">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>361</v>
-      </c>
-      <c r="R9" s="8">
-        <v>382</v>
-      </c>
-      <c r="S9" s="8">
-        <v>402</v>
-      </c>
-      <c r="T9" s="8">
-        <v>440</v>
-      </c>
-      <c r="U9" s="8">
-        <v>454</v>
-      </c>
-      <c r="V9" s="8">
-        <v>482</v>
-      </c>
-      <c r="W9" s="8">
-        <v>492</v>
-      </c>
-      <c r="X9" s="8">
-        <v>508</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>522</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>543</v>
-      </c>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8">
-        <v>101</v>
-      </c>
-      <c r="G10" s="8">
-        <v>108</v>
-      </c>
-      <c r="H10" s="8">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8">
-        <v>168</v>
-      </c>
-      <c r="J10" s="8">
-        <v>178</v>
-      </c>
-      <c r="K10" s="8">
-        <v>192</v>
-      </c>
-      <c r="L10" s="8">
-        <v>202</v>
-      </c>
-      <c r="M10" s="8">
-        <v>218</v>
-      </c>
-      <c r="N10" s="8">
-        <v>228</v>
-      </c>
-      <c r="O10" s="8">
-        <v>237</v>
-      </c>
-      <c r="P10" s="8">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>293</v>
-      </c>
-      <c r="R10" s="8">
-        <v>316</v>
-      </c>
-      <c r="S10" s="8">
-        <v>339</v>
-      </c>
-      <c r="T10" s="8">
-        <v>354</v>
-      </c>
-      <c r="U10" s="8">
-        <v>376</v>
-      </c>
-      <c r="V10" s="8">
-        <v>445</v>
-      </c>
-      <c r="W10" s="8">
-        <v>458</v>
-      </c>
-      <c r="X10" s="8">
-        <v>477</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>498</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>518</v>
-      </c>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8">
-        <v>71</v>
-      </c>
-      <c r="G11" s="8">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8">
-        <v>45</v>
-      </c>
-      <c r="I11" s="8">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8">
-        <v>42</v>
-      </c>
-      <c r="L11" s="8">
-        <v>33</v>
-      </c>
-      <c r="M11" s="8">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
-        <v>86</v>
-      </c>
-      <c r="P11" s="8">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>57</v>
-      </c>
-      <c r="R11" s="8">
-        <v>25</v>
-      </c>
-      <c r="S11" s="8">
-        <v>34</v>
-      </c>
-      <c r="T11" s="8">
-        <v>45</v>
-      </c>
-      <c r="U11" s="8">
-        <v>54</v>
-      </c>
-      <c r="V11" s="8">
-        <v>72</v>
-      </c>
-      <c r="W11" s="8">
-        <v>89</v>
-      </c>
-      <c r="X11" s="8">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>110</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>134</v>
-      </c>
-      <c r="AA11" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1699,67 +840,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>3841</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1876</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1957</v>
+      </c>
+      <c r="E2" s="14">
         <v>8</v>
-      </c>
-      <c r="B2" s="13">
-        <v>3699</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1803</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1887</v>
-      </c>
-      <c r="E2" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C3" s="20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" s="20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E3" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8">
         <v>47</v>
       </c>
       <c r="D4" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="12">
         <v>2</v>
@@ -1767,16 +908,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C5" s="8">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D5" s="8">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -1784,16 +925,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="C6" s="8">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D6" s="8">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -1801,16 +942,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="C7" s="8">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D7" s="8">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1818,16 +959,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="C8" s="8">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D8" s="8">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -1835,16 +976,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C9" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D9" s="8">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1852,16 +993,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C10" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -1869,16 +1010,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C11" s="8">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D11" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1893,13 +1034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY81"/>
+  <dimension ref="A1:AZ81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AV59" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY66" sqref="AY66:AY80"/>
+      <pane xSplit="2" topLeftCell="AY62" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ66" sqref="AZ66:AZ80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1911,7 +1052,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -2061,11 +1202,14 @@
       <c r="AY1" s="23">
         <v>43945</v>
       </c>
-    </row>
-    <row r="2" spans="1:51">
+      <c r="AZ1" s="23">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2116,12 +1260,12 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2258,13 +1402,16 @@
       <c r="AY3">
         <v>17302</v>
       </c>
-    </row>
-    <row r="4" spans="1:51">
+      <c r="AZ3">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -2413,13 +1560,16 @@
       <c r="AY4">
         <v>3699</v>
       </c>
-    </row>
-    <row r="5" spans="1:51">
+      <c r="AZ4">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2556,13 +1706,16 @@
       <c r="AY5">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="1:51">
+      <c r="AZ5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2679,8 +1832,11 @@
       <c r="AY6">
         <v>652</v>
       </c>
-    </row>
-    <row r="7" spans="1:51">
+      <c r="AZ6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -2732,12 +1888,12 @@
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2850,13 +2006,16 @@
       <c r="AY8">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:51">
+      <c r="AZ8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2969,13 +2128,16 @@
       <c r="AY9">
         <v>513</v>
       </c>
-    </row>
-    <row r="10" spans="1:51">
+      <c r="AZ9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3088,13 +2250,16 @@
       <c r="AY10">
         <v>248</v>
       </c>
-    </row>
-    <row r="11" spans="1:51">
+      <c r="AZ10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3207,8 +2372,11 @@
       <c r="AY11">
         <v>265</v>
       </c>
-    </row>
-    <row r="12" spans="1:51">
+      <c r="AZ11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -3260,10 +2428,10 @@
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3314,12 +2482,12 @@
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3370,12 +2538,12 @@
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3490,13 +2658,16 @@
       <c r="AY15">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:51">
+      <c r="AZ15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3575,13 +2746,16 @@
       <c r="AY16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:51">
+      <c r="AZ16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3660,13 +2834,16 @@
       <c r="AY17">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:51">
+      <c r="AZ17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3775,13 +2952,16 @@
       <c r="AY18">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="1:51">
+      <c r="AZ18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3890,13 +3070,16 @@
       <c r="AY19">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:51">
+      <c r="AZ19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4005,8 +3188,11 @@
       <c r="AY20">
         <v>643</v>
       </c>
-    </row>
-    <row r="21" spans="1:51">
+      <c r="AZ20">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -4058,10 +3244,10 @@
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4112,12 +3298,12 @@
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -4232,13 +3418,16 @@
       <c r="AY23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:51">
+      <c r="AZ23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
       <c r="A24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4317,13 +3506,16 @@
       <c r="AY24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:51">
+      <c r="AZ24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4402,13 +3594,16 @@
       <c r="AY25">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:51">
+      <c r="AZ25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4517,13 +3712,16 @@
       <c r="AY26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:51">
+      <c r="AZ26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4632,13 +3830,16 @@
       <c r="AY27">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:51">
+      <c r="AZ27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
       <c r="A28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4747,8 +3948,11 @@
       <c r="AY28">
         <v>713</v>
       </c>
-    </row>
-    <row r="29" spans="1:51">
+      <c r="AZ28">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -4800,10 +4004,10 @@
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:52">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -4854,12 +4058,12 @@
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:52">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4968,13 +4172,16 @@
       <c r="AY31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:51">
+      <c r="AZ31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -5051,13 +4258,16 @@
       <c r="AY32">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:51">
+      <c r="AZ32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
       <c r="A33" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -5134,13 +4344,16 @@
       <c r="AY33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:51">
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -5249,13 +4462,16 @@
       <c r="AY34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:51">
+      <c r="AZ34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -5362,13 +4578,16 @@
       <c r="AY35">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:51">
+      <c r="AZ35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -5477,13 +4696,16 @@
       <c r="AY36">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:51">
+      <c r="AZ36">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -5548,8 +4770,11 @@
       <c r="AY37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:51">
+      <c r="AZ37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -5601,10 +4826,10 @@
       <c r="AW38" s="12"/>
       <c r="AX38" s="12"/>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:52">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -5655,12 +4880,12 @@
       <c r="AW39" s="12"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:52">
       <c r="A40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -5771,13 +4996,16 @@
       <c r="AY40">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:51">
+      <c r="AZ40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
       <c r="A41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -5856,13 +5084,16 @@
       <c r="AY41">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:51">
+      <c r="AZ41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
       <c r="A42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -5941,13 +5172,16 @@
       <c r="AY42">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:51">
+      <c r="AZ42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -6056,13 +5290,16 @@
       <c r="AY43">
         <v>808</v>
       </c>
-    </row>
-    <row r="44" spans="1:51">
+      <c r="AZ43">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -6141,13 +5378,16 @@
       <c r="AY44">
         <v>857</v>
       </c>
-    </row>
-    <row r="45" spans="1:51">
+      <c r="AZ44">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="A45" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -6224,13 +5464,16 @@
       <c r="AY45">
         <v>223</v>
       </c>
-    </row>
-    <row r="46" spans="1:51">
+      <c r="AZ45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -6303,8 +5546,11 @@
       <c r="AY46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:51">
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -6356,10 +5602,10 @@
       <c r="AW47" s="12"/>
       <c r="AX47" s="12"/>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:52">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -6410,12 +5656,12 @@
       <c r="AW48" s="12"/>
       <c r="AX48" s="12"/>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -6516,13 +5762,16 @@
       <c r="AY49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:51">
+      <c r="AZ49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
       <c r="A50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -6599,13 +5848,16 @@
       <c r="AY50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:51">
+      <c r="AZ50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
       <c r="A51" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -6682,13 +5934,16 @@
       <c r="AY51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:51">
+      <c r="AZ51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
       <c r="A52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -6789,13 +6044,16 @@
       <c r="AY52">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:51">
+      <c r="AZ52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
       <c r="A53" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -6896,13 +6154,16 @@
       <c r="AY53">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:51">
+      <c r="AZ53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
       <c r="A54" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -7003,13 +6264,16 @@
       <c r="AY54">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:51">
+      <c r="AZ54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
       <c r="A55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -7082,8 +6346,11 @@
       <c r="AY55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:51">
+      <c r="AZ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -7135,12 +6402,12 @@
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:52">
       <c r="A57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -7241,13 +6508,16 @@
       <c r="AY57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:51">
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -7324,13 +6594,16 @@
       <c r="AY58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:51">
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -7407,13 +6680,16 @@
       <c r="AY59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:51">
+      <c r="AZ59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -7514,13 +6790,16 @@
       <c r="AY60">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:51">
+      <c r="AZ60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -7621,13 +6900,16 @@
       <c r="AY61">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:51">
+      <c r="AZ61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -7726,13 +7008,16 @@
       <c r="AY62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:51">
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -7809,8 +7094,11 @@
       <c r="AY63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:51">
+      <c r="AZ63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -7862,10 +7150,10 @@
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:52">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -7916,12 +7204,12 @@
       <c r="AW65" s="12"/>
       <c r="AX65" s="12"/>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:52">
       <c r="A66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -8022,13 +7310,16 @@
       <c r="AY66">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:51">
+      <c r="AZ66">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
       <c r="A67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -8129,13 +7420,16 @@
       <c r="AY67">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="1:51">
+      <c r="AZ67">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
       <c r="A68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8236,13 +7530,16 @@
       <c r="AY68">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="1:51">
+      <c r="AZ68">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52">
       <c r="A69" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -8315,8 +7612,11 @@
       <c r="AY69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:51">
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -8368,12 +7668,12 @@
       <c r="AW70" s="12"/>
       <c r="AX70" s="12"/>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:52">
       <c r="A71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -8474,13 +7774,16 @@
       <c r="AY71">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:51">
+      <c r="AZ71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
       <c r="A72" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -8581,13 +7884,16 @@
       <c r="AY72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:51">
+      <c r="AZ72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
       <c r="A73" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -8688,13 +7994,16 @@
       <c r="AY73">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:51">
+      <c r="AZ73">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52">
       <c r="A74" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -8787,8 +8096,11 @@
       <c r="AY74">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:51">
+      <c r="AZ74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -8840,12 +8152,12 @@
       <c r="AW75" s="12"/>
       <c r="AX75" s="12"/>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:52">
       <c r="A76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -8946,13 +8258,16 @@
       <c r="AY76">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:51">
+      <c r="AZ76">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
       <c r="A77" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -9053,13 +8368,16 @@
       <c r="AY77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:51">
+      <c r="AZ77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
       <c r="A78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -9138,13 +8456,16 @@
       <c r="AY78">
         <v>29</v>
       </c>
-    </row>
-    <row r="79" spans="1:51">
+      <c r="AZ78">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
       <c r="A79" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -9219,13 +8540,16 @@
       <c r="AY79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:51">
+      <c r="AZ79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52">
       <c r="A80" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -9323,6 +8647,9 @@
       </c>
       <c r="AY80">
         <v>6</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:50">
@@ -9383,12 +8710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9398,7 +8725,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5">
         <v>43940</v>
@@ -9418,7 +8745,9 @@
       <c r="G1" s="5">
         <v>43945</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5">
+        <v>43946</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -9427,7 +8756,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="22">
         <f>SUM(B3:B12)</f>
@@ -9448,7 +8777,9 @@
       <c r="G2" s="22">
         <v>165</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="22">
+        <v>178</v>
+      </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -9477,7 +8808,9 @@
       <c r="G3" s="8">
         <v>11</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -9506,7 +8839,9 @@
       <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -9535,7 +8870,9 @@
       <c r="G5" s="8">
         <v>12</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -9564,7 +8901,9 @@
       <c r="G6" s="8">
         <v>20</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>22</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -9593,7 +8932,9 @@
       <c r="G7" s="8">
         <v>23</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>25</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -9622,7 +8963,9 @@
       <c r="G8" s="8">
         <v>26</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>27</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -9651,7 +8994,9 @@
       <c r="G9" s="8">
         <v>23</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>25</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -9680,7 +9025,9 @@
       <c r="G10" s="8">
         <v>36</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>41</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -9709,7 +9056,9 @@
       <c r="G11" s="8">
         <v>9</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -9718,7 +9067,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -9738,7 +9087,9 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -9777,12 +9128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="W10" sqref="W10:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9861,7 +9212,9 @@
       <c r="V1" s="5">
         <v>43945</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="5">
+        <v>43946</v>
+      </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -9872,7 +9225,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8">
         <v>349</v>
@@ -9934,7 +9287,9 @@
       <c r="V2" s="8">
         <v>494</v>
       </c>
-      <c r="W2" s="8"/>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
@@ -10007,7 +9362,9 @@
       <c r="V3" s="8">
         <v>653</v>
       </c>
-      <c r="W3" s="8"/>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -10080,7 +9437,9 @@
       <c r="V4" s="8">
         <v>1846</v>
       </c>
-      <c r="W4" s="8"/>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -10153,7 +9512,9 @@
       <c r="V5" s="8">
         <v>63</v>
       </c>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -10226,7 +9587,9 @@
       <c r="V6" s="8">
         <v>12</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>11</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -10295,7 +9658,9 @@
       <c r="V7" s="8">
         <v>7</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="8">
+        <v>8</v>
+      </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -10368,7 +9733,9 @@
       <c r="V8" s="8">
         <v>599</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="8">
+        <v>652</v>
+      </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -10441,7 +9808,9 @@
       <c r="V9" s="8">
         <v>25</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="8">
+        <v>24</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -10452,7 +9821,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8">
         <v>341</v>
@@ -10514,7 +9883,9 @@
       <c r="V10" s="8">
         <v>744</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="8">
+        <v>799</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -10587,7 +9958,9 @@
       <c r="V11" s="8">
         <v>678</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="8">
+        <v>708</v>
+      </c>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -10660,7 +10033,9 @@
       <c r="V12" s="8">
         <v>2263</v>
       </c>
-      <c r="W12" s="8"/>
+      <c r="W12" s="8">
+        <v>2320</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -10733,7 +10108,9 @@
       <c r="V13" s="8">
         <v>14</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="8">
+        <v>14</v>
+      </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -10840,12 +10217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U7"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10915,7 +10292,9 @@
       <c r="U1" s="5">
         <v>43945</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="5">
+        <v>43946</v>
+      </c>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -11017,7 +10396,9 @@
       <c r="U3" s="8">
         <v>4</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="8">
+        <v>4</v>
+      </c>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -11088,7 +10469,9 @@
       <c r="U4" s="8">
         <v>131</v>
       </c>
-      <c r="V4" s="8"/>
+      <c r="V4" s="8">
+        <v>142</v>
+      </c>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
@@ -11159,7 +10542,9 @@
       <c r="U5" s="8">
         <v>10</v>
       </c>
-      <c r="V5" s="8"/>
+      <c r="V5" s="8">
+        <v>11</v>
+      </c>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -11230,7 +10615,9 @@
       <c r="U6" s="8">
         <v>19</v>
       </c>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8">
+        <v>20</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -11299,7 +10686,9 @@
       <c r="U7" s="8">
         <v>1</v>
       </c>
-      <c r="V7" s="8"/>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
@@ -11455,4 +10844,883 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43922</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43923</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43924</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43925</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43927</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43928</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43929</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="L2" s="5">
+        <v>43931</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43932</v>
+      </c>
+      <c r="N2" s="5">
+        <v>43933</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43934</v>
+      </c>
+      <c r="P2" s="5">
+        <v>43935</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>43936</v>
+      </c>
+      <c r="R2" s="5">
+        <v>43937</v>
+      </c>
+      <c r="S2" s="5">
+        <v>43938</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43939</v>
+      </c>
+      <c r="U2" s="5">
+        <v>43940</v>
+      </c>
+      <c r="V2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="5">
+        <v>43942</v>
+      </c>
+      <c r="X2" s="5">
+        <v>43943</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>43944</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>43945</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <v>84</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8">
+        <v>107</v>
+      </c>
+      <c r="G3" s="8">
+        <v>119</v>
+      </c>
+      <c r="H3" s="8">
+        <v>135</v>
+      </c>
+      <c r="I3" s="8">
+        <v>160</v>
+      </c>
+      <c r="J3" s="8">
+        <v>172</v>
+      </c>
+      <c r="K3" s="8">
+        <v>183</v>
+      </c>
+      <c r="L3" s="8">
+        <v>202</v>
+      </c>
+      <c r="M3" s="8">
+        <v>218</v>
+      </c>
+      <c r="N3" s="8">
+        <v>223</v>
+      </c>
+      <c r="O3" s="8">
+        <v>230</v>
+      </c>
+      <c r="P3" s="8">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>264</v>
+      </c>
+      <c r="R3" s="8">
+        <v>282</v>
+      </c>
+      <c r="S3" s="8">
+        <v>309</v>
+      </c>
+      <c r="T3" s="8">
+        <v>330</v>
+      </c>
+      <c r="U3" s="8">
+        <v>344</v>
+      </c>
+      <c r="V3" s="8">
+        <v>355</v>
+      </c>
+      <c r="W3" s="8">
+        <v>359</v>
+      </c>
+      <c r="X3" s="8">
+        <v>376</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>403</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>427</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8">
+        <v>92</v>
+      </c>
+      <c r="G4" s="8">
+        <v>107</v>
+      </c>
+      <c r="H4" s="8">
+        <v>117</v>
+      </c>
+      <c r="I4" s="8">
+        <v>134</v>
+      </c>
+      <c r="J4" s="8">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8">
+        <v>145</v>
+      </c>
+      <c r="L4" s="8">
+        <v>151</v>
+      </c>
+      <c r="M4" s="8">
+        <v>160</v>
+      </c>
+      <c r="N4" s="8">
+        <v>180</v>
+      </c>
+      <c r="O4" s="8">
+        <v>182</v>
+      </c>
+      <c r="P4" s="8">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>193</v>
+      </c>
+      <c r="R4" s="8">
+        <v>207</v>
+      </c>
+      <c r="S4" s="8">
+        <v>215</v>
+      </c>
+      <c r="T4" s="8">
+        <v>218</v>
+      </c>
+      <c r="U4" s="8">
+        <v>225</v>
+      </c>
+      <c r="V4" s="8">
+        <v>228</v>
+      </c>
+      <c r="W4" s="8">
+        <v>234</v>
+      </c>
+      <c r="X4" s="8">
+        <v>252</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>251</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>256</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>83</v>
+      </c>
+      <c r="G5" s="8">
+        <v>89</v>
+      </c>
+      <c r="H5" s="8">
+        <v>95</v>
+      </c>
+      <c r="I5" s="8">
+        <v>104</v>
+      </c>
+      <c r="J5" s="8">
+        <v>113</v>
+      </c>
+      <c r="K5" s="8">
+        <v>128</v>
+      </c>
+      <c r="L5" s="8">
+        <v>139</v>
+      </c>
+      <c r="M5" s="8">
+        <v>143</v>
+      </c>
+      <c r="N5" s="8">
+        <v>146</v>
+      </c>
+      <c r="O5" s="8">
+        <v>149</v>
+      </c>
+      <c r="P5" s="8">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>169</v>
+      </c>
+      <c r="R5" s="8">
+        <v>176</v>
+      </c>
+      <c r="S5" s="8">
+        <v>205</v>
+      </c>
+      <c r="T5" s="8">
+        <v>211</v>
+      </c>
+      <c r="U5" s="8">
+        <v>226</v>
+      </c>
+      <c r="V5" s="8">
+        <v>223</v>
+      </c>
+      <c r="W5" s="8">
+        <v>215</v>
+      </c>
+      <c r="X5" s="8">
+        <v>227</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>258</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8">
+        <v>135</v>
+      </c>
+      <c r="F6" s="8">
+        <v>145</v>
+      </c>
+      <c r="G6" s="8">
+        <v>168</v>
+      </c>
+      <c r="H6" s="8">
+        <v>185</v>
+      </c>
+      <c r="I6" s="8">
+        <v>223</v>
+      </c>
+      <c r="J6" s="8">
+        <v>244</v>
+      </c>
+      <c r="K6" s="8">
+        <v>267</v>
+      </c>
+      <c r="L6" s="8">
+        <v>288</v>
+      </c>
+      <c r="M6" s="8">
+        <v>303</v>
+      </c>
+      <c r="N6" s="8">
+        <v>312</v>
+      </c>
+      <c r="O6" s="8">
+        <v>326</v>
+      </c>
+      <c r="P6" s="8">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>389</v>
+      </c>
+      <c r="R6" s="8">
+        <v>423</v>
+      </c>
+      <c r="S6" s="8">
+        <v>459</v>
+      </c>
+      <c r="T6" s="8">
+        <v>477</v>
+      </c>
+      <c r="U6" s="8">
+        <v>499</v>
+      </c>
+      <c r="V6" s="8">
+        <v>515</v>
+      </c>
+      <c r="W6" s="8">
+        <v>543</v>
+      </c>
+      <c r="X6" s="8">
+        <v>562</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>595</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>636</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8">
+        <v>122</v>
+      </c>
+      <c r="F7" s="8">
+        <v>126</v>
+      </c>
+      <c r="G7" s="8">
+        <v>136</v>
+      </c>
+      <c r="H7" s="8">
+        <v>150</v>
+      </c>
+      <c r="I7" s="8">
+        <v>179</v>
+      </c>
+      <c r="J7" s="8">
+        <v>198</v>
+      </c>
+      <c r="K7" s="8">
+        <v>210</v>
+      </c>
+      <c r="L7" s="8">
+        <v>231</v>
+      </c>
+      <c r="M7" s="8">
+        <v>250</v>
+      </c>
+      <c r="N7" s="8">
+        <v>257</v>
+      </c>
+      <c r="O7" s="8">
+        <v>262</v>
+      </c>
+      <c r="P7" s="8">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>311</v>
+      </c>
+      <c r="R7" s="8">
+        <v>328</v>
+      </c>
+      <c r="S7" s="8">
+        <v>350</v>
+      </c>
+      <c r="T7" s="8">
+        <v>363</v>
+      </c>
+      <c r="U7" s="8">
+        <v>383</v>
+      </c>
+      <c r="V7" s="8">
+        <v>404</v>
+      </c>
+      <c r="W7" s="8">
+        <v>429</v>
+      </c>
+      <c r="X7" s="8">
+        <v>456</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>488</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>513</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8">
+        <v>130</v>
+      </c>
+      <c r="E8" s="8">
+        <v>154</v>
+      </c>
+      <c r="F8" s="8">
+        <v>156</v>
+      </c>
+      <c r="G8" s="8">
+        <v>187</v>
+      </c>
+      <c r="H8" s="8">
+        <v>202</v>
+      </c>
+      <c r="I8" s="8">
+        <v>235</v>
+      </c>
+      <c r="J8" s="8">
+        <v>241</v>
+      </c>
+      <c r="K8" s="8">
+        <v>255</v>
+      </c>
+      <c r="L8" s="8">
+        <v>266</v>
+      </c>
+      <c r="M8" s="8">
+        <v>281</v>
+      </c>
+      <c r="N8" s="8">
+        <v>288</v>
+      </c>
+      <c r="O8" s="8">
+        <v>290</v>
+      </c>
+      <c r="P8" s="8">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>313</v>
+      </c>
+      <c r="R8" s="8">
+        <v>337</v>
+      </c>
+      <c r="S8" s="8">
+        <v>353</v>
+      </c>
+      <c r="T8" s="8">
+        <v>355</v>
+      </c>
+      <c r="U8" s="8">
+        <v>366</v>
+      </c>
+      <c r="V8" s="8">
+        <v>374</v>
+      </c>
+      <c r="W8" s="8">
+        <v>387</v>
+      </c>
+      <c r="X8" s="8">
+        <v>406</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>409</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>414</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8">
+        <v>117</v>
+      </c>
+      <c r="G9" s="8">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8">
+        <v>154</v>
+      </c>
+      <c r="I9" s="8">
+        <v>186</v>
+      </c>
+      <c r="J9" s="8">
+        <v>219</v>
+      </c>
+      <c r="K9" s="8">
+        <v>238</v>
+      </c>
+      <c r="L9" s="8">
+        <v>266</v>
+      </c>
+      <c r="M9" s="8">
+        <v>284</v>
+      </c>
+      <c r="N9" s="8">
+        <v>292</v>
+      </c>
+      <c r="O9" s="8">
+        <v>296</v>
+      </c>
+      <c r="P9" s="8">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>361</v>
+      </c>
+      <c r="R9" s="8">
+        <v>382</v>
+      </c>
+      <c r="S9" s="8">
+        <v>402</v>
+      </c>
+      <c r="T9" s="8">
+        <v>440</v>
+      </c>
+      <c r="U9" s="8">
+        <v>454</v>
+      </c>
+      <c r="V9" s="8">
+        <v>482</v>
+      </c>
+      <c r="W9" s="8">
+        <v>492</v>
+      </c>
+      <c r="X9" s="8">
+        <v>508</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>522</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>543</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
+        <v>108</v>
+      </c>
+      <c r="H10" s="8">
+        <v>128</v>
+      </c>
+      <c r="I10" s="8">
+        <v>168</v>
+      </c>
+      <c r="J10" s="8">
+        <v>178</v>
+      </c>
+      <c r="K10" s="8">
+        <v>192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>202</v>
+      </c>
+      <c r="M10" s="8">
+        <v>218</v>
+      </c>
+      <c r="N10" s="8">
+        <v>228</v>
+      </c>
+      <c r="O10" s="8">
+        <v>237</v>
+      </c>
+      <c r="P10" s="8">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>293</v>
+      </c>
+      <c r="R10" s="8">
+        <v>316</v>
+      </c>
+      <c r="S10" s="8">
+        <v>339</v>
+      </c>
+      <c r="T10" s="8">
+        <v>354</v>
+      </c>
+      <c r="U10" s="8">
+        <v>376</v>
+      </c>
+      <c r="V10" s="8">
+        <v>445</v>
+      </c>
+      <c r="W10" s="8">
+        <v>458</v>
+      </c>
+      <c r="X10" s="8">
+        <v>477</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>498</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>518</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8">
+        <v>86</v>
+      </c>
+      <c r="P11" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>57</v>
+      </c>
+      <c r="R11" s="8">
+        <v>25</v>
+      </c>
+      <c r="S11" s="8">
+        <v>34</v>
+      </c>
+      <c r="T11" s="8">
+        <v>45</v>
+      </c>
+      <c r="U11" s="8">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8">
+        <v>72</v>
+      </c>
+      <c r="W11" s="8">
+        <v>89</v>
+      </c>
+      <c r="X11" s="8">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>110</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF37A-A62D-994F-9D6A-050013359FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201BDC64-2F4F-A743-A406-184125A18BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
-    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId4"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId4"/>
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId7"/>
+    <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -260,13 +260,13 @@
     <t>Total Number of IIC Who Currently are Isolated/In Quarantine</t>
   </si>
   <si>
+    <t>universal quarantine precautions on all units</t>
+  </si>
+  <si>
     <t>Total Number of Lives Lost Among IIC</t>
   </si>
   <si>
     <t>Ward</t>
-  </si>
-  <si>
-    <t>Homeless</t>
   </si>
   <si>
     <t>Race/Ethnicity Category</t>
@@ -316,6 +316,9 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>Homeless</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +328,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,7 +453,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -482,7 +485,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -806,14 +808,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -831,14 +833,14 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -855,177 +857,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>3841</v>
+        <v>3892</v>
       </c>
       <c r="C2" s="13">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="D2" s="13">
-        <v>1957</v>
+        <v>2006</v>
       </c>
       <c r="E2" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" s="20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E3" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C5" s="8">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D5" s="8">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C6" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="8">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="C7" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D7" s="8">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C8" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D8" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="C9" s="8">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D9" s="8">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C10" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="8">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C11" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -1036,23 +1038,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ81"/>
+  <dimension ref="A1:BA81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AY62" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ66" sqref="AZ66:AZ80"/>
+      <pane xSplit="2" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA66" sqref="BA66:BA80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -1199,14 +1201,17 @@
       <c r="AX1" s="5">
         <v>43944</v>
       </c>
-      <c r="AY1" s="23">
+      <c r="AY1" s="5">
         <v>43945</v>
       </c>
-      <c r="AZ1" s="23">
+      <c r="AZ1" s="5">
         <v>43946</v>
       </c>
-    </row>
-    <row r="2" spans="1:52">
+      <c r="BA1" s="5">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -1259,8 +1264,11 @@
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
-    </row>
-    <row r="3" spans="1:52">
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1399,14 +1407,17 @@
       <c r="AX3" s="12">
         <v>16533</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="12">
         <v>17302</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="12">
         <v>18068</v>
       </c>
-    </row>
-    <row r="4" spans="1:52">
+      <c r="BA3" s="12">
+        <v>18416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1557,14 +1568,17 @@
       <c r="AX4" s="12">
         <v>3528</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="12">
         <v>3699</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="12">
         <v>3841</v>
       </c>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="BA4" s="12">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1703,14 +1717,17 @@
       <c r="AX5" s="12">
         <v>153</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="12">
         <v>165</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="12">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:52">
+      <c r="BA5" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1829,14 +1846,17 @@
       <c r="AX6" s="12">
         <v>651</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="12">
         <v>652</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="12">
         <v>657</v>
       </c>
-    </row>
-    <row r="7" spans="1:52">
+      <c r="BA6" s="12">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -1887,8 +1907,11 @@
       <c r="AV7" s="12"/>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
-    </row>
-    <row r="8" spans="1:52">
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2003,14 +2026,17 @@
       <c r="AX8" s="12">
         <v>113</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="12">
         <v>113</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:52">
+      <c r="BA8" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -2125,14 +2151,17 @@
       <c r="AX9" s="12">
         <v>513</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="12">
         <v>513</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:52">
+      <c r="BA9" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2247,14 +2276,17 @@
       <c r="AX10" s="12">
         <v>248</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="12">
         <v>248</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="12">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:52">
+      <c r="BA10" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -2369,14 +2401,17 @@
       <c r="AX11" s="12">
         <v>265</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="12">
         <v>265</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="12">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" spans="1:52">
+      <c r="BA11" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -2427,8 +2462,11 @@
       <c r="AV12" s="12"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
-    </row>
-    <row r="13" spans="1:52">
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
@@ -2481,8 +2519,11 @@
       <c r="AV13" s="12"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
-    </row>
-    <row r="14" spans="1:52">
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -2537,8 +2578,11 @@
       <c r="AV14" s="12"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
-    </row>
-    <row r="15" spans="1:52">
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -2655,14 +2699,17 @@
       <c r="AX15" s="12">
         <v>81</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" s="12">
         <v>86</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" s="12">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:52">
+      <c r="BA15" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -2743,14 +2790,17 @@
       <c r="AX16" s="12">
         <v>31</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" s="12">
         <v>35</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:52">
+      <c r="BA16" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -2831,14 +2881,17 @@
       <c r="AX17" s="12">
         <v>50</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" s="12">
         <v>51</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" s="12">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:52">
+      <c r="BA17" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2949,14 +3002,17 @@
       <c r="AX18" s="12">
         <v>135</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" s="12">
         <v>118</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" s="12">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="BA18" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -3067,14 +3123,17 @@
       <c r="AX19" s="12">
         <v>166</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" s="12">
         <v>153</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" s="12">
         <v>208</v>
       </c>
-    </row>
-    <row r="20" spans="1:52">
+      <c r="BA19" s="12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -3185,14 +3244,17 @@
       <c r="AX20" s="12">
         <v>634</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" s="12">
         <v>643</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" s="12">
         <v>659</v>
       </c>
-    </row>
-    <row r="21" spans="1:52">
+      <c r="BA20" s="12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -3243,8 +3305,11 @@
       <c r="AV21" s="12"/>
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>34</v>
@@ -3297,8 +3362,11 @@
       <c r="AV22" s="12"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
-    </row>
-    <row r="23" spans="1:52">
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -3415,14 +3483,17 @@
       <c r="AX23" s="12">
         <v>89</v>
       </c>
-      <c r="AY23">
+      <c r="AY23" s="12">
         <v>90</v>
       </c>
-      <c r="AZ23">
+      <c r="AZ23" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="BA23" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3503,14 +3574,17 @@
       <c r="AX24" s="12">
         <v>52</v>
       </c>
-      <c r="AY24">
+      <c r="AY24" s="12">
         <v>50</v>
       </c>
-      <c r="AZ24">
+      <c r="AZ24" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:52">
+      <c r="BA24" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -3591,14 +3665,17 @@
       <c r="AX25" s="12">
         <v>37</v>
       </c>
-      <c r="AY25">
+      <c r="AY25" s="12">
         <v>40</v>
       </c>
-      <c r="AZ25">
+      <c r="AZ25" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:52">
+      <c r="BA25" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -3709,14 +3786,17 @@
       <c r="AX26" s="12">
         <v>86</v>
       </c>
-      <c r="AY26">
+      <c r="AY26" s="12">
         <v>80</v>
       </c>
-      <c r="AZ26">
+      <c r="AZ26" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:52">
+      <c r="BA26" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
@@ -3827,14 +3907,17 @@
       <c r="AX27" s="12">
         <v>138</v>
       </c>
-      <c r="AY27">
+      <c r="AY27" s="12">
         <v>130</v>
       </c>
-      <c r="AZ27">
+      <c r="AZ27" s="12">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:52">
+      <c r="BA27" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -3945,14 +4028,17 @@
       <c r="AX28" s="12">
         <v>697</v>
       </c>
-      <c r="AY28">
+      <c r="AY28" s="12">
         <v>713</v>
       </c>
-      <c r="AZ28">
+      <c r="AZ28" s="12">
         <v>713</v>
       </c>
-    </row>
-    <row r="29" spans="1:52">
+      <c r="BA28" s="12">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -4003,8 +4089,11 @@
       <c r="AV29" s="12"/>
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
-    </row>
-    <row r="30" spans="1:52">
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>39</v>
@@ -4057,8 +4146,11 @@
       <c r="AV30" s="12"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
-    </row>
-    <row r="31" spans="1:52">
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -4169,14 +4261,17 @@
       <c r="AX31" s="12">
         <v>30</v>
       </c>
-      <c r="AY31">
+      <c r="AY31" s="12">
         <v>37</v>
       </c>
-      <c r="AZ31">
+      <c r="AZ31" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:52">
+      <c r="BA31" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
@@ -4255,14 +4350,17 @@
       <c r="AX32" s="12">
         <v>22</v>
       </c>
-      <c r="AY32">
+      <c r="AY32" s="12">
         <v>29</v>
       </c>
-      <c r="AZ32">
+      <c r="AZ32" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:52">
+      <c r="BA32" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -4341,14 +4439,17 @@
       <c r="AX33" s="12">
         <v>8</v>
       </c>
-      <c r="AY33">
+      <c r="AY33" s="12">
         <v>0</v>
       </c>
-      <c r="AZ33">
+      <c r="AZ33" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:52">
+      <c r="BA33" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
@@ -4459,14 +4560,17 @@
       <c r="AX34" s="12">
         <v>114</v>
       </c>
-      <c r="AY34">
+      <c r="AY34" s="12">
         <v>32</v>
       </c>
-      <c r="AZ34">
+      <c r="AZ34" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:52">
+      <c r="BA34" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
@@ -4575,14 +4679,17 @@
       <c r="AX35" s="12">
         <v>136</v>
       </c>
-      <c r="AY35">
+      <c r="AY35" s="12">
         <v>61</v>
       </c>
-      <c r="AZ35">
+      <c r="AZ35" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:52">
+      <c r="BA35" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
@@ -4693,14 +4800,17 @@
       <c r="AX36" s="12">
         <v>115</v>
       </c>
-      <c r="AY36">
+      <c r="AY36" s="12">
         <v>119</v>
       </c>
-      <c r="AZ36">
+      <c r="AZ36" s="12">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:52">
+      <c r="BA36" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4767,14 +4877,17 @@
       <c r="AX37" s="12">
         <v>1</v>
       </c>
-      <c r="AY37">
+      <c r="AY37" s="12">
         <v>1</v>
       </c>
-      <c r="AZ37">
+      <c r="AZ37" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:52">
+      <c r="BA37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -4825,8 +4938,11 @@
       <c r="AV38" s="12"/>
       <c r="AW38" s="12"/>
       <c r="AX38" s="12"/>
-    </row>
-    <row r="39" spans="1:52">
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>39</v>
@@ -4879,8 +4995,11 @@
       <c r="AV39" s="12"/>
       <c r="AW39" s="12"/>
       <c r="AX39" s="12"/>
-    </row>
-    <row r="40" spans="1:52">
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
@@ -4993,14 +5112,17 @@
       <c r="AX40" s="12">
         <v>110</v>
       </c>
-      <c r="AY40">
+      <c r="AY40" s="12">
         <v>112</v>
       </c>
-      <c r="AZ40">
+      <c r="AZ40" s="12">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:52">
+      <c r="BA40" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
@@ -5081,14 +5203,17 @@
       <c r="AX41" s="12">
         <v>47</v>
       </c>
-      <c r="AY41">
+      <c r="AY41" s="12">
         <v>49</v>
       </c>
-      <c r="AZ41">
+      <c r="AZ41" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:52">
+      <c r="BA41" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
@@ -5169,14 +5294,17 @@
       <c r="AX42" s="12">
         <v>62</v>
       </c>
-      <c r="AY42">
+      <c r="AY42" s="12">
         <v>62</v>
       </c>
-      <c r="AZ42">
+      <c r="AZ42" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:52">
+      <c r="BA42" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
@@ -5287,14 +5415,17 @@
       <c r="AX43" s="12">
         <v>971</v>
       </c>
-      <c r="AY43">
+      <c r="AY43" s="12">
         <v>808</v>
       </c>
-      <c r="AZ43">
+      <c r="AZ43" s="12">
         <v>792</v>
       </c>
-    </row>
-    <row r="44" spans="1:52">
+      <c r="BA43" s="12">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -5375,14 +5506,17 @@
       <c r="AX44" s="12">
         <v>1018</v>
       </c>
-      <c r="AY44">
+      <c r="AY44" s="12">
         <v>857</v>
       </c>
-      <c r="AZ44">
+      <c r="AZ44" s="12">
         <v>846</v>
       </c>
-    </row>
-    <row r="45" spans="1:52">
+      <c r="BA44" s="12">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -5461,14 +5595,17 @@
       <c r="AX45" s="12">
         <v>65</v>
       </c>
-      <c r="AY45">
+      <c r="AY45" s="12">
         <v>223</v>
       </c>
-      <c r="AZ45">
+      <c r="AZ45" s="12">
         <v>244</v>
       </c>
-    </row>
-    <row r="46" spans="1:52">
+      <c r="BA45" s="12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
@@ -5543,14 +5680,17 @@
       <c r="AX46" s="12">
         <v>1</v>
       </c>
-      <c r="AY46">
+      <c r="AY46" s="12">
         <v>1</v>
       </c>
-      <c r="AZ46">
+      <c r="AZ46" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:52">
+      <c r="BA46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -5601,8 +5741,11 @@
       <c r="AV47" s="12"/>
       <c r="AW47" s="12"/>
       <c r="AX47" s="12"/>
-    </row>
-    <row r="48" spans="1:52">
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>52</v>
@@ -5655,8 +5798,11 @@
       <c r="AV48" s="12"/>
       <c r="AW48" s="12"/>
       <c r="AX48" s="12"/>
-    </row>
-    <row r="49" spans="1:52">
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
@@ -5759,14 +5905,17 @@
       <c r="AX49" s="12">
         <v>21</v>
       </c>
-      <c r="AY49">
+      <c r="AY49" s="12">
         <v>22</v>
       </c>
-      <c r="AZ49">
+      <c r="AZ49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:52">
+      <c r="BA49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
@@ -5845,14 +5994,17 @@
       <c r="AX50" s="12">
         <v>17</v>
       </c>
-      <c r="AY50">
+      <c r="AY50" s="12">
         <v>4</v>
       </c>
-      <c r="AZ50">
+      <c r="AZ50" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:52">
+      <c r="BA50" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
@@ -5931,14 +6083,17 @@
       <c r="AX51" s="12">
         <v>4</v>
       </c>
-      <c r="AY51">
+      <c r="AY51" s="12">
         <v>4</v>
       </c>
-      <c r="AZ51">
+      <c r="AZ51" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:52">
+      <c r="BA51" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>53</v>
       </c>
@@ -6041,14 +6196,17 @@
       <c r="AX52" s="12">
         <v>37</v>
       </c>
-      <c r="AY52">
+      <c r="AY52" s="12">
         <v>37</v>
       </c>
-      <c r="AZ52">
+      <c r="AZ52" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:52">
+      <c r="BA52" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -6151,14 +6309,17 @@
       <c r="AX53" s="12">
         <v>54</v>
       </c>
-      <c r="AY53">
+      <c r="AY53" s="12">
         <v>41</v>
       </c>
-      <c r="AZ53">
+      <c r="AZ53" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:52">
+      <c r="BA53" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
@@ -6261,14 +6422,17 @@
       <c r="AX54" s="12">
         <v>83</v>
       </c>
-      <c r="AY54">
+      <c r="AY54" s="12">
         <v>84</v>
       </c>
-      <c r="AZ54">
+      <c r="AZ54" s="12">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:52">
+      <c r="BA54" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
@@ -6343,14 +6507,17 @@
       <c r="AX55" s="12">
         <v>1</v>
       </c>
-      <c r="AY55">
+      <c r="AY55" s="12">
         <v>1</v>
       </c>
-      <c r="AZ55">
+      <c r="AZ55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:52">
+      <c r="BA55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -6401,8 +6568,11 @@
       <c r="AV56" s="12"/>
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
-    </row>
-    <row r="57" spans="1:52">
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -6505,14 +6675,17 @@
       <c r="AX57" s="12">
         <v>9</v>
       </c>
-      <c r="AY57">
+      <c r="AY57" s="12">
         <v>9</v>
       </c>
-      <c r="AZ57">
+      <c r="AZ57" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:52">
+      <c r="BA57" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>55</v>
       </c>
@@ -6591,14 +6764,17 @@
       <c r="AX58" s="12">
         <v>8</v>
       </c>
-      <c r="AY58">
+      <c r="AY58" s="12">
         <v>8</v>
       </c>
-      <c r="AZ58">
+      <c r="AZ58" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:52">
+      <c r="BA58" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -6677,14 +6853,17 @@
       <c r="AX59" s="12">
         <v>1</v>
       </c>
-      <c r="AY59">
+      <c r="AY59" s="12">
         <v>1</v>
       </c>
-      <c r="AZ59">
+      <c r="AZ59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:52">
+      <c r="BA59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>55</v>
       </c>
@@ -6787,14 +6966,17 @@
       <c r="AX60" s="12">
         <v>41</v>
       </c>
-      <c r="AY60">
+      <c r="AY60" s="12">
         <v>41</v>
       </c>
-      <c r="AZ60">
+      <c r="AZ60" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:52">
+      <c r="BA60" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
@@ -6897,14 +7079,17 @@
       <c r="AX61" s="12">
         <v>49</v>
       </c>
-      <c r="AY61">
+      <c r="AY61" s="12">
         <v>49</v>
       </c>
-      <c r="AZ61">
+      <c r="AZ61" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:52">
+      <c r="BA61" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -7005,14 +7190,17 @@
       <c r="AX62" s="12">
         <v>0</v>
       </c>
-      <c r="AY62">
+      <c r="AY62" s="12">
         <v>0</v>
       </c>
-      <c r="AZ62">
+      <c r="AZ62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:52">
+      <c r="BA62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -7091,14 +7279,17 @@
       <c r="AX63" s="12">
         <v>1</v>
       </c>
-      <c r="AY63">
+      <c r="AY63" s="12">
         <v>1</v>
       </c>
-      <c r="AZ63">
+      <c r="AZ63" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:52">
+      <c r="BA63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -7149,8 +7340,11 @@
       <c r="AV64" s="12"/>
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
-    </row>
-    <row r="65" spans="1:52">
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
         <v>62</v>
@@ -7203,8 +7397,11 @@
       <c r="AV65" s="12"/>
       <c r="AW65" s="12"/>
       <c r="AX65" s="12"/>
-    </row>
-    <row r="66" spans="1:52">
+      <c r="AY65" s="12"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>63</v>
       </c>
@@ -7307,14 +7504,17 @@
       <c r="AX66" s="12">
         <v>145</v>
       </c>
-      <c r="AY66">
+      <c r="AY66" s="12">
         <v>148</v>
       </c>
-      <c r="AZ66">
+      <c r="AZ66" s="12">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:52">
+      <c r="BA66" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>63</v>
       </c>
@@ -7417,14 +7617,17 @@
       <c r="AX67" s="12">
         <v>253</v>
       </c>
-      <c r="AY67">
+      <c r="AY67" s="12">
         <v>248</v>
       </c>
-      <c r="AZ67">
+      <c r="AZ67" s="12">
         <v>248</v>
       </c>
-    </row>
-    <row r="68" spans="1:52">
+      <c r="BA67" s="12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>63</v>
       </c>
@@ -7527,14 +7730,17 @@
       <c r="AX68" s="12">
         <v>213</v>
       </c>
-      <c r="AY68">
+      <c r="AY68" s="12">
         <v>232</v>
       </c>
-      <c r="AZ68">
+      <c r="AZ68" s="12">
         <v>244</v>
       </c>
-    </row>
-    <row r="69" spans="1:52">
+      <c r="BA68" s="12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>63</v>
       </c>
@@ -7609,14 +7815,17 @@
       <c r="AX69" s="12">
         <v>9</v>
       </c>
-      <c r="AY69">
+      <c r="AY69" s="12">
         <v>9</v>
       </c>
-      <c r="AZ69">
+      <c r="AZ69" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:52">
+      <c r="BA69" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -7667,8 +7876,11 @@
       <c r="AV70" s="12"/>
       <c r="AW70" s="12"/>
       <c r="AX70" s="12"/>
-    </row>
-    <row r="71" spans="1:52">
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>68</v>
       </c>
@@ -7771,14 +7983,17 @@
       <c r="AX71" s="12">
         <v>68</v>
       </c>
-      <c r="AY71">
+      <c r="AY71" s="12">
         <v>68</v>
       </c>
-      <c r="AZ71">
+      <c r="AZ71" s="12">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:52">
+      <c r="BA71" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>68</v>
       </c>
@@ -7881,14 +8096,17 @@
       <c r="AX72" s="12">
         <v>23</v>
       </c>
-      <c r="AY72">
+      <c r="AY72" s="12">
         <v>21</v>
       </c>
-      <c r="AZ72">
+      <c r="AZ72" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:52">
+      <c r="BA72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>68</v>
       </c>
@@ -7991,14 +8209,17 @@
       <c r="AX73" s="12">
         <v>91</v>
       </c>
-      <c r="AY73">
+      <c r="AY73" s="12">
         <v>89</v>
       </c>
-      <c r="AZ73">
+      <c r="AZ73" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:52">
+      <c r="BA73" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>68</v>
       </c>
@@ -8093,14 +8314,17 @@
       <c r="AX74" s="12">
         <v>91</v>
       </c>
-      <c r="AY74">
+      <c r="AY74" s="12">
         <v>93</v>
       </c>
-      <c r="AZ74">
+      <c r="AZ74" s="12">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:52">
+      <c r="BA74" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -8151,8 +8375,11 @@
       <c r="AV75" s="12"/>
       <c r="AW75" s="12"/>
       <c r="AX75" s="12"/>
-    </row>
-    <row r="76" spans="1:52">
+      <c r="AY75" s="12"/>
+      <c r="AZ75" s="12"/>
+      <c r="BA75" s="12"/>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>69</v>
       </c>
@@ -8255,14 +8482,17 @@
       <c r="AX76" s="12">
         <v>41</v>
       </c>
-      <c r="AY76">
+      <c r="AY76" s="12">
         <v>46</v>
       </c>
-      <c r="AZ76">
+      <c r="AZ76" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:52">
+      <c r="BA76" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>69</v>
       </c>
@@ -8365,14 +8595,17 @@
       <c r="AX77" s="12">
         <v>29</v>
       </c>
-      <c r="AY77">
+      <c r="AY77" s="12">
         <v>29</v>
       </c>
-      <c r="AZ77">
+      <c r="AZ77" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:52">
+      <c r="BA77" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>69</v>
       </c>
@@ -8453,14 +8686,17 @@
       <c r="AX78" s="12">
         <v>29</v>
       </c>
-      <c r="AY78">
+      <c r="AY78" s="12">
         <v>29</v>
       </c>
-      <c r="AZ78">
+      <c r="AZ78" s="12">
         <v>34</v>
       </c>
-    </row>
-    <row r="79" spans="1:52">
+      <c r="BA78" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>69</v>
       </c>
@@ -8537,19 +8773,22 @@
       <c r="AX79" s="12">
         <v>2</v>
       </c>
-      <c r="AY79">
+      <c r="AY79" s="12">
         <v>2</v>
       </c>
-      <c r="AZ79">
+      <c r="AZ79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:52">
+      <c r="BA79" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -8645,14 +8884,17 @@
       <c r="AX80" s="12">
         <v>6</v>
       </c>
-      <c r="AY80">
+      <c r="AY80" s="12">
         <v>6</v>
       </c>
-      <c r="AZ80">
+      <c r="AZ80" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:50">
+      <c r="BA80" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
@@ -8703,6 +8945,9 @@
       <c r="AV81" s="19"/>
       <c r="AW81" s="19"/>
       <c r="AX81" s="19"/>
+      <c r="AY81" s="19"/>
+      <c r="AZ81" s="19"/>
+      <c r="BA81" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8711,420 +8956,912 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43946</v>
-      </c>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22">
-        <f>SUM(B3:B12)</f>
-        <v>105</v>
-      </c>
-      <c r="C2" s="22">
-        <v>112</v>
-      </c>
-      <c r="D2" s="22">
-        <v>127</v>
-      </c>
-      <c r="E2" s="22">
-        <v>139</v>
-      </c>
-      <c r="F2" s="22">
-        <v>153</v>
-      </c>
-      <c r="G2" s="22">
-        <v>165</v>
-      </c>
-      <c r="H2" s="22">
-        <v>178</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43922</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43923</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43924</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43925</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43927</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43928</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43929</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="L2" s="5">
+        <v>43931</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43932</v>
+      </c>
+      <c r="N2" s="5">
+        <v>43933</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43934</v>
+      </c>
+      <c r="P2" s="5">
+        <v>43935</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>43936</v>
+      </c>
+      <c r="R2" s="5">
+        <v>43937</v>
+      </c>
+      <c r="S2" s="5">
+        <v>43938</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43939</v>
+      </c>
+      <c r="U2" s="5">
+        <v>43940</v>
+      </c>
+      <c r="V2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="5">
+        <v>43942</v>
+      </c>
+      <c r="X2" s="5">
+        <v>43943</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>43944</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>43945</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>43946</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>6</v>
+      <c r="B3" s="7">
+        <v>65</v>
       </c>
       <c r="C3" s="8">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="G3" s="8">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="H3" s="8">
-        <v>11</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="I3" s="8">
+        <v>160</v>
+      </c>
+      <c r="J3" s="8">
+        <v>172</v>
+      </c>
+      <c r="K3" s="8">
+        <v>183</v>
+      </c>
+      <c r="L3" s="8">
+        <v>202</v>
+      </c>
+      <c r="M3" s="8">
+        <v>218</v>
+      </c>
+      <c r="N3" s="8">
+        <v>223</v>
+      </c>
+      <c r="O3" s="8">
+        <v>230</v>
+      </c>
+      <c r="P3" s="8">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>264</v>
+      </c>
+      <c r="R3" s="8">
+        <v>282</v>
+      </c>
+      <c r="S3" s="8">
+        <v>309</v>
+      </c>
+      <c r="T3" s="8">
+        <v>330</v>
+      </c>
+      <c r="U3" s="8">
+        <v>344</v>
+      </c>
+      <c r="V3" s="8">
+        <v>355</v>
+      </c>
+      <c r="W3" s="8">
+        <v>359</v>
+      </c>
+      <c r="X3" s="8">
+        <v>376</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>403</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>427</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>444</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
+      <c r="B4" s="7">
+        <v>60</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E4" s="8">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F4" s="8">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G4" s="8">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
+        <v>117</v>
+      </c>
+      <c r="I4" s="8">
+        <v>134</v>
+      </c>
+      <c r="J4" s="8">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8">
+        <v>145</v>
+      </c>
+      <c r="L4" s="8">
+        <v>151</v>
+      </c>
+      <c r="M4" s="8">
+        <v>160</v>
+      </c>
+      <c r="N4" s="8">
+        <v>180</v>
+      </c>
+      <c r="O4" s="8">
+        <v>182</v>
+      </c>
+      <c r="P4" s="8">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>193</v>
+      </c>
+      <c r="R4" s="8">
+        <v>207</v>
+      </c>
+      <c r="S4" s="8">
+        <v>215</v>
+      </c>
+      <c r="T4" s="8">
+        <v>218</v>
+      </c>
+      <c r="U4" s="8">
+        <v>225</v>
+      </c>
+      <c r="V4" s="8">
+        <v>228</v>
+      </c>
+      <c r="W4" s="8">
+        <v>234</v>
+      </c>
+      <c r="X4" s="8">
+        <v>252</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>251</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>256</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>261</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>9</v>
+      <c r="B5" s="7">
+        <v>70</v>
       </c>
       <c r="C5" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E5" s="8">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F5" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
+        <v>95</v>
+      </c>
+      <c r="I5" s="8">
+        <v>104</v>
+      </c>
+      <c r="J5" s="8">
+        <v>113</v>
+      </c>
+      <c r="K5" s="8">
+        <v>128</v>
+      </c>
+      <c r="L5" s="8">
+        <v>139</v>
+      </c>
+      <c r="M5" s="8">
+        <v>143</v>
+      </c>
+      <c r="N5" s="8">
+        <v>146</v>
+      </c>
+      <c r="O5" s="8">
+        <v>149</v>
+      </c>
+      <c r="P5" s="8">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>169</v>
+      </c>
+      <c r="R5" s="8">
+        <v>176</v>
+      </c>
+      <c r="S5" s="8">
+        <v>205</v>
+      </c>
+      <c r="T5" s="8">
+        <v>211</v>
+      </c>
+      <c r="U5" s="8">
+        <v>226</v>
+      </c>
+      <c r="V5" s="8">
+        <v>223</v>
+      </c>
+      <c r="W5" s="8">
+        <v>215</v>
+      </c>
+      <c r="X5" s="8">
+        <v>227</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>258</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>268</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>14</v>
+      <c r="B6" s="7">
+        <v>85</v>
       </c>
       <c r="C6" s="8">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E6" s="8">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F6" s="8">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="G6" s="8">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="H6" s="8">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="I6" s="8">
+        <v>223</v>
+      </c>
+      <c r="J6" s="8">
+        <v>244</v>
+      </c>
+      <c r="K6" s="8">
+        <v>267</v>
+      </c>
+      <c r="L6" s="8">
+        <v>288</v>
+      </c>
+      <c r="M6" s="8">
+        <v>303</v>
+      </c>
+      <c r="N6" s="8">
+        <v>312</v>
+      </c>
+      <c r="O6" s="8">
+        <v>326</v>
+      </c>
+      <c r="P6" s="8">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>389</v>
+      </c>
+      <c r="R6" s="8">
+        <v>423</v>
+      </c>
+      <c r="S6" s="8">
+        <v>459</v>
+      </c>
+      <c r="T6" s="8">
+        <v>477</v>
+      </c>
+      <c r="U6" s="8">
+        <v>499</v>
+      </c>
+      <c r="V6" s="8">
+        <v>515</v>
+      </c>
+      <c r="W6" s="8">
+        <v>543</v>
+      </c>
+      <c r="X6" s="8">
+        <v>562</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>595</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>636</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>663</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>12</v>
+      <c r="B7" s="7">
+        <v>76</v>
       </c>
       <c r="C7" s="8">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D7" s="8">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E7" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G7" s="8">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="H7" s="8">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13">
+        <v>150</v>
+      </c>
+      <c r="I7" s="8">
+        <v>179</v>
+      </c>
+      <c r="J7" s="8">
+        <v>198</v>
+      </c>
+      <c r="K7" s="8">
+        <v>210</v>
+      </c>
+      <c r="L7" s="8">
+        <v>231</v>
+      </c>
+      <c r="M7" s="8">
+        <v>250</v>
+      </c>
+      <c r="N7" s="8">
+        <v>257</v>
+      </c>
+      <c r="O7" s="8">
+        <v>262</v>
+      </c>
+      <c r="P7" s="8">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>311</v>
+      </c>
+      <c r="R7" s="8">
+        <v>328</v>
+      </c>
+      <c r="S7" s="8">
+        <v>350</v>
+      </c>
+      <c r="T7" s="8">
+        <v>363</v>
+      </c>
+      <c r="U7" s="8">
+        <v>383</v>
+      </c>
+      <c r="V7" s="8">
+        <v>404</v>
+      </c>
+      <c r="W7" s="8">
+        <v>429</v>
+      </c>
+      <c r="X7" s="8">
+        <v>456</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>488</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>513</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>552</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
-        <v>18</v>
+      <c r="B8" s="7">
+        <v>101</v>
       </c>
       <c r="C8" s="8">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D8" s="8">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E8" s="8">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F8" s="8">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="G8" s="8">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="H8" s="8">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
+        <v>202</v>
+      </c>
+      <c r="I8" s="8">
+        <v>235</v>
+      </c>
+      <c r="J8" s="8">
+        <v>241</v>
+      </c>
+      <c r="K8" s="8">
+        <v>255</v>
+      </c>
+      <c r="L8" s="8">
+        <v>266</v>
+      </c>
+      <c r="M8" s="8">
+        <v>281</v>
+      </c>
+      <c r="N8" s="8">
+        <v>288</v>
+      </c>
+      <c r="O8" s="8">
+        <v>290</v>
+      </c>
+      <c r="P8" s="8">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>313</v>
+      </c>
+      <c r="R8" s="8">
+        <v>337</v>
+      </c>
+      <c r="S8" s="8">
+        <v>353</v>
+      </c>
+      <c r="T8" s="8">
+        <v>355</v>
+      </c>
+      <c r="U8" s="8">
+        <v>366</v>
+      </c>
+      <c r="V8" s="8">
+        <v>374</v>
+      </c>
+      <c r="W8" s="8">
+        <v>387</v>
+      </c>
+      <c r="X8" s="8">
+        <v>406</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>409</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>414</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>419</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
-        <v>16</v>
+      <c r="B9" s="7">
+        <v>60</v>
       </c>
       <c r="C9" s="8">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F9" s="8">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="G9" s="8">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="H9" s="8">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>154</v>
+      </c>
+      <c r="I9" s="8">
+        <v>186</v>
+      </c>
+      <c r="J9" s="8">
+        <v>219</v>
+      </c>
+      <c r="K9" s="8">
+        <v>238</v>
+      </c>
+      <c r="L9" s="8">
+        <v>266</v>
+      </c>
+      <c r="M9" s="8">
+        <v>284</v>
+      </c>
+      <c r="N9" s="8">
+        <v>292</v>
+      </c>
+      <c r="O9" s="8">
+        <v>296</v>
+      </c>
+      <c r="P9" s="8">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>361</v>
+      </c>
+      <c r="R9" s="8">
+        <v>382</v>
+      </c>
+      <c r="S9" s="8">
+        <v>402</v>
+      </c>
+      <c r="T9" s="8">
+        <v>440</v>
+      </c>
+      <c r="U9" s="8">
+        <v>454</v>
+      </c>
+      <c r="V9" s="8">
+        <v>482</v>
+      </c>
+      <c r="W9" s="8">
+        <v>492</v>
+      </c>
+      <c r="X9" s="8">
+        <v>508</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>522</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>543</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>570</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
-        <v>22</v>
+      <c r="B10" s="7">
+        <v>44</v>
       </c>
       <c r="C10" s="8">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
+        <v>108</v>
+      </c>
+      <c r="H10" s="8">
+        <v>128</v>
+      </c>
+      <c r="I10" s="8">
+        <v>168</v>
+      </c>
+      <c r="J10" s="8">
+        <v>178</v>
+      </c>
+      <c r="K10" s="8">
+        <v>192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>202</v>
+      </c>
+      <c r="M10" s="8">
+        <v>218</v>
+      </c>
+      <c r="N10" s="8">
+        <v>228</v>
+      </c>
+      <c r="O10" s="8">
+        <v>237</v>
+      </c>
+      <c r="P10" s="8">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>293</v>
+      </c>
+      <c r="R10" s="8">
+        <v>316</v>
+      </c>
+      <c r="S10" s="8">
+        <v>339</v>
+      </c>
+      <c r="T10" s="8">
+        <v>354</v>
+      </c>
+      <c r="U10" s="8">
+        <v>376</v>
+      </c>
+      <c r="V10" s="8">
+        <v>445</v>
+      </c>
+      <c r="W10" s="8">
+        <v>458</v>
+      </c>
+      <c r="X10" s="8">
+        <v>477</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>498</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>518</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>530</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
         <v>24</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8">
         <v>29</v>
       </c>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8">
-        <v>33</v>
-      </c>
-      <c r="G10" s="8">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8">
-        <v>41</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="O11" s="8">
+        <v>86</v>
+      </c>
+      <c r="P11" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>57</v>
+      </c>
+      <c r="R11" s="8">
+        <v>25</v>
+      </c>
+      <c r="S11" s="8">
+        <v>34</v>
+      </c>
+      <c r="T11" s="8">
+        <v>45</v>
+      </c>
+      <c r="U11" s="8">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8">
+        <v>72</v>
+      </c>
+      <c r="W11" s="8">
+        <v>89</v>
+      </c>
+      <c r="X11" s="8">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>110</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>134</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9132,20 +9869,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10:W13"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>76</v>
       </c>
@@ -9215,12 +9952,14 @@
       <c r="W1" s="5">
         <v>43946</v>
       </c>
-      <c r="X1" s="4"/>
+      <c r="X1" s="5">
+        <v>43947</v>
+      </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -9290,12 +10029,14 @@
       <c r="W2" s="8">
         <v>527</v>
       </c>
-      <c r="X2" s="8"/>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
@@ -9365,12 +10106,14 @@
       <c r="W3" s="8">
         <v>665</v>
       </c>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>78</v>
       </c>
@@ -9440,12 +10183,14 @@
       <c r="W4" s="8">
         <v>1891</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
@@ -9515,12 +10260,14 @@
       <c r="W5" s="8">
         <v>63</v>
       </c>
-      <c r="X5" s="8"/>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
@@ -9590,12 +10337,14 @@
       <c r="W6" s="8">
         <v>11</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>11</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>78</v>
       </c>
@@ -9661,12 +10410,14 @@
       <c r="W7" s="8">
         <v>8</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8">
+        <v>8</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>78</v>
       </c>
@@ -9736,12 +10487,14 @@
       <c r="W8" s="8">
         <v>652</v>
       </c>
-      <c r="X8" s="8"/>
+      <c r="X8" s="8">
+        <v>680</v>
+      </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
@@ -9811,12 +10564,14 @@
       <c r="W9" s="8">
         <v>24</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="X9" s="8">
+        <v>25</v>
+      </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>86</v>
       </c>
@@ -9886,12 +10641,14 @@
       <c r="W10" s="8">
         <v>799</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8">
+        <v>802</v>
+      </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>86</v>
       </c>
@@ -9961,12 +10718,14 @@
       <c r="W11" s="8">
         <v>708</v>
       </c>
-      <c r="X11" s="8"/>
+      <c r="X11" s="8">
+        <v>730</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>86</v>
       </c>
@@ -10036,12 +10795,14 @@
       <c r="W12" s="8">
         <v>2320</v>
       </c>
-      <c r="X12" s="8"/>
+      <c r="X12" s="8">
+        <v>2345</v>
+      </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>86</v>
       </c>
@@ -10111,12 +10872,14 @@
       <c r="W13" s="8">
         <v>14</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8">
+        <v>15</v>
+      </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -10145,7 +10908,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -10174,7 +10937,7 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -10203,13 +10966,13 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
   </sheetData>
@@ -10221,16 +10984,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -10295,13 +11058,15 @@
       <c r="V1" s="5">
         <v>43946</v>
       </c>
-      <c r="W1" s="5"/>
+      <c r="W1" s="5">
+        <v>43947</v>
+      </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -10332,7 +11097,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>81</v>
       </c>
@@ -10399,13 +11164,15 @@
       <c r="V3" s="8">
         <v>4</v>
       </c>
-      <c r="W3" s="8"/>
+      <c r="W3" s="8">
+        <v>4</v>
+      </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -10472,13 +11239,15 @@
       <c r="V4" s="8">
         <v>142</v>
       </c>
-      <c r="W4" s="8"/>
+      <c r="W4" s="8">
+        <v>147</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>89</v>
       </c>
@@ -10545,13 +11314,15 @@
       <c r="V5" s="8">
         <v>11</v>
       </c>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8">
+        <v>11</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>90</v>
       </c>
@@ -10618,13 +11389,15 @@
       <c r="V6" s="8">
         <v>20</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>21</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>91</v>
       </c>
@@ -10689,13 +11462,15 @@
       <c r="V7" s="8">
         <v>1</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="8">
+        <v>2</v>
+      </c>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -10724,7 +11499,7 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -10753,7 +11528,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -10782,7 +11557,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -10811,34 +11586,34 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
@@ -10847,880 +11622,443 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43947</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43921</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43922</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43923</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43924</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43925</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43927</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43928</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43929</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43930</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43931</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43932</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43933</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43934</v>
-      </c>
-      <c r="P2" s="5">
-        <v>43935</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>43936</v>
-      </c>
-      <c r="R2" s="5">
-        <v>43937</v>
-      </c>
-      <c r="S2" s="5">
-        <v>43938</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43939</v>
-      </c>
-      <c r="U2" s="5">
-        <v>43940</v>
-      </c>
-      <c r="V2" s="5">
-        <v>43941</v>
-      </c>
-      <c r="W2" s="5">
-        <v>43942</v>
-      </c>
-      <c r="X2" s="5">
-        <v>43943</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>43944</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>43945</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>43946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22">
+        <f>SUM(B3:B12)</f>
+        <v>105</v>
+      </c>
+      <c r="C2" s="22">
+        <v>112</v>
+      </c>
+      <c r="D2" s="22">
+        <v>127</v>
+      </c>
+      <c r="E2" s="22">
+        <v>139</v>
+      </c>
+      <c r="F2" s="22">
+        <v>153</v>
+      </c>
+      <c r="G2" s="22">
+        <v>165</v>
+      </c>
+      <c r="H2" s="22">
+        <v>178</v>
+      </c>
+      <c r="I2" s="22">
+        <v>185</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>65</v>
+      <c r="B3" s="8">
+        <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F3" s="8">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H3" s="8">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="I3" s="8">
-        <v>160</v>
-      </c>
-      <c r="J3" s="8">
-        <v>172</v>
-      </c>
-      <c r="K3" s="8">
-        <v>183</v>
-      </c>
-      <c r="L3" s="8">
-        <v>202</v>
-      </c>
-      <c r="M3" s="8">
-        <v>218</v>
-      </c>
-      <c r="N3" s="8">
-        <v>223</v>
-      </c>
-      <c r="O3" s="8">
-        <v>230</v>
-      </c>
-      <c r="P3" s="8">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>264</v>
-      </c>
-      <c r="R3" s="8">
-        <v>282</v>
-      </c>
-      <c r="S3" s="8">
-        <v>309</v>
-      </c>
-      <c r="T3" s="8">
-        <v>330</v>
-      </c>
-      <c r="U3" s="8">
-        <v>344</v>
-      </c>
-      <c r="V3" s="8">
-        <v>355</v>
-      </c>
-      <c r="W3" s="8">
-        <v>359</v>
-      </c>
-      <c r="X3" s="8">
-        <v>376</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>403</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>427</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>60</v>
+      <c r="B4" s="8">
+        <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="F4" s="8">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="G4" s="8">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="I4" s="8">
-        <v>134</v>
-      </c>
-      <c r="J4" s="8">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8">
-        <v>145</v>
-      </c>
-      <c r="L4" s="8">
-        <v>151</v>
-      </c>
-      <c r="M4" s="8">
-        <v>160</v>
-      </c>
-      <c r="N4" s="8">
-        <v>180</v>
-      </c>
-      <c r="O4" s="8">
-        <v>182</v>
-      </c>
-      <c r="P4" s="8">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>193</v>
-      </c>
-      <c r="R4" s="8">
-        <v>207</v>
-      </c>
-      <c r="S4" s="8">
-        <v>215</v>
-      </c>
-      <c r="T4" s="8">
-        <v>218</v>
-      </c>
-      <c r="U4" s="8">
-        <v>225</v>
-      </c>
-      <c r="V4" s="8">
-        <v>228</v>
-      </c>
-      <c r="W4" s="8">
-        <v>234</v>
-      </c>
-      <c r="X4" s="8">
-        <v>252</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>251</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>256</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>70</v>
+      <c r="B5" s="8">
+        <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I5" s="8">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8">
-        <v>113</v>
-      </c>
-      <c r="K5" s="8">
-        <v>128</v>
-      </c>
-      <c r="L5" s="8">
-        <v>139</v>
-      </c>
-      <c r="M5" s="8">
-        <v>143</v>
-      </c>
-      <c r="N5" s="8">
-        <v>146</v>
-      </c>
-      <c r="O5" s="8">
-        <v>149</v>
-      </c>
-      <c r="P5" s="8">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>169</v>
-      </c>
-      <c r="R5" s="8">
-        <v>176</v>
-      </c>
-      <c r="S5" s="8">
-        <v>205</v>
-      </c>
-      <c r="T5" s="8">
-        <v>211</v>
-      </c>
-      <c r="U5" s="8">
-        <v>226</v>
-      </c>
-      <c r="V5" s="8">
-        <v>223</v>
-      </c>
-      <c r="W5" s="8">
-        <v>215</v>
-      </c>
-      <c r="X5" s="8">
-        <v>227</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>252</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>258</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>85</v>
+      <c r="B6" s="8">
+        <v>14</v>
       </c>
       <c r="C6" s="8">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G6" s="8">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I6" s="8">
-        <v>223</v>
-      </c>
-      <c r="J6" s="8">
-        <v>244</v>
-      </c>
-      <c r="K6" s="8">
-        <v>267</v>
-      </c>
-      <c r="L6" s="8">
-        <v>288</v>
-      </c>
-      <c r="M6" s="8">
-        <v>303</v>
-      </c>
-      <c r="N6" s="8">
-        <v>312</v>
-      </c>
-      <c r="O6" s="8">
-        <v>326</v>
-      </c>
-      <c r="P6" s="8">
-        <v>361</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>389</v>
-      </c>
-      <c r="R6" s="8">
-        <v>423</v>
-      </c>
-      <c r="S6" s="8">
-        <v>459</v>
-      </c>
-      <c r="T6" s="8">
-        <v>477</v>
-      </c>
-      <c r="U6" s="8">
-        <v>499</v>
-      </c>
-      <c r="V6" s="8">
-        <v>515</v>
-      </c>
-      <c r="W6" s="8">
-        <v>543</v>
-      </c>
-      <c r="X6" s="8">
-        <v>562</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>595</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>636</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>76</v>
+      <c r="B7" s="8">
+        <v>12</v>
       </c>
       <c r="C7" s="8">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8">
-        <v>179</v>
-      </c>
-      <c r="J7" s="8">
-        <v>198</v>
-      </c>
-      <c r="K7" s="8">
-        <v>210</v>
-      </c>
-      <c r="L7" s="8">
-        <v>231</v>
-      </c>
-      <c r="M7" s="8">
-        <v>250</v>
-      </c>
-      <c r="N7" s="8">
-        <v>257</v>
-      </c>
-      <c r="O7" s="8">
-        <v>262</v>
-      </c>
-      <c r="P7" s="8">
-        <v>278</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>311</v>
-      </c>
-      <c r="R7" s="8">
-        <v>328</v>
-      </c>
-      <c r="S7" s="8">
-        <v>350</v>
-      </c>
-      <c r="T7" s="8">
-        <v>363</v>
-      </c>
-      <c r="U7" s="8">
-        <v>383</v>
-      </c>
-      <c r="V7" s="8">
-        <v>404</v>
-      </c>
-      <c r="W7" s="8">
-        <v>429</v>
-      </c>
-      <c r="X7" s="8">
-        <v>456</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>488</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>513</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>101</v>
+      <c r="B8" s="8">
+        <v>18</v>
       </c>
       <c r="C8" s="8">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I8" s="8">
-        <v>235</v>
-      </c>
-      <c r="J8" s="8">
-        <v>241</v>
-      </c>
-      <c r="K8" s="8">
-        <v>255</v>
-      </c>
-      <c r="L8" s="8">
-        <v>266</v>
-      </c>
-      <c r="M8" s="8">
-        <v>281</v>
-      </c>
-      <c r="N8" s="8">
-        <v>288</v>
-      </c>
-      <c r="O8" s="8">
-        <v>290</v>
-      </c>
-      <c r="P8" s="8">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>313</v>
-      </c>
-      <c r="R8" s="8">
-        <v>337</v>
-      </c>
-      <c r="S8" s="8">
-        <v>353</v>
-      </c>
-      <c r="T8" s="8">
-        <v>355</v>
-      </c>
-      <c r="U8" s="8">
-        <v>366</v>
-      </c>
-      <c r="V8" s="8">
-        <v>374</v>
-      </c>
-      <c r="W8" s="8">
-        <v>387</v>
-      </c>
-      <c r="X8" s="8">
-        <v>406</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>409</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>414</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>60</v>
+      <c r="B9" s="8">
+        <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="G9" s="8">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="H9" s="8">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I9" s="8">
-        <v>186</v>
-      </c>
-      <c r="J9" s="8">
-        <v>219</v>
-      </c>
-      <c r="K9" s="8">
-        <v>238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>266</v>
-      </c>
-      <c r="M9" s="8">
-        <v>284</v>
-      </c>
-      <c r="N9" s="8">
-        <v>292</v>
-      </c>
-      <c r="O9" s="8">
-        <v>296</v>
-      </c>
-      <c r="P9" s="8">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>361</v>
-      </c>
-      <c r="R9" s="8">
-        <v>382</v>
-      </c>
-      <c r="S9" s="8">
-        <v>402</v>
-      </c>
-      <c r="T9" s="8">
-        <v>440</v>
-      </c>
-      <c r="U9" s="8">
-        <v>454</v>
-      </c>
-      <c r="V9" s="8">
-        <v>482</v>
-      </c>
-      <c r="W9" s="8">
-        <v>492</v>
-      </c>
-      <c r="X9" s="8">
-        <v>508</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>522</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>543</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>44</v>
+      <c r="B10" s="8">
+        <v>22</v>
       </c>
       <c r="C10" s="8">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="G10" s="8">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="H10" s="8">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="I10" s="8">
-        <v>168</v>
-      </c>
-      <c r="J10" s="8">
-        <v>178</v>
-      </c>
-      <c r="K10" s="8">
-        <v>192</v>
-      </c>
-      <c r="L10" s="8">
-        <v>202</v>
-      </c>
-      <c r="M10" s="8">
-        <v>218</v>
-      </c>
-      <c r="N10" s="8">
-        <v>228</v>
-      </c>
-      <c r="O10" s="8">
-        <v>237</v>
-      </c>
-      <c r="P10" s="8">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>293</v>
-      </c>
-      <c r="R10" s="8">
-        <v>316</v>
-      </c>
-      <c r="S10" s="8">
-        <v>339</v>
-      </c>
-      <c r="T10" s="8">
-        <v>354</v>
-      </c>
-      <c r="U10" s="8">
-        <v>376</v>
-      </c>
-      <c r="V10" s="8">
-        <v>445</v>
-      </c>
-      <c r="W10" s="8">
-        <v>458</v>
-      </c>
-      <c r="X10" s="8">
-        <v>477</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>498</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>518</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8">
-        <v>71</v>
-      </c>
-      <c r="G11" s="8">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8">
-        <v>45</v>
-      </c>
-      <c r="I11" s="8">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8">
-        <v>42</v>
-      </c>
-      <c r="L11" s="8">
-        <v>33</v>
-      </c>
-      <c r="M11" s="8">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
-        <v>86</v>
-      </c>
-      <c r="P11" s="8">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>57</v>
-      </c>
-      <c r="R11" s="8">
-        <v>25</v>
-      </c>
-      <c r="S11" s="8">
-        <v>34</v>
-      </c>
-      <c r="T11" s="8">
-        <v>45</v>
-      </c>
-      <c r="U11" s="8">
-        <v>54</v>
-      </c>
-      <c r="V11" s="8">
-        <v>72</v>
-      </c>
-      <c r="W11" s="8">
-        <v>89</v>
-      </c>
-      <c r="X11" s="8">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>110</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>134</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>134</v>
-      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201BDC64-2F4F-A743-A406-184125A18BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3260BD9-F979-974A-9B52-BC9500D54973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="1" r:id="rId3"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId4"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="1" r:id="rId4"/>
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
     <sheet name="Lives Lost by Race" sheetId="4" r:id="rId6"/>
     <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -89,6 +89,9 @@
     <t>81+</t>
   </si>
   <si>
+    <t>Ward</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -107,13 +110,13 @@
     <t>ICU Beds Available</t>
   </si>
   <si>
-    <t>Total Ventilators</t>
+    <t>Total Reported Ventilators in Hospitals</t>
   </si>
   <si>
-    <t>Ventilators in Use</t>
+    <t>In-Use Ventilators in Hospitals</t>
   </si>
   <si>
-    <t>Ventilators Available</t>
+    <t>Ventilators Available in Hospitals</t>
   </si>
   <si>
     <t>Public Safety</t>
@@ -263,10 +266,22 @@
     <t>universal quarantine precautions on all units</t>
   </si>
   <si>
+    <t>All Patients</t>
+  </si>
+  <si>
     <t>Total Number of Lives Lost Among IIC</t>
   </si>
   <si>
-    <t>Ward</t>
+    <t>Human Services - DDS</t>
+  </si>
+  <si>
+    <t>Number of DDA-Connected Individuals Who Have Tested Positive</t>
+  </si>
+  <si>
+    <t>Number of DDA-Connected Individuals Who Have Recovered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Lives Lost Among DDA-Connected Individuals </t>
   </si>
   <si>
     <t>Race/Ethnicity Category</t>
@@ -328,7 +343,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +468,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -479,9 +494,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -808,14 +820,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.95">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="18.95">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -833,14 +845,14 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -857,49 +869,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>3892</v>
+        <v>3994</v>
       </c>
       <c r="C2" s="13">
-        <v>1879</v>
+        <v>1928</v>
       </c>
       <c r="D2" s="13">
-        <v>2006</v>
+        <v>2059</v>
       </c>
       <c r="E2" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>12</v>
-      </c>
-      <c r="C3" s="20">
-        <v>6</v>
-      </c>
-      <c r="D3" s="20">
-        <v>6</v>
-      </c>
-      <c r="E3" s="21">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8">
         <v>53</v>
@@ -908,126 +920,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C5" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D5" s="8">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="C6" s="8">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D6" s="8">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="C7" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D7" s="8">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="C8" s="8">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D8" s="8">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C9" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D9" s="8">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C10" s="8">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D10" s="8">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C11" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D11" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -1037,24 +1049,965 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43922</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43923</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43924</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43925</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43927</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43928</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43929</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43930</v>
+      </c>
+      <c r="L2" s="5">
+        <v>43931</v>
+      </c>
+      <c r="M2" s="5">
+        <v>43932</v>
+      </c>
+      <c r="N2" s="5">
+        <v>43933</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43934</v>
+      </c>
+      <c r="P2" s="5">
+        <v>43935</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>43936</v>
+      </c>
+      <c r="R2" s="5">
+        <v>43937</v>
+      </c>
+      <c r="S2" s="5">
+        <v>43938</v>
+      </c>
+      <c r="T2" s="5">
+        <v>43939</v>
+      </c>
+      <c r="U2" s="5">
+        <v>43940</v>
+      </c>
+      <c r="V2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="W2" s="5">
+        <v>43942</v>
+      </c>
+      <c r="X2" s="5">
+        <v>43943</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>43944</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>43945</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>43946</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>43947</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8">
+        <v>84</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8">
+        <v>107</v>
+      </c>
+      <c r="G3" s="8">
+        <v>119</v>
+      </c>
+      <c r="H3" s="8">
+        <v>135</v>
+      </c>
+      <c r="I3" s="8">
+        <v>160</v>
+      </c>
+      <c r="J3" s="8">
+        <v>172</v>
+      </c>
+      <c r="K3" s="8">
+        <v>183</v>
+      </c>
+      <c r="L3" s="8">
+        <v>202</v>
+      </c>
+      <c r="M3" s="8">
+        <v>218</v>
+      </c>
+      <c r="N3" s="8">
+        <v>223</v>
+      </c>
+      <c r="O3" s="8">
+        <v>230</v>
+      </c>
+      <c r="P3" s="8">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>264</v>
+      </c>
+      <c r="R3" s="8">
+        <v>282</v>
+      </c>
+      <c r="S3" s="8">
+        <v>309</v>
+      </c>
+      <c r="T3" s="8">
+        <v>330</v>
+      </c>
+      <c r="U3" s="8">
+        <v>344</v>
+      </c>
+      <c r="V3" s="8">
+        <v>355</v>
+      </c>
+      <c r="W3" s="8">
+        <v>359</v>
+      </c>
+      <c r="X3" s="8">
+        <v>376</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>403</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>427</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>444</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>450</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8">
+        <v>73</v>
+      </c>
+      <c r="D4" s="8">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8">
+        <v>92</v>
+      </c>
+      <c r="G4" s="8">
+        <v>107</v>
+      </c>
+      <c r="H4" s="8">
+        <v>117</v>
+      </c>
+      <c r="I4" s="8">
+        <v>134</v>
+      </c>
+      <c r="J4" s="8">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8">
+        <v>145</v>
+      </c>
+      <c r="L4" s="8">
+        <v>151</v>
+      </c>
+      <c r="M4" s="8">
+        <v>160</v>
+      </c>
+      <c r="N4" s="8">
+        <v>180</v>
+      </c>
+      <c r="O4" s="8">
+        <v>182</v>
+      </c>
+      <c r="P4" s="8">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>193</v>
+      </c>
+      <c r="R4" s="8">
+        <v>207</v>
+      </c>
+      <c r="S4" s="8">
+        <v>215</v>
+      </c>
+      <c r="T4" s="8">
+        <v>218</v>
+      </c>
+      <c r="U4" s="8">
+        <v>225</v>
+      </c>
+      <c r="V4" s="8">
+        <v>228</v>
+      </c>
+      <c r="W4" s="8">
+        <v>234</v>
+      </c>
+      <c r="X4" s="8">
+        <v>252</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>251</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>256</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>261</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>261</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8">
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>83</v>
+      </c>
+      <c r="G5" s="8">
+        <v>89</v>
+      </c>
+      <c r="H5" s="8">
+        <v>95</v>
+      </c>
+      <c r="I5" s="8">
+        <v>104</v>
+      </c>
+      <c r="J5" s="8">
+        <v>113</v>
+      </c>
+      <c r="K5" s="8">
+        <v>128</v>
+      </c>
+      <c r="L5" s="8">
+        <v>139</v>
+      </c>
+      <c r="M5" s="8">
+        <v>143</v>
+      </c>
+      <c r="N5" s="8">
+        <v>146</v>
+      </c>
+      <c r="O5" s="8">
+        <v>149</v>
+      </c>
+      <c r="P5" s="8">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>169</v>
+      </c>
+      <c r="R5" s="8">
+        <v>176</v>
+      </c>
+      <c r="S5" s="8">
+        <v>205</v>
+      </c>
+      <c r="T5" s="8">
+        <v>211</v>
+      </c>
+      <c r="U5" s="8">
+        <v>226</v>
+      </c>
+      <c r="V5" s="8">
+        <v>223</v>
+      </c>
+      <c r="W5" s="8">
+        <v>215</v>
+      </c>
+      <c r="X5" s="8">
+        <v>227</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>258</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>268</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>261</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8">
+        <v>135</v>
+      </c>
+      <c r="F6" s="8">
+        <v>145</v>
+      </c>
+      <c r="G6" s="8">
+        <v>168</v>
+      </c>
+      <c r="H6" s="8">
+        <v>185</v>
+      </c>
+      <c r="I6" s="8">
+        <v>223</v>
+      </c>
+      <c r="J6" s="8">
+        <v>244</v>
+      </c>
+      <c r="K6" s="8">
+        <v>267</v>
+      </c>
+      <c r="L6" s="8">
+        <v>288</v>
+      </c>
+      <c r="M6" s="8">
+        <v>303</v>
+      </c>
+      <c r="N6" s="8">
+        <v>312</v>
+      </c>
+      <c r="O6" s="8">
+        <v>326</v>
+      </c>
+      <c r="P6" s="8">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>389</v>
+      </c>
+      <c r="R6" s="8">
+        <v>423</v>
+      </c>
+      <c r="S6" s="8">
+        <v>459</v>
+      </c>
+      <c r="T6" s="8">
+        <v>477</v>
+      </c>
+      <c r="U6" s="8">
+        <v>499</v>
+      </c>
+      <c r="V6" s="8">
+        <v>515</v>
+      </c>
+      <c r="W6" s="8">
+        <v>543</v>
+      </c>
+      <c r="X6" s="8">
+        <v>562</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>595</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>636</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>663</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>681</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8">
+        <v>122</v>
+      </c>
+      <c r="F7" s="8">
+        <v>126</v>
+      </c>
+      <c r="G7" s="8">
+        <v>136</v>
+      </c>
+      <c r="H7" s="8">
+        <v>150</v>
+      </c>
+      <c r="I7" s="8">
+        <v>179</v>
+      </c>
+      <c r="J7" s="8">
+        <v>198</v>
+      </c>
+      <c r="K7" s="8">
+        <v>210</v>
+      </c>
+      <c r="L7" s="8">
+        <v>231</v>
+      </c>
+      <c r="M7" s="8">
+        <v>250</v>
+      </c>
+      <c r="N7" s="8">
+        <v>257</v>
+      </c>
+      <c r="O7" s="8">
+        <v>262</v>
+      </c>
+      <c r="P7" s="8">
+        <v>278</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>311</v>
+      </c>
+      <c r="R7" s="8">
+        <v>328</v>
+      </c>
+      <c r="S7" s="8">
+        <v>350</v>
+      </c>
+      <c r="T7" s="8">
+        <v>363</v>
+      </c>
+      <c r="U7" s="8">
+        <v>383</v>
+      </c>
+      <c r="V7" s="8">
+        <v>404</v>
+      </c>
+      <c r="W7" s="8">
+        <v>429</v>
+      </c>
+      <c r="X7" s="8">
+        <v>456</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>488</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>513</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>552</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>571</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>101</v>
+      </c>
+      <c r="C8" s="8">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8">
+        <v>130</v>
+      </c>
+      <c r="E8" s="8">
+        <v>154</v>
+      </c>
+      <c r="F8" s="8">
+        <v>156</v>
+      </c>
+      <c r="G8" s="8">
+        <v>187</v>
+      </c>
+      <c r="H8" s="8">
+        <v>202</v>
+      </c>
+      <c r="I8" s="8">
+        <v>235</v>
+      </c>
+      <c r="J8" s="8">
+        <v>241</v>
+      </c>
+      <c r="K8" s="8">
+        <v>255</v>
+      </c>
+      <c r="L8" s="8">
+        <v>266</v>
+      </c>
+      <c r="M8" s="8">
+        <v>281</v>
+      </c>
+      <c r="N8" s="8">
+        <v>288</v>
+      </c>
+      <c r="O8" s="8">
+        <v>290</v>
+      </c>
+      <c r="P8" s="8">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>313</v>
+      </c>
+      <c r="R8" s="8">
+        <v>337</v>
+      </c>
+      <c r="S8" s="8">
+        <v>353</v>
+      </c>
+      <c r="T8" s="8">
+        <v>355</v>
+      </c>
+      <c r="U8" s="8">
+        <v>366</v>
+      </c>
+      <c r="V8" s="8">
+        <v>374</v>
+      </c>
+      <c r="W8" s="8">
+        <v>387</v>
+      </c>
+      <c r="X8" s="8">
+        <v>406</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>409</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>414</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>419</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>405</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8">
+        <v>117</v>
+      </c>
+      <c r="G9" s="8">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8">
+        <v>154</v>
+      </c>
+      <c r="I9" s="8">
+        <v>186</v>
+      </c>
+      <c r="J9" s="8">
+        <v>219</v>
+      </c>
+      <c r="K9" s="8">
+        <v>238</v>
+      </c>
+      <c r="L9" s="8">
+        <v>266</v>
+      </c>
+      <c r="M9" s="8">
+        <v>284</v>
+      </c>
+      <c r="N9" s="8">
+        <v>292</v>
+      </c>
+      <c r="O9" s="8">
+        <v>296</v>
+      </c>
+      <c r="P9" s="8">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>361</v>
+      </c>
+      <c r="R9" s="8">
+        <v>382</v>
+      </c>
+      <c r="S9" s="8">
+        <v>402</v>
+      </c>
+      <c r="T9" s="8">
+        <v>440</v>
+      </c>
+      <c r="U9" s="8">
+        <v>454</v>
+      </c>
+      <c r="V9" s="8">
+        <v>482</v>
+      </c>
+      <c r="W9" s="8">
+        <v>492</v>
+      </c>
+      <c r="X9" s="8">
+        <v>508</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>522</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>543</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>570</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>578</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8">
+        <v>101</v>
+      </c>
+      <c r="G10" s="8">
+        <v>108</v>
+      </c>
+      <c r="H10" s="8">
+        <v>128</v>
+      </c>
+      <c r="I10" s="8">
+        <v>168</v>
+      </c>
+      <c r="J10" s="8">
+        <v>178</v>
+      </c>
+      <c r="K10" s="8">
+        <v>192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>202</v>
+      </c>
+      <c r="M10" s="8">
+        <v>218</v>
+      </c>
+      <c r="N10" s="8">
+        <v>228</v>
+      </c>
+      <c r="O10" s="8">
+        <v>237</v>
+      </c>
+      <c r="P10" s="8">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>293</v>
+      </c>
+      <c r="R10" s="8">
+        <v>316</v>
+      </c>
+      <c r="S10" s="8">
+        <v>339</v>
+      </c>
+      <c r="T10" s="8">
+        <v>354</v>
+      </c>
+      <c r="U10" s="8">
+        <v>376</v>
+      </c>
+      <c r="V10" s="8">
+        <v>445</v>
+      </c>
+      <c r="W10" s="8">
+        <v>458</v>
+      </c>
+      <c r="X10" s="8">
+        <v>477</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>498</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>518</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>530</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>535</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42</v>
+      </c>
+      <c r="L11" s="8">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8">
+        <v>86</v>
+      </c>
+      <c r="P11" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>57</v>
+      </c>
+      <c r="R11" s="8">
+        <v>25</v>
+      </c>
+      <c r="S11" s="8">
+        <v>34</v>
+      </c>
+      <c r="T11" s="8">
+        <v>45</v>
+      </c>
+      <c r="U11" s="8">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8">
+        <v>72</v>
+      </c>
+      <c r="W11" s="8">
+        <v>89</v>
+      </c>
+      <c r="X11" s="8">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>110</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>134</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>150</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA81"/>
+  <dimension ref="A1:BB85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA66" sqref="BA66:BA80"/>
+      <pane xSplit="2" topLeftCell="BA83" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA83" sqref="BA83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -1210,11 +2163,14 @@
       <c r="BA1" s="5">
         <v>43947</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB1" s="5">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1267,13 +2223,14 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB2" s="4"/>
+    </row>
+    <row r="3" spans="1:54">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1416,10 +2373,13 @@
       <c r="BA3" s="12">
         <v>18416</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB3" s="12">
+        <v>18885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1577,13 +2537,16 @@
       <c r="BA4" s="12">
         <v>3892</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB4" s="12">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1726,13 +2689,16 @@
       <c r="BA5" s="12">
         <v>185</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB5" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1855,8 +2821,11 @@
       <c r="BA6" s="12">
         <v>659</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB6" s="12">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -1910,13 +2879,14 @@
       <c r="AY7" s="12"/>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB7" s="12"/>
+    </row>
+    <row r="8" spans="1:54">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2035,13 +3005,16 @@
       <c r="BA8" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB8" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2160,13 +3133,16 @@
       <c r="BA9" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB9" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2285,13 +3261,16 @@
       <c r="BA10" s="12">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB10" s="12">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2410,8 +3389,11 @@
       <c r="BA11" s="12">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB11" s="12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -2465,11 +3447,12 @@
       <c r="AY12" s="12"/>
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB12" s="12"/>
+    </row>
+    <row r="13" spans="1:54">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2522,13 +3505,14 @@
       <c r="AY13" s="12"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB13" s="12"/>
+    </row>
+    <row r="14" spans="1:54">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2581,13 +3565,14 @@
       <c r="AY14" s="12"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB14" s="12"/>
+    </row>
+    <row r="15" spans="1:54">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2708,13 +3693,16 @@
       <c r="BA15" s="12">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB15" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2799,13 +3787,16 @@
       <c r="BA16" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB16" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2890,13 +3881,16 @@
       <c r="BA17" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB17" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3011,13 +4005,16 @@
       <c r="BA18" s="12">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB18" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3132,13 +4129,16 @@
       <c r="BA19" s="12">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB19" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3253,8 +4253,11 @@
       <c r="BA20" s="12">
         <v>666</v>
       </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB20" s="12">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -3308,11 +4311,12 @@
       <c r="AY21" s="12"/>
       <c r="AZ21" s="12"/>
       <c r="BA21" s="12"/>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB21" s="12"/>
+    </row>
+    <row r="22" spans="1:54">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3365,13 +4369,14 @@
       <c r="AY22" s="12"/>
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB22" s="12"/>
+    </row>
+    <row r="23" spans="1:54">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3492,13 +4497,16 @@
       <c r="BA23" s="12">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB23" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3583,13 +4591,16 @@
       <c r="BA24" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB24" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -3674,13 +4685,16 @@
       <c r="BA25" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB25" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3795,13 +4809,16 @@
       <c r="BA26" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB26" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3916,13 +4933,16 @@
       <c r="BA27" s="12">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB27" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4037,8 +5057,11 @@
       <c r="BA28" s="12">
         <v>713</v>
       </c>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB28" s="12">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
@@ -4092,11 +5115,12 @@
       <c r="AY29" s="12"/>
       <c r="AZ29" s="12"/>
       <c r="BA29" s="12"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB29" s="12"/>
+    </row>
+    <row r="30" spans="1:54">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -4149,13 +5173,14 @@
       <c r="AY30" s="12"/>
       <c r="AZ30" s="12"/>
       <c r="BA30" s="12"/>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB30" s="12"/>
+    </row>
+    <row r="31" spans="1:54">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4270,13 +5295,16 @@
       <c r="BA31" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB31" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4359,13 +5387,16 @@
       <c r="BA32" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB32" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -4448,13 +5479,16 @@
       <c r="BA33" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB33" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -4569,13 +5603,16 @@
       <c r="BA34" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB34" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -4688,13 +5725,16 @@
       <c r="BA35" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB35" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54">
       <c r="A36" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4809,13 +5849,16 @@
       <c r="BA36" s="12">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB36" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54">
       <c r="A37" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -4886,8 +5929,11 @@
       <c r="BA37" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12"/>
@@ -4941,11 +5987,12 @@
       <c r="AY38" s="12"/>
       <c r="AZ38" s="12"/>
       <c r="BA38" s="12"/>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB38" s="12"/>
+    </row>
+    <row r="39" spans="1:54">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -4998,13 +6045,14 @@
       <c r="AY39" s="12"/>
       <c r="AZ39" s="12"/>
       <c r="BA39" s="12"/>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB39" s="12"/>
+    </row>
+    <row r="40" spans="1:54">
       <c r="A40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -5121,13 +6169,16 @@
       <c r="BA40" s="12">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB40" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
       <c r="A41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -5212,13 +6263,16 @@
       <c r="BA41" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB41" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -5303,13 +6357,16 @@
       <c r="BA42" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB42" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
       <c r="A43" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -5424,13 +6481,16 @@
       <c r="BA43" s="12">
         <v>794</v>
       </c>
-    </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB43" s="12">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5515,13 +6575,16 @@
       <c r="BA44" s="12">
         <v>846</v>
       </c>
-    </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB44" s="12">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5604,13 +6667,16 @@
       <c r="BA45" s="12">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB45" s="12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5689,8 +6755,11 @@
       <c r="BA46" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
@@ -5744,11 +6813,12 @@
       <c r="AY47" s="12"/>
       <c r="AZ47" s="12"/>
       <c r="BA47" s="12"/>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB47" s="12"/>
+    </row>
+    <row r="48" spans="1:54">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -5801,13 +6871,14 @@
       <c r="AY48" s="12"/>
       <c r="AZ48" s="12"/>
       <c r="BA48" s="12"/>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB48" s="12"/>
+    </row>
+    <row r="49" spans="1:54">
       <c r="A49" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -5914,13 +6985,16 @@
       <c r="BA49" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB49" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:54">
       <c r="A50" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -6003,13 +7077,16 @@
       <c r="BA50" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB50" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54">
       <c r="A51" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -6092,13 +7169,16 @@
       <c r="BA51" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB51" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:54">
       <c r="A52" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -6205,13 +7285,16 @@
       <c r="BA52" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB52" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:54">
       <c r="A53" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -6318,13 +7401,16 @@
       <c r="BA53" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB53" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54">
       <c r="A54" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -6431,13 +7517,16 @@
       <c r="BA54" s="12">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB54" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:54">
       <c r="A55" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -6516,8 +7605,11 @@
       <c r="BA55" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:54">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="12"/>
@@ -6571,13 +7663,14 @@
       <c r="AY56" s="12"/>
       <c r="AZ56" s="12"/>
       <c r="BA56" s="12"/>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB56" s="12"/>
+    </row>
+    <row r="57" spans="1:54">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -6684,13 +7777,16 @@
       <c r="BA57" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB57" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:54">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -6773,13 +7869,16 @@
       <c r="BA58" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB58" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:54">
       <c r="A59" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -6862,13 +7961,16 @@
       <c r="BA59" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:54">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -6975,13 +8077,16 @@
       <c r="BA60" s="12">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB60" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:54">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -7088,13 +8193,16 @@
       <c r="BA61" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB61" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:54">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -7199,13 +8307,16 @@
       <c r="BA62" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:54">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -7288,8 +8399,11 @@
       <c r="BA63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:54">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
@@ -7343,11 +8457,12 @@
       <c r="AY64" s="12"/>
       <c r="AZ64" s="12"/>
       <c r="BA64" s="12"/>
-    </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB64" s="12"/>
+    </row>
+    <row r="65" spans="1:54">
       <c r="A65" s="7"/>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -7400,13 +8515,14 @@
       <c r="AY65" s="12"/>
       <c r="AZ65" s="12"/>
       <c r="BA65" s="12"/>
-    </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB65" s="12"/>
+    </row>
+    <row r="66" spans="1:54">
       <c r="A66" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -7513,13 +8629,16 @@
       <c r="BA66" s="12">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB66" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:54">
       <c r="A67" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -7626,13 +8745,16 @@
       <c r="BA67" s="12">
         <v>257</v>
       </c>
-    </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB67" s="12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54">
       <c r="A68" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -7739,13 +8861,16 @@
       <c r="BA68" s="12">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB68" s="12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54">
       <c r="A69" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -7824,8 +8949,11 @@
       <c r="BA69" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB69" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="12"/>
@@ -7879,13 +9007,14 @@
       <c r="AY70" s="12"/>
       <c r="AZ70" s="12"/>
       <c r="BA70" s="12"/>
-    </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB70" s="12"/>
+    </row>
+    <row r="71" spans="1:54">
       <c r="A71" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -7992,13 +9121,16 @@
       <c r="BA71" s="12">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB71" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -8105,13 +9237,16 @@
       <c r="BA72" s="12">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB72" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54">
       <c r="A73" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -8218,13 +9353,16 @@
       <c r="BA73" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB73" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:54">
       <c r="A74" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -8323,8 +9461,11 @@
       <c r="BA74" s="12">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB74" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="12"/>
@@ -8378,13 +9519,14 @@
       <c r="AY75" s="12"/>
       <c r="AZ75" s="12"/>
       <c r="BA75" s="12"/>
-    </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB75" s="12"/>
+    </row>
+    <row r="76" spans="1:54">
       <c r="A76" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -8491,13 +9633,16 @@
       <c r="BA76" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB76" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54">
       <c r="A77" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -8604,13 +9749,16 @@
       <c r="BA77" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB77" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54">
       <c r="A78" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -8693,15 +9841,18 @@
         <v>34</v>
       </c>
       <c r="BA78" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="BB78" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54">
       <c r="A79" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -8782,13 +9933,16 @@
       <c r="BA79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB79" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54">
       <c r="A80" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -8893,971 +10047,307 @@
       <c r="BA80" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="19"/>
-      <c r="AI81" s="19"/>
-      <c r="AJ81" s="19"/>
-      <c r="AK81" s="19"/>
-      <c r="AL81" s="19"/>
-      <c r="AM81" s="19"/>
-      <c r="AN81" s="19"/>
-      <c r="AO81" s="19"/>
-      <c r="AP81" s="19"/>
-      <c r="AQ81" s="19"/>
-      <c r="AR81" s="19"/>
-      <c r="AS81" s="19"/>
-      <c r="AT81" s="19"/>
-      <c r="AU81" s="19"/>
-      <c r="AV81" s="19"/>
-      <c r="AW81" s="19"/>
-      <c r="AX81" s="19"/>
-      <c r="AY81" s="19"/>
-      <c r="AZ81" s="19"/>
-      <c r="BA81" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43921</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43922</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43923</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43924</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43925</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43927</v>
-      </c>
-      <c r="I2" s="5">
-        <v>43928</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43929</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43930</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43931</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43932</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43933</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43934</v>
-      </c>
-      <c r="P2" s="5">
-        <v>43935</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>43936</v>
-      </c>
-      <c r="R2" s="5">
-        <v>43937</v>
-      </c>
-      <c r="S2" s="5">
-        <v>43938</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43939</v>
-      </c>
-      <c r="U2" s="5">
-        <v>43940</v>
-      </c>
-      <c r="V2" s="5">
-        <v>43941</v>
-      </c>
-      <c r="W2" s="5">
-        <v>43942</v>
-      </c>
-      <c r="X2" s="5">
-        <v>43943</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>43944</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>43945</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>43946</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>65</v>
-      </c>
-      <c r="C3" s="8">
-        <v>75</v>
-      </c>
-      <c r="D3" s="8">
-        <v>84</v>
-      </c>
-      <c r="E3" s="8">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8">
-        <v>107</v>
-      </c>
-      <c r="G3" s="8">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8">
-        <v>135</v>
-      </c>
-      <c r="I3" s="8">
-        <v>160</v>
-      </c>
-      <c r="J3" s="8">
-        <v>172</v>
-      </c>
-      <c r="K3" s="8">
-        <v>183</v>
-      </c>
-      <c r="L3" s="8">
-        <v>202</v>
-      </c>
-      <c r="M3" s="8">
-        <v>218</v>
-      </c>
-      <c r="N3" s="8">
-        <v>223</v>
-      </c>
-      <c r="O3" s="8">
-        <v>230</v>
-      </c>
-      <c r="P3" s="8">
-        <v>243</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>264</v>
-      </c>
-      <c r="R3" s="8">
-        <v>282</v>
-      </c>
-      <c r="S3" s="8">
-        <v>309</v>
-      </c>
-      <c r="T3" s="8">
-        <v>330</v>
-      </c>
-      <c r="U3" s="8">
-        <v>344</v>
-      </c>
-      <c r="V3" s="8">
-        <v>355</v>
-      </c>
-      <c r="W3" s="8">
-        <v>359</v>
-      </c>
-      <c r="X3" s="8">
-        <v>376</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>403</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>427</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>444</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="BB80" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:54">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+      <c r="AS81" s="12"/>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="12"/>
+      <c r="AW81" s="12"/>
+      <c r="AX81" s="12"/>
+      <c r="AY81" s="12"/>
+      <c r="AZ81" s="12"/>
+      <c r="BA81" s="12"/>
+      <c r="BB81" s="12"/>
+    </row>
+    <row r="82" spans="1:54">
+      <c r="A82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+      <c r="AT82" s="12"/>
+      <c r="AU82" s="12"/>
+      <c r="AV82" s="12"/>
+      <c r="AW82" s="12"/>
+      <c r="AX82" s="12"/>
+      <c r="AY82" s="12"/>
+      <c r="AZ82" s="12"/>
+      <c r="BA82" s="12"/>
+      <c r="BB82" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="8">
-        <v>92</v>
-      </c>
-      <c r="F4" s="8">
-        <v>92</v>
-      </c>
-      <c r="G4" s="8">
-        <v>107</v>
-      </c>
-      <c r="H4" s="8">
-        <v>117</v>
-      </c>
-      <c r="I4" s="8">
-        <v>134</v>
-      </c>
-      <c r="J4" s="8">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8">
-        <v>145</v>
-      </c>
-      <c r="L4" s="8">
-        <v>151</v>
-      </c>
-      <c r="M4" s="8">
-        <v>160</v>
-      </c>
-      <c r="N4" s="8">
-        <v>180</v>
-      </c>
-      <c r="O4" s="8">
-        <v>182</v>
-      </c>
-      <c r="P4" s="8">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>193</v>
-      </c>
-      <c r="R4" s="8">
-        <v>207</v>
-      </c>
-      <c r="S4" s="8">
-        <v>215</v>
-      </c>
-      <c r="T4" s="8">
-        <v>218</v>
-      </c>
-      <c r="U4" s="8">
-        <v>225</v>
-      </c>
-      <c r="V4" s="8">
-        <v>228</v>
-      </c>
-      <c r="W4" s="8">
-        <v>234</v>
-      </c>
-      <c r="X4" s="8">
-        <v>252</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>251</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>256</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>261</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="AW83" s="12"/>
+      <c r="AX83" s="12"/>
+      <c r="AY83" s="12"/>
+      <c r="AZ83" s="12"/>
+      <c r="BA83" s="12"/>
+      <c r="BB83" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:54">
+      <c r="A84" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="8">
-        <v>79</v>
-      </c>
-      <c r="F5" s="8">
-        <v>83</v>
-      </c>
-      <c r="G5" s="8">
-        <v>89</v>
-      </c>
-      <c r="H5" s="8">
-        <v>95</v>
-      </c>
-      <c r="I5" s="8">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8">
-        <v>113</v>
-      </c>
-      <c r="K5" s="8">
-        <v>128</v>
-      </c>
-      <c r="L5" s="8">
-        <v>139</v>
-      </c>
-      <c r="M5" s="8">
-        <v>143</v>
-      </c>
-      <c r="N5" s="8">
-        <v>146</v>
-      </c>
-      <c r="O5" s="8">
-        <v>149</v>
-      </c>
-      <c r="P5" s="8">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>169</v>
-      </c>
-      <c r="R5" s="8">
-        <v>176</v>
-      </c>
-      <c r="S5" s="8">
-        <v>205</v>
-      </c>
-      <c r="T5" s="8">
-        <v>211</v>
-      </c>
-      <c r="U5" s="8">
-        <v>226</v>
-      </c>
-      <c r="V5" s="8">
-        <v>223</v>
-      </c>
-      <c r="W5" s="8">
-        <v>215</v>
-      </c>
-      <c r="X5" s="8">
-        <v>227</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>252</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>258</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>268</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>85</v>
-      </c>
-      <c r="C6" s="8">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8">
-        <v>108</v>
-      </c>
-      <c r="E6" s="8">
-        <v>135</v>
-      </c>
-      <c r="F6" s="8">
-        <v>145</v>
-      </c>
-      <c r="G6" s="8">
-        <v>168</v>
-      </c>
-      <c r="H6" s="8">
-        <v>185</v>
-      </c>
-      <c r="I6" s="8">
-        <v>223</v>
-      </c>
-      <c r="J6" s="8">
-        <v>244</v>
-      </c>
-      <c r="K6" s="8">
-        <v>267</v>
-      </c>
-      <c r="L6" s="8">
-        <v>288</v>
-      </c>
-      <c r="M6" s="8">
-        <v>303</v>
-      </c>
-      <c r="N6" s="8">
-        <v>312</v>
-      </c>
-      <c r="O6" s="8">
-        <v>326</v>
-      </c>
-      <c r="P6" s="8">
-        <v>361</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>389</v>
-      </c>
-      <c r="R6" s="8">
-        <v>423</v>
-      </c>
-      <c r="S6" s="8">
-        <v>459</v>
-      </c>
-      <c r="T6" s="8">
-        <v>477</v>
-      </c>
-      <c r="U6" s="8">
-        <v>499</v>
-      </c>
-      <c r="V6" s="8">
-        <v>515</v>
-      </c>
-      <c r="W6" s="8">
-        <v>543</v>
-      </c>
-      <c r="X6" s="8">
-        <v>562</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>595</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>636</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>663</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>76</v>
-      </c>
-      <c r="C7" s="8">
-        <v>83</v>
-      </c>
-      <c r="D7" s="8">
-        <v>98</v>
-      </c>
-      <c r="E7" s="8">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8">
-        <v>126</v>
-      </c>
-      <c r="G7" s="8">
-        <v>136</v>
-      </c>
-      <c r="H7" s="8">
-        <v>150</v>
-      </c>
-      <c r="I7" s="8">
-        <v>179</v>
-      </c>
-      <c r="J7" s="8">
-        <v>198</v>
-      </c>
-      <c r="K7" s="8">
-        <v>210</v>
-      </c>
-      <c r="L7" s="8">
-        <v>231</v>
-      </c>
-      <c r="M7" s="8">
-        <v>250</v>
-      </c>
-      <c r="N7" s="8">
-        <v>257</v>
-      </c>
-      <c r="O7" s="8">
-        <v>262</v>
-      </c>
-      <c r="P7" s="8">
-        <v>278</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>311</v>
-      </c>
-      <c r="R7" s="8">
-        <v>328</v>
-      </c>
-      <c r="S7" s="8">
-        <v>350</v>
-      </c>
-      <c r="T7" s="8">
-        <v>363</v>
-      </c>
-      <c r="U7" s="8">
-        <v>383</v>
-      </c>
-      <c r="V7" s="8">
-        <v>404</v>
-      </c>
-      <c r="W7" s="8">
-        <v>429</v>
-      </c>
-      <c r="X7" s="8">
-        <v>456</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>488</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>513</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>552</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8">
-        <v>112</v>
-      </c>
-      <c r="D8" s="8">
-        <v>130</v>
-      </c>
-      <c r="E8" s="8">
-        <v>154</v>
-      </c>
-      <c r="F8" s="8">
-        <v>156</v>
-      </c>
-      <c r="G8" s="8">
-        <v>187</v>
-      </c>
-      <c r="H8" s="8">
-        <v>202</v>
-      </c>
-      <c r="I8" s="8">
-        <v>235</v>
-      </c>
-      <c r="J8" s="8">
-        <v>241</v>
-      </c>
-      <c r="K8" s="8">
-        <v>255</v>
-      </c>
-      <c r="L8" s="8">
-        <v>266</v>
-      </c>
-      <c r="M8" s="8">
-        <v>281</v>
-      </c>
-      <c r="N8" s="8">
-        <v>288</v>
-      </c>
-      <c r="O8" s="8">
-        <v>290</v>
-      </c>
-      <c r="P8" s="8">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>313</v>
-      </c>
-      <c r="R8" s="8">
-        <v>337</v>
-      </c>
-      <c r="S8" s="8">
-        <v>353</v>
-      </c>
-      <c r="T8" s="8">
-        <v>355</v>
-      </c>
-      <c r="U8" s="8">
-        <v>366</v>
-      </c>
-      <c r="V8" s="8">
-        <v>374</v>
-      </c>
-      <c r="W8" s="8">
-        <v>387</v>
-      </c>
-      <c r="X8" s="8">
-        <v>406</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>409</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>414</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>419</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8">
-        <v>66</v>
-      </c>
-      <c r="D9" s="8">
-        <v>83</v>
-      </c>
-      <c r="E9" s="8">
-        <v>104</v>
-      </c>
-      <c r="F9" s="8">
-        <v>117</v>
-      </c>
-      <c r="G9" s="8">
-        <v>138</v>
-      </c>
-      <c r="H9" s="8">
-        <v>154</v>
-      </c>
-      <c r="I9" s="8">
-        <v>186</v>
-      </c>
-      <c r="J9" s="8">
-        <v>219</v>
-      </c>
-      <c r="K9" s="8">
-        <v>238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>266</v>
-      </c>
-      <c r="M9" s="8">
-        <v>284</v>
-      </c>
-      <c r="N9" s="8">
-        <v>292</v>
-      </c>
-      <c r="O9" s="8">
-        <v>296</v>
-      </c>
-      <c r="P9" s="8">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>361</v>
-      </c>
-      <c r="R9" s="8">
-        <v>382</v>
-      </c>
-      <c r="S9" s="8">
-        <v>402</v>
-      </c>
-      <c r="T9" s="8">
-        <v>440</v>
-      </c>
-      <c r="U9" s="8">
-        <v>454</v>
-      </c>
-      <c r="V9" s="8">
-        <v>482</v>
-      </c>
-      <c r="W9" s="8">
-        <v>492</v>
-      </c>
-      <c r="X9" s="8">
-        <v>508</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>522</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>543</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>570</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8">
-        <v>101</v>
-      </c>
-      <c r="G10" s="8">
-        <v>108</v>
-      </c>
-      <c r="H10" s="8">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8">
-        <v>168</v>
-      </c>
-      <c r="J10" s="8">
-        <v>178</v>
-      </c>
-      <c r="K10" s="8">
-        <v>192</v>
-      </c>
-      <c r="L10" s="8">
-        <v>202</v>
-      </c>
-      <c r="M10" s="8">
-        <v>218</v>
-      </c>
-      <c r="N10" s="8">
-        <v>228</v>
-      </c>
-      <c r="O10" s="8">
-        <v>237</v>
-      </c>
-      <c r="P10" s="8">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>293</v>
-      </c>
-      <c r="R10" s="8">
-        <v>316</v>
-      </c>
-      <c r="S10" s="8">
-        <v>339</v>
-      </c>
-      <c r="T10" s="8">
-        <v>354</v>
-      </c>
-      <c r="U10" s="8">
-        <v>376</v>
-      </c>
-      <c r="V10" s="8">
-        <v>445</v>
-      </c>
-      <c r="W10" s="8">
-        <v>458</v>
-      </c>
-      <c r="X10" s="8">
-        <v>477</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>498</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>518</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>530</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8">
-        <v>71</v>
-      </c>
-      <c r="G11" s="8">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8">
-        <v>45</v>
-      </c>
-      <c r="I11" s="8">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8">
-        <v>42</v>
-      </c>
-      <c r="L11" s="8">
-        <v>33</v>
-      </c>
-      <c r="M11" s="8">
-        <v>18</v>
-      </c>
-      <c r="N11" s="8">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
-        <v>86</v>
-      </c>
-      <c r="P11" s="8">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>57</v>
-      </c>
-      <c r="R11" s="8">
-        <v>25</v>
-      </c>
-      <c r="S11" s="8">
-        <v>34</v>
-      </c>
-      <c r="T11" s="8">
-        <v>45</v>
-      </c>
-      <c r="U11" s="8">
-        <v>54</v>
-      </c>
-      <c r="V11" s="8">
-        <v>72</v>
-      </c>
-      <c r="W11" s="8">
-        <v>89</v>
-      </c>
-      <c r="X11" s="8">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>110</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>134</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>134</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>150</v>
-      </c>
+      <c r="B84" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AV84" s="12"/>
+      <c r="AW84" s="12"/>
+      <c r="AX84" s="12"/>
+      <c r="AY84" s="12"/>
+      <c r="AZ84" s="12"/>
+      <c r="BA84" s="12"/>
+      <c r="BB84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:54">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="12"/>
+      <c r="AW85" s="12"/>
+      <c r="AX85" s="12"/>
+      <c r="AY85" s="12"/>
+      <c r="AZ85" s="12"/>
+      <c r="BA85" s="12"/>
+      <c r="BB85" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9869,25 +10359,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:X13"/>
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5">
         <v>43926</v>
@@ -9955,13 +10445,15 @@
       <c r="X1" s="5">
         <v>43947</v>
       </c>
-      <c r="Y1" s="4"/>
+      <c r="Y1" s="5">
+        <v>43948</v>
+      </c>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -10032,16 +10524,18 @@
       <c r="X2" s="8">
         <v>517</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8">
         <v>135</v>
@@ -10109,16 +10603,18 @@
       <c r="X3" s="8">
         <v>670</v>
       </c>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8">
         <v>303</v>
@@ -10186,16 +10682,18 @@
       <c r="X4" s="8">
         <v>1919</v>
       </c>
-      <c r="Y4" s="8"/>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8">
         <v>12</v>
@@ -10263,16 +10761,18 @@
       <c r="X5" s="8">
         <v>62</v>
       </c>
-      <c r="Y5" s="8"/>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -10340,16 +10840,18 @@
       <c r="X6" s="8">
         <v>11</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>11</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -10413,16 +10915,18 @@
       <c r="X7" s="8">
         <v>8</v>
       </c>
-      <c r="Y7" s="8"/>
+      <c r="Y7" s="8">
+        <v>8</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8">
         <v>78</v>
@@ -10490,16 +10994,18 @@
       <c r="X8" s="8">
         <v>680</v>
       </c>
-      <c r="Y8" s="8"/>
+      <c r="Y8" s="8">
+        <v>717</v>
+      </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
@@ -10567,13 +11073,15 @@
       <c r="X9" s="8">
         <v>25</v>
       </c>
-      <c r="Y9" s="8"/>
+      <c r="Y9" s="8">
+        <v>25</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -10644,16 +11152,18 @@
       <c r="X10" s="8">
         <v>802</v>
       </c>
-      <c r="Y10" s="8"/>
+      <c r="Y10" s="8">
+        <v>806</v>
+      </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8">
         <v>98</v>
@@ -10721,16 +11231,18 @@
       <c r="X11" s="8">
         <v>730</v>
       </c>
-      <c r="Y11" s="8"/>
+      <c r="Y11" s="8">
+        <v>757</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8">
         <v>517</v>
@@ -10798,16 +11310,18 @@
       <c r="X12" s="8">
         <v>2345</v>
       </c>
-      <c r="Y12" s="8"/>
+      <c r="Y12" s="8">
+        <v>2416</v>
+      </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -10875,11 +11389,13 @@
       <c r="X13" s="8">
         <v>15</v>
       </c>
-      <c r="Y13" s="8"/>
+      <c r="Y13" s="8">
+        <v>15</v>
+      </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -10908,7 +11424,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -10937,7 +11453,7 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -10966,13 +11482,13 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
   </sheetData>
@@ -10984,16 +11500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -11061,14 +11577,16 @@
       <c r="W1" s="5">
         <v>43947</v>
       </c>
-      <c r="X1" s="5"/>
+      <c r="X1" s="5">
+        <v>43948</v>
+      </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -11097,9 +11615,9 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -11167,14 +11685,16 @@
       <c r="W3" s="8">
         <v>4</v>
       </c>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8">
+        <v>4</v>
+      </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -11242,14 +11762,16 @@
       <c r="W4" s="8">
         <v>147</v>
       </c>
-      <c r="X4" s="8"/>
+      <c r="X4" s="8">
+        <v>150</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -11317,14 +11839,16 @@
       <c r="W5" s="8">
         <v>11</v>
       </c>
-      <c r="X5" s="8"/>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -11392,14 +11916,16 @@
       <c r="W6" s="8">
         <v>21</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="8">
+        <v>22</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -11465,12 +11991,14 @@
       <c r="W7" s="8">
         <v>2</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8">
+        <v>2</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -11499,7 +12027,7 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -11528,7 +12056,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -11557,7 +12085,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -11586,34 +12114,34 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
@@ -11626,17 +12154,17 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5">
         <v>43940</v>
@@ -11662,46 +12190,50 @@
       <c r="I1" s="5">
         <v>43947</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5">
+        <v>43948</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="19">
         <f>SUM(B3:B12)</f>
         <v>105</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>112</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="19">
         <v>127</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="19">
         <v>139</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="19">
         <v>153</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="19">
         <v>165</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="19">
         <v>178</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="19">
         <v>185</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="19">
+        <v>190</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -11729,12 +12261,14 @@
       <c r="I3" s="8">
         <v>11</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <v>12</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -11762,12 +12296,14 @@
       <c r="I4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>8</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -11795,12 +12331,14 @@
       <c r="I5" s="8">
         <v>13</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <v>14</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -11828,12 +12366,14 @@
       <c r="I6" s="8">
         <v>23</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>23</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -11861,12 +12401,14 @@
       <c r="I7" s="8">
         <v>27</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <v>28</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -11894,12 +12436,14 @@
       <c r="I8" s="8">
         <v>28</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>28</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -11927,12 +12471,14 @@
       <c r="I9" s="8">
         <v>25</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>25</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -11960,14 +12506,16 @@
       <c r="I10" s="8">
         <v>42</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8">
+        <v>43</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B11" s="8">
         <v>7</v>
@@ -11993,12 +12541,14 @@
       <c r="I11" s="8">
         <v>9</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -12026,36 +12576,38 @@
       <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3260BD9-F979-974A-9B52-BC9500D54973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -879,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>4106</v>
+        <v>4323</v>
       </c>
       <c r="C2" s="13">
-        <v>1992</v>
+        <v>2089</v>
       </c>
       <c r="D2" s="13">
-        <v>2107</v>
+        <v>2227</v>
       </c>
       <c r="E2" s="14">
         <v>7</v>
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="C5" s="8">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D5" s="8">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -947,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>767</v>
+        <v>817</v>
       </c>
       <c r="C6" s="8">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D6" s="8">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -964,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="C7" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="D7" s="8">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="C8" s="8">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D8" s="8">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C9" s="8">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D9" s="8">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1015,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C10" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -1032,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C11" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D11" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AD11"/>
+    <sheetView showGridLines="0" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1067,7 +1067,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1098,7 +1098,7 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1189,8 +1189,11 @@
       <c r="AD2" s="21">
         <v>43949</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" s="21">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1281,8 +1284,11 @@
       <c r="AD3">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1373,8 +1379,11 @@
       <c r="AD4">
         <v>284</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1465,8 +1474,11 @@
       <c r="AD5">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1557,8 +1569,11 @@
       <c r="AD6">
         <v>727</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1649,8 +1664,11 @@
       <c r="AD7">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1741,8 +1759,11 @@
       <c r="AD8">
         <v>433</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1833,8 +1854,11 @@
       <c r="AD9">
         <v>630</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1925,8 +1949,11 @@
       <c r="AD10">
         <v>597</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2016,6 +2043,9 @@
       </c>
       <c r="AD11">
         <v>40</v>
+      </c>
+      <c r="AE11">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2028,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2120,7 +2150,9 @@
       <c r="Z1" s="5">
         <v>43949</v>
       </c>
-      <c r="AA1" s="4"/>
+      <c r="AA1" s="5">
+        <v>43950</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="10" t="s">
@@ -2201,7 +2233,9 @@
       <c r="Z2" s="8">
         <v>487</v>
       </c>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
@@ -2282,7 +2316,9 @@
       <c r="Z3" s="8">
         <v>703</v>
       </c>
-      <c r="AA3" s="8"/>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
@@ -2363,7 +2399,9 @@
       <c r="Z4" s="8">
         <v>2037</v>
       </c>
-      <c r="AA4" s="8"/>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
@@ -2444,7 +2482,9 @@
       <c r="Z5" s="8">
         <v>64</v>
       </c>
-      <c r="AA5" s="8"/>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
@@ -2525,7 +2565,9 @@
       <c r="Z6" s="8">
         <v>11</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
@@ -2602,7 +2644,9 @@
       <c r="Z7" s="8">
         <v>8</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="10" t="s">
@@ -2683,7 +2727,9 @@
       <c r="Z8" s="8">
         <v>770</v>
       </c>
-      <c r="AA8" s="8"/>
+      <c r="AA8" s="8">
+        <v>794</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="10" t="s">
@@ -2764,7 +2810,9 @@
       <c r="Z9" s="8">
         <v>26</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="8">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="10" t="s">
@@ -2845,7 +2893,9 @@
       <c r="Z10" s="8">
         <v>803</v>
       </c>
-      <c r="AA10" s="8"/>
+      <c r="AA10" s="8">
+        <v>838</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="10" t="s">
@@ -2926,7 +2976,9 @@
       <c r="Z11" s="8">
         <v>797</v>
       </c>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="8">
+        <v>855</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="10" t="s">
@@ -3007,7 +3059,9 @@
       <c r="Z12" s="8">
         <v>2490</v>
       </c>
-      <c r="AA12" s="8"/>
+      <c r="AA12" s="8">
+        <v>2613</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="10" t="s">
@@ -3088,7 +3142,9 @@
       <c r="Z13" s="8">
         <v>16</v>
       </c>
-      <c r="AA13" s="8"/>
+      <c r="AA13" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="10"/>
@@ -3196,7 +3252,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y7"/>
+      <selection activeCell="Z3" sqref="Z3:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3388,7 +3444,9 @@
       <c r="Y3" s="8">
         <v>4</v>
       </c>
-      <c r="Z3" s="8"/>
+      <c r="Z3" s="8">
+        <v>7</v>
+      </c>
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27">
@@ -3467,7 +3525,9 @@
       <c r="Y4" s="8">
         <v>163</v>
       </c>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="8">
+        <v>177</v>
+      </c>
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27">
@@ -3546,7 +3606,9 @@
       <c r="Y5" s="8">
         <v>14</v>
       </c>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="8">
+        <v>16</v>
+      </c>
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27">
@@ -3625,7 +3687,9 @@
       <c r="Y6" s="8">
         <v>22</v>
       </c>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>25</v>
+      </c>
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27">
@@ -3702,7 +3766,9 @@
       <c r="Y7" s="8">
         <v>2</v>
       </c>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="8">
+        <v>2</v>
+      </c>
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27">
@@ -3861,7 +3927,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K12"/>
+      <selection activeCell="L2" sqref="L2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3903,7 +3969,9 @@
       <c r="K1" s="5">
         <v>43949</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="5">
+        <v>43950</v>
+      </c>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
@@ -3941,7 +4009,9 @@
       <c r="K2" s="19">
         <v>205</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="19">
+        <v>224</v>
+      </c>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13">
@@ -3978,7 +4048,9 @@
       <c r="K3" s="8">
         <v>17</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8">
+        <v>21</v>
+      </c>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13">
@@ -4015,7 +4087,9 @@
       <c r="K4" s="8">
         <v>9</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>10</v>
+      </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
@@ -4052,7 +4126,9 @@
       <c r="K5" s="8">
         <v>14</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8">
+        <v>14</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
@@ -4089,7 +4165,9 @@
       <c r="K6" s="8">
         <v>26</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13">
@@ -4126,7 +4204,9 @@
       <c r="K7" s="8">
         <v>30</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>34</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
@@ -4163,7 +4243,9 @@
       <c r="K8" s="8">
         <v>28</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>28</v>
+      </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
@@ -4200,7 +4282,9 @@
       <c r="K9" s="8">
         <v>27</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>29</v>
+      </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13">
@@ -4237,7 +4321,9 @@
       <c r="K10" s="8">
         <v>45</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>49</v>
+      </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13">
@@ -4274,7 +4360,9 @@
       <c r="K11" s="8">
         <v>9</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>9</v>
+      </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13">
@@ -4311,7 +4399,9 @@
       <c r="K12" s="8">
         <v>0</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13">
@@ -4348,11 +4438,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC86"/>
+  <dimension ref="A1:BD86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ84" sqref="AZ84"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BB62" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD67" sqref="BD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4364,7 +4454,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:56">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4526,8 +4616,11 @@
       <c r="BC1" s="20">
         <v>43949</v>
       </c>
-    </row>
-    <row r="2" spans="1:55">
+      <c r="BD1" s="20">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4585,7 +4678,7 @@
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:56">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -4739,8 +4832,11 @@
       <c r="BC3">
         <v>19229</v>
       </c>
-    </row>
-    <row r="4" spans="1:55">
+      <c r="BD3">
+        <v>20079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -4906,8 +5002,11 @@
       <c r="BC4">
         <v>4106</v>
       </c>
-    </row>
-    <row r="5" spans="1:55">
+      <c r="BD4">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5061,8 +5160,11 @@
       <c r="BC5">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:55">
+      <c r="BD5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5196,8 +5298,11 @@
       <c r="BC6">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:55">
+      <c r="BD6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5253,7 +5358,7 @@
       <c r="BA7" s="12"/>
       <c r="BB7" s="12"/>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:56">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -5315,8 +5420,11 @@
       <c r="BC8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:55">
+      <c r="BD8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5446,8 +5554,11 @@
       <c r="BC9">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:55">
+      <c r="BD9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -5577,8 +5688,11 @@
       <c r="BC10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:55">
+      <c r="BD10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -5708,8 +5822,11 @@
       <c r="BC11">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:55">
+      <c r="BD11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -5839,8 +5956,11 @@
       <c r="BC12">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:55">
+      <c r="BD12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -5896,7 +6016,7 @@
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:56">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -5954,7 +6074,7 @@
       <c r="BA14" s="12"/>
       <c r="BB14" s="12"/>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:56">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -6014,7 +6134,7 @@
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -6146,8 +6266,11 @@
       <c r="BC16">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:55">
+      <c r="BD16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -6243,8 +6366,11 @@
       <c r="BC17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:55">
+      <c r="BD17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -6340,8 +6466,11 @@
       <c r="BC18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:55">
+      <c r="BD18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -6467,8 +6596,11 @@
       <c r="BC19">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:55">
+      <c r="BD19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -6594,8 +6726,11 @@
       <c r="BC20">
         <v>234</v>
       </c>
-    </row>
-    <row r="21" spans="1:55">
+      <c r="BD20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -6721,8 +6856,11 @@
       <c r="BC21">
         <v>687</v>
       </c>
-    </row>
-    <row r="22" spans="1:55">
+      <c r="BD21">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -6778,7 +6916,7 @@
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:56">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -6836,7 +6974,7 @@
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:56">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -6968,8 +7106,11 @@
       <c r="BC24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:55">
+      <c r="BD24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -7065,8 +7206,11 @@
       <c r="BC25">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:55">
+      <c r="BD25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -7162,8 +7306,11 @@
       <c r="BC26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:55">
+      <c r="BD26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -7289,8 +7436,11 @@
       <c r="BC27">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:55">
+      <c r="BD27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -7416,8 +7566,11 @@
       <c r="BC28">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:55">
+      <c r="BD28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -7543,8 +7696,11 @@
       <c r="BC29">
         <v>776</v>
       </c>
-    </row>
-    <row r="30" spans="1:55">
+      <c r="BD29">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -7600,7 +7756,7 @@
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:56">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>58</v>
@@ -7658,7 +7814,7 @@
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:56">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -7785,7 +7941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:56">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -7880,7 +8036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:56">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -7975,7 +8131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:56">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -8102,7 +8258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:56">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -8227,7 +8383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:56">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -8354,7 +8510,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:56">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -8437,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:56">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -8493,7 +8649,7 @@
       <c r="BA39" s="12"/>
       <c r="BB39" s="12"/>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:56">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
@@ -8551,7 +8707,7 @@
       <c r="BA40" s="12"/>
       <c r="BB40" s="12"/>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:56">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -8679,8 +8835,11 @@
       <c r="BC41">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:55">
+      <c r="BD41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -8776,8 +8935,11 @@
       <c r="BC42">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:55">
+      <c r="BD42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -8873,8 +9035,11 @@
       <c r="BC43">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:55">
+      <c r="BD43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -9000,8 +9165,11 @@
       <c r="BC44">
         <v>810</v>
       </c>
-    </row>
-    <row r="45" spans="1:55">
+      <c r="BD44">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -9097,8 +9265,11 @@
       <c r="BC45">
         <v>855</v>
       </c>
-    </row>
-    <row r="46" spans="1:55">
+      <c r="BD45">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -9192,8 +9363,11 @@
       <c r="BC46">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:55">
+      <c r="BD46">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56">
       <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
@@ -9283,8 +9457,11 @@
       <c r="BC47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:55">
+      <c r="BD47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -9340,7 +9517,7 @@
       <c r="BA48" s="12"/>
       <c r="BB48" s="12"/>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="1:56">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
@@ -9398,7 +9575,7 @@
       <c r="BA49" s="12"/>
       <c r="BB49" s="12"/>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="1:56">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -9516,8 +9693,11 @@
       <c r="BC50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:55">
+      <c r="BD50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -9611,8 +9791,11 @@
       <c r="BC51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:55">
+      <c r="BD51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -9706,8 +9889,11 @@
       <c r="BC52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:55">
+      <c r="BD52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -9825,8 +10011,11 @@
       <c r="BC53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:55">
+      <c r="BD53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -9944,8 +10133,11 @@
       <c r="BC54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:55">
+      <c r="BD54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -10063,8 +10255,11 @@
       <c r="BC55">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:55">
+      <c r="BD55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -10154,8 +10349,11 @@
       <c r="BC56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:55">
+      <c r="BD56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -10211,7 +10409,7 @@
       <c r="BA57" s="12"/>
       <c r="BB57" s="12"/>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="1:56">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -10329,8 +10527,11 @@
       <c r="BC58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:55">
+      <c r="BD58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -10424,8 +10625,11 @@
       <c r="BC59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:55">
+      <c r="BD59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56">
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
@@ -10519,8 +10723,11 @@
       <c r="BC60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:55">
+      <c r="BD60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
@@ -10638,8 +10845,11 @@
       <c r="BC61">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:55">
+      <c r="BD61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
@@ -10757,8 +10967,11 @@
       <c r="BC62">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:55">
+      <c r="BD62">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56">
       <c r="A63" s="6" t="s">
         <v>74</v>
       </c>
@@ -10874,8 +11087,11 @@
       <c r="BC63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:55">
+      <c r="BD63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56">
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
@@ -10969,8 +11185,11 @@
       <c r="BC64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:55">
+      <c r="BD64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:56">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -11026,7 +11245,7 @@
       <c r="BA65" s="12"/>
       <c r="BB65" s="12"/>
     </row>
-    <row r="66" spans="1:55">
+    <row r="66" spans="1:56">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>81</v>
@@ -11084,7 +11303,7 @@
       <c r="BA66" s="12"/>
       <c r="BB66" s="12"/>
     </row>
-    <row r="67" spans="1:55">
+    <row r="67" spans="1:56">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -11202,8 +11421,11 @@
       <c r="BC67">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:55">
+      <c r="BD67">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56">
       <c r="A68" s="6" t="s">
         <v>82</v>
       </c>
@@ -11321,8 +11543,11 @@
       <c r="BC68">
         <v>256</v>
       </c>
-    </row>
-    <row r="69" spans="1:55">
+      <c r="BD68">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56">
       <c r="A69" s="6" t="s">
         <v>82</v>
       </c>
@@ -11440,8 +11665,11 @@
       <c r="BC69">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:55">
+      <c r="BD69">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56">
       <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
@@ -11531,8 +11759,11 @@
       <c r="BC70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:55">
+      <c r="BD70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:56">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -11588,7 +11819,7 @@
       <c r="BA71" s="12"/>
       <c r="BB71" s="12"/>
     </row>
-    <row r="72" spans="1:55">
+    <row r="72" spans="1:56">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -11706,8 +11937,11 @@
       <c r="BC72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:55">
+      <c r="BD72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -11825,8 +12059,11 @@
       <c r="BC73">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:55">
+      <c r="BD73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:56">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -11944,8 +12181,11 @@
       <c r="BC74">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:55">
+      <c r="BD74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:56">
       <c r="A75" s="6" t="s">
         <v>87</v>
       </c>
@@ -12055,8 +12295,11 @@
       <c r="BC75">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:55">
+      <c r="BD75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -12112,7 +12355,7 @@
       <c r="BA76" s="12"/>
       <c r="BB76" s="12"/>
     </row>
-    <row r="77" spans="1:55">
+    <row r="77" spans="1:56">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
@@ -12230,8 +12473,11 @@
       <c r="BC77">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:55">
+      <c r="BD77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:56">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
@@ -12349,8 +12595,11 @@
       <c r="BC78">
         <v>43</v>
       </c>
-    </row>
-    <row r="79" spans="1:55">
+      <c r="BD78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:56">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -12446,8 +12695,11 @@
       <c r="BC79">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:55">
+      <c r="BD79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:56">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
@@ -12539,8 +12791,11 @@
       <c r="BC80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:55">
+      <c r="BD80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:56">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
@@ -12656,8 +12911,11 @@
       <c r="BC81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:55">
+      <c r="BD81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:56">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -12713,7 +12971,7 @@
       <c r="BA82" s="12"/>
       <c r="BB82" s="12"/>
     </row>
-    <row r="83" spans="1:55">
+    <row r="83" spans="1:56">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -12777,8 +13035,11 @@
       <c r="BC83">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" spans="1:55">
+      <c r="BD83">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:56">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -12842,8 +13103,11 @@
       <c r="BC84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:55">
+      <c r="BD84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:56">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -12907,8 +13171,11 @@
       <c r="BC85">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:55">
+      <c r="BD85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:56">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3260BD9-F979-974A-9B52-BC9500D54973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
     <sheet name="Total Cases by Ward" sheetId="2" r:id="rId3"/>
-    <sheet name="Total Cases by Race" sheetId="3" r:id="rId4"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId5"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
     <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
@@ -92,22 +92,31 @@
     <t>Ward</t>
   </si>
   <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic/Latinx</t>
+  </si>
+  <si>
+    <t>Non-Hispanic White</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Race/Ethnicity Category</t>
   </si>
   <si>
     <t>Race/Ethnicity Values</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
   </si>
   <si>
     <t>American Indian</t>
@@ -129,15 +138,6 @@
   </si>
   <si>
     <t>NOT Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Hispanic/Latinx</t>
-  </si>
-  <si>
-    <t>Non-Hispanic White</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Homeless</t>
@@ -879,16 +879,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>4323</v>
+        <v>4658</v>
       </c>
       <c r="C2" s="13">
-        <v>2089</v>
+        <v>2266</v>
       </c>
       <c r="D2" s="13">
-        <v>2227</v>
+        <v>2384</v>
       </c>
       <c r="E2" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -896,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>668</v>
+        <v>719</v>
       </c>
       <c r="C5" s="8">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="D5" s="8">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
@@ -947,16 +947,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>817</v>
+        <v>891</v>
       </c>
       <c r="C6" s="8">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="D6" s="8">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="E6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -964,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>688</v>
+        <v>749</v>
       </c>
       <c r="C7" s="8">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="D7" s="8">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="C8" s="8">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="D8" s="8">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="C9" s="8">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="D9" s="8">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1015,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C10" s="8">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D10" s="8">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -1032,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C11" s="8">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D11" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AE11"/>
+      <selection activeCell="AF3" sqref="AF3:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1067,7 +1067,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1098,7 +1098,7 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1">
+    <row r="2" spans="1:32" s="1" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1192,8 +1192,11 @@
       <c r="AE2" s="21">
         <v>43950</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" s="21">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1287,8 +1290,11 @@
       <c r="AE3">
         <v>543</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1382,8 +1388,11 @@
       <c r="AE4">
         <v>291</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1477,8 +1486,11 @@
       <c r="AE5">
         <v>282</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1572,8 +1584,11 @@
       <c r="AE6">
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1667,8 +1682,11 @@
       <c r="AE7">
         <v>646</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1762,8 +1780,11 @@
       <c r="AE8">
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1857,8 +1878,11 @@
       <c r="AE9">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1952,8 +1976,11 @@
       <c r="AE10">
         <v>632</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2046,6 +2073,9 @@
       </c>
       <c r="AE11">
         <v>46</v>
+      </c>
+      <c r="AF11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2055,1204 +2085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10:AA13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43950</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8">
-        <v>490</v>
-      </c>
-      <c r="V2" s="8">
-        <v>494</v>
-      </c>
-      <c r="W2" s="8">
-        <v>527</v>
-      </c>
-      <c r="X2" s="8">
-        <v>517</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>503</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8">
-        <v>603</v>
-      </c>
-      <c r="U3" s="8">
-        <v>635</v>
-      </c>
-      <c r="V3" s="8">
-        <v>653</v>
-      </c>
-      <c r="W3" s="8">
-        <v>665</v>
-      </c>
-      <c r="X3" s="8">
-        <v>670</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>690</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>703</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1670</v>
-      </c>
-      <c r="U4" s="8">
-        <v>1762</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1846</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1891</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1919</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1978</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>2037</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>63</v>
-      </c>
-      <c r="W5" s="8">
-        <v>63</v>
-      </c>
-      <c r="X5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
-        <v>12</v>
-      </c>
-      <c r="S6" s="8">
-        <v>11</v>
-      </c>
-      <c r="T6" s="8">
-        <v>12</v>
-      </c>
-      <c r="U6" s="8">
-        <v>12</v>
-      </c>
-      <c r="V6" s="8">
-        <v>12</v>
-      </c>
-      <c r="W6" s="8">
-        <v>11</v>
-      </c>
-      <c r="X6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>4</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6</v>
-      </c>
-      <c r="R7" s="8">
-        <v>6</v>
-      </c>
-      <c r="S7" s="8">
-        <v>7</v>
-      </c>
-      <c r="T7" s="8">
-        <v>7</v>
-      </c>
-      <c r="U7" s="8">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8">
-        <v>7</v>
-      </c>
-      <c r="W7" s="8">
-        <v>8</v>
-      </c>
-      <c r="X7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80</v>
-      </c>
-      <c r="E8" s="8">
-        <v>123</v>
-      </c>
-      <c r="F8" s="8">
-        <v>153</v>
-      </c>
-      <c r="G8" s="8">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8">
-        <v>226</v>
-      </c>
-      <c r="I8" s="8">
-        <v>242</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256</v>
-      </c>
-      <c r="K8" s="8">
-        <v>275</v>
-      </c>
-      <c r="L8" s="8">
-        <v>300</v>
-      </c>
-      <c r="M8" s="8">
-        <v>345</v>
-      </c>
-      <c r="N8" s="8">
-        <v>386</v>
-      </c>
-      <c r="O8" s="8">
-        <v>431</v>
-      </c>
-      <c r="P8" s="8">
-        <v>390</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>415</v>
-      </c>
-      <c r="R8" s="8">
-        <v>450</v>
-      </c>
-      <c r="S8" s="8">
-        <v>481</v>
-      </c>
-      <c r="T8" s="8">
-        <v>508</v>
-      </c>
-      <c r="U8" s="8">
-        <v>538</v>
-      </c>
-      <c r="V8" s="8">
-        <v>599</v>
-      </c>
-      <c r="W8" s="8">
-        <v>652</v>
-      </c>
-      <c r="X8" s="8">
-        <v>680</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>717</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>770</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8">
-        <v>26</v>
-      </c>
-      <c r="L9" s="8">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8">
-        <v>27</v>
-      </c>
-      <c r="N9" s="8">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>27</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>25</v>
-      </c>
-      <c r="R9" s="8">
-        <v>24</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25</v>
-      </c>
-      <c r="T9" s="8">
-        <v>24</v>
-      </c>
-      <c r="U9" s="8">
-        <v>24</v>
-      </c>
-      <c r="V9" s="8">
-        <v>25</v>
-      </c>
-      <c r="W9" s="8">
-        <v>24</v>
-      </c>
-      <c r="X9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>341</v>
-      </c>
-      <c r="D10" s="8">
-        <v>520</v>
-      </c>
-      <c r="E10" s="8">
-        <v>585</v>
-      </c>
-      <c r="F10" s="8">
-        <v>550</v>
-      </c>
-      <c r="G10" s="8">
-        <v>564</v>
-      </c>
-      <c r="H10" s="8">
-        <v>443</v>
-      </c>
-      <c r="I10" s="8">
-        <v>483</v>
-      </c>
-      <c r="J10" s="8">
-        <v>496</v>
-      </c>
-      <c r="K10" s="8">
-        <v>501</v>
-      </c>
-      <c r="L10" s="8">
-        <v>527</v>
-      </c>
-      <c r="M10" s="8">
-        <v>539</v>
-      </c>
-      <c r="N10" s="8">
-        <v>544</v>
-      </c>
-      <c r="O10" s="8">
-        <v>607</v>
-      </c>
-      <c r="P10" s="8">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>563</v>
-      </c>
-      <c r="R10" s="8">
-        <v>615</v>
-      </c>
-      <c r="S10" s="8">
-        <v>601</v>
-      </c>
-      <c r="T10" s="8">
-        <v>663</v>
-      </c>
-      <c r="U10" s="8">
-        <v>705</v>
-      </c>
-      <c r="V10" s="8">
-        <v>744</v>
-      </c>
-      <c r="W10" s="8">
-        <v>799</v>
-      </c>
-      <c r="X10" s="8">
-        <v>802</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>806</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>803</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8">
-        <v>98</v>
-      </c>
-      <c r="D11" s="8">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>154</v>
-      </c>
-      <c r="F11" s="8">
-        <v>169</v>
-      </c>
-      <c r="G11" s="8">
-        <v>188</v>
-      </c>
-      <c r="H11" s="8">
-        <v>227</v>
-      </c>
-      <c r="I11" s="8">
-        <v>241</v>
-      </c>
-      <c r="J11" s="8">
-        <v>263</v>
-      </c>
-      <c r="K11" s="8">
-        <v>299</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324</v>
-      </c>
-      <c r="M11" s="8">
-        <v>361</v>
-      </c>
-      <c r="N11" s="8">
-        <v>403</v>
-      </c>
-      <c r="O11" s="8">
-        <v>439</v>
-      </c>
-      <c r="P11" s="8">
-        <v>494</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>516</v>
-      </c>
-      <c r="R11" s="8">
-        <v>555</v>
-      </c>
-      <c r="S11" s="8">
-        <v>589</v>
-      </c>
-      <c r="T11" s="8">
-        <v>610</v>
-      </c>
-      <c r="U11" s="8">
-        <v>636</v>
-      </c>
-      <c r="V11" s="8">
-        <v>678</v>
-      </c>
-      <c r="W11" s="8">
-        <v>708</v>
-      </c>
-      <c r="X11" s="8">
-        <v>730</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>757</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>797</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8">
-        <v>517</v>
-      </c>
-      <c r="D12" s="8">
-        <v>580</v>
-      </c>
-      <c r="E12" s="8">
-        <v>696</v>
-      </c>
-      <c r="F12" s="8">
-        <v>799</v>
-      </c>
-      <c r="G12" s="8">
-        <v>903</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1104</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1146</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1191</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1252</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1340</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1445</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1522</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1613</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1783</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1832</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1914</v>
-      </c>
-      <c r="S12" s="8">
-        <v>2002</v>
-      </c>
-      <c r="T12" s="8">
-        <v>2074</v>
-      </c>
-      <c r="U12" s="8">
-        <v>2173</v>
-      </c>
-      <c r="V12" s="8">
-        <v>2263</v>
-      </c>
-      <c r="W12" s="8">
-        <v>2320</v>
-      </c>
-      <c r="X12" s="8">
-        <v>2345</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>2416</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>2490</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6</v>
-      </c>
-      <c r="M13" s="8">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>7</v>
-      </c>
-      <c r="O13" s="8">
-        <v>7</v>
-      </c>
-      <c r="P13" s="8">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8">
-        <v>14</v>
-      </c>
-      <c r="T13" s="8">
-        <v>14</v>
-      </c>
-      <c r="U13" s="8">
-        <v>14</v>
-      </c>
-      <c r="V13" s="8">
-        <v>14</v>
-      </c>
-      <c r="W13" s="8">
-        <v>14</v>
-      </c>
-      <c r="X13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z7"/>
+      <selection activeCell="AA3" sqref="AA3:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3334,12 +2171,16 @@
       <c r="Y1" s="5">
         <v>43949</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="Z1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43951</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3370,7 +2211,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -3445,13 +2286,15 @@
         <v>4</v>
       </c>
       <c r="Z3" s="8">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7">
         <v>14</v>
@@ -3528,11 +2371,13 @@
       <c r="Z4" s="8">
         <v>177</v>
       </c>
-      <c r="AA4" s="8"/>
+      <c r="AA4" s="8">
+        <v>183</v>
+      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -3609,11 +2454,13 @@
       <c r="Z5" s="8">
         <v>16</v>
       </c>
-      <c r="AA5" s="8"/>
+      <c r="AA5" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -3690,11 +2537,13 @@
       <c r="Z6" s="8">
         <v>25</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -3769,7 +2618,9 @@
       <c r="Z7" s="8">
         <v>2</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="10"/>
@@ -3922,12 +2773,1244 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10:AB13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AB1" s="20">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
+      <c r="AB2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>703</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
+      <c r="AB3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2037</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
+      <c r="AB4">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
+      <c r="AB5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11</v>
+      </c>
+      <c r="T6" s="8">
+        <v>12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8">
+        <v>12</v>
+      </c>
+      <c r="W6" s="8">
+        <v>11</v>
+      </c>
+      <c r="X6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8">
+        <v>7</v>
+      </c>
+      <c r="T7" s="8">
+        <v>7</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8">
+        <v>7</v>
+      </c>
+      <c r="W7" s="8">
+        <v>8</v>
+      </c>
+      <c r="X7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>123</v>
+      </c>
+      <c r="F8" s="8">
+        <v>153</v>
+      </c>
+      <c r="G8" s="8">
+        <v>179</v>
+      </c>
+      <c r="H8" s="8">
+        <v>226</v>
+      </c>
+      <c r="I8" s="8">
+        <v>242</v>
+      </c>
+      <c r="J8" s="8">
+        <v>256</v>
+      </c>
+      <c r="K8" s="8">
+        <v>275</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>386</v>
+      </c>
+      <c r="O8" s="8">
+        <v>431</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>415</v>
+      </c>
+      <c r="R8" s="8">
+        <v>450</v>
+      </c>
+      <c r="S8" s="8">
+        <v>481</v>
+      </c>
+      <c r="T8" s="8">
+        <v>508</v>
+      </c>
+      <c r="U8" s="8">
+        <v>538</v>
+      </c>
+      <c r="V8" s="8">
+        <v>599</v>
+      </c>
+      <c r="W8" s="8">
+        <v>652</v>
+      </c>
+      <c r="X8" s="8">
+        <v>680</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>717</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>770</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>794</v>
+      </c>
+      <c r="AB8">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>23</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>25</v>
+      </c>
+      <c r="R9" s="8">
+        <v>24</v>
+      </c>
+      <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8">
+        <v>24</v>
+      </c>
+      <c r="V9" s="8">
+        <v>25</v>
+      </c>
+      <c r="W9" s="8">
+        <v>24</v>
+      </c>
+      <c r="X9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>28</v>
+      </c>
+      <c r="AB9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8">
+        <v>520</v>
+      </c>
+      <c r="E10" s="8">
+        <v>585</v>
+      </c>
+      <c r="F10" s="8">
+        <v>550</v>
+      </c>
+      <c r="G10" s="8">
+        <v>564</v>
+      </c>
+      <c r="H10" s="8">
+        <v>443</v>
+      </c>
+      <c r="I10" s="8">
+        <v>483</v>
+      </c>
+      <c r="J10" s="8">
+        <v>496</v>
+      </c>
+      <c r="K10" s="8">
+        <v>501</v>
+      </c>
+      <c r="L10" s="8">
+        <v>527</v>
+      </c>
+      <c r="M10" s="8">
+        <v>539</v>
+      </c>
+      <c r="N10" s="8">
+        <v>544</v>
+      </c>
+      <c r="O10" s="8">
+        <v>607</v>
+      </c>
+      <c r="P10" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>563</v>
+      </c>
+      <c r="R10" s="8">
+        <v>615</v>
+      </c>
+      <c r="S10" s="8">
+        <v>601</v>
+      </c>
+      <c r="T10" s="8">
+        <v>663</v>
+      </c>
+      <c r="U10" s="8">
+        <v>705</v>
+      </c>
+      <c r="V10" s="8">
+        <v>744</v>
+      </c>
+      <c r="W10" s="8">
+        <v>799</v>
+      </c>
+      <c r="X10" s="8">
+        <v>802</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>806</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>803</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>838</v>
+      </c>
+      <c r="AB10">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98</v>
+      </c>
+      <c r="D11" s="8">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>154</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169</v>
+      </c>
+      <c r="G11" s="8">
+        <v>188</v>
+      </c>
+      <c r="H11" s="8">
+        <v>227</v>
+      </c>
+      <c r="I11" s="8">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8">
+        <v>263</v>
+      </c>
+      <c r="K11" s="8">
+        <v>299</v>
+      </c>
+      <c r="L11" s="8">
+        <v>324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>403</v>
+      </c>
+      <c r="O11" s="8">
+        <v>439</v>
+      </c>
+      <c r="P11" s="8">
+        <v>494</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>516</v>
+      </c>
+      <c r="R11" s="8">
+        <v>555</v>
+      </c>
+      <c r="S11" s="8">
+        <v>589</v>
+      </c>
+      <c r="T11" s="8">
+        <v>610</v>
+      </c>
+      <c r="U11" s="8">
+        <v>636</v>
+      </c>
+      <c r="V11" s="8">
+        <v>678</v>
+      </c>
+      <c r="W11" s="8">
+        <v>708</v>
+      </c>
+      <c r="X11" s="8">
+        <v>730</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>757</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>797</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>855</v>
+      </c>
+      <c r="AB11">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>517</v>
+      </c>
+      <c r="D12" s="8">
+        <v>580</v>
+      </c>
+      <c r="E12" s="8">
+        <v>696</v>
+      </c>
+      <c r="F12" s="8">
+        <v>799</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1104</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1146</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1191</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1252</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1340</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1445</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1522</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1613</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1783</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1832</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1914</v>
+      </c>
+      <c r="S12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2074</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2173</v>
+      </c>
+      <c r="V12" s="8">
+        <v>2263</v>
+      </c>
+      <c r="W12" s="8">
+        <v>2320</v>
+      </c>
+      <c r="X12" s="8">
+        <v>2345</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>2416</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>2490</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>2613</v>
+      </c>
+      <c r="AB12">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8">
+        <v>14</v>
+      </c>
+      <c r="S13" s="8">
+        <v>14</v>
+      </c>
+      <c r="T13" s="8">
+        <v>14</v>
+      </c>
+      <c r="U13" s="8">
+        <v>14</v>
+      </c>
+      <c r="V13" s="8">
+        <v>14</v>
+      </c>
+      <c r="W13" s="8">
+        <v>14</v>
+      </c>
+      <c r="X13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3972,7 +4055,9 @@
       <c r="L1" s="5">
         <v>43950</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="5">
+        <v>43951</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
@@ -4012,7 +4097,9 @@
       <c r="L2" s="19">
         <v>224</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="19">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10">
@@ -4051,7 +4138,9 @@
       <c r="L3" s="8">
         <v>21</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10">
@@ -4090,7 +4179,9 @@
       <c r="L4" s="8">
         <v>10</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10">
@@ -4129,7 +4220,9 @@
       <c r="L5" s="8">
         <v>14</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="10">
@@ -4168,7 +4261,9 @@
       <c r="L6" s="8">
         <v>30</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10">
@@ -4207,7 +4302,9 @@
       <c r="L7" s="8">
         <v>34</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10">
@@ -4246,7 +4343,9 @@
       <c r="L8" s="8">
         <v>28</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10">
@@ -4285,7 +4384,9 @@
       <c r="L9" s="8">
         <v>29</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10">
@@ -4324,7 +4425,9 @@
       <c r="L10" s="8">
         <v>49</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
@@ -4363,7 +4466,9 @@
       <c r="L11" s="8">
         <v>9</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
@@ -4402,7 +4507,9 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="11"/>
@@ -4438,11 +4545,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD86"/>
+  <dimension ref="A1:BE86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BB62" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD67" sqref="BD67"/>
+      <pane xSplit="2" topLeftCell="BC54" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE72" sqref="BE72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4454,7 +4561,7 @@
     <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:57">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4619,8 +4726,11 @@
       <c r="BD1" s="20">
         <v>43950</v>
       </c>
-    </row>
-    <row r="2" spans="1:56">
+      <c r="BE1" s="20">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4678,7 +4788,7 @@
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:57">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -4835,8 +4945,11 @@
       <c r="BD3">
         <v>20079</v>
       </c>
-    </row>
-    <row r="4" spans="1:56">
+      <c r="BE3">
+        <v>21135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -5005,8 +5118,11 @@
       <c r="BD4">
         <v>4323</v>
       </c>
-    </row>
-    <row r="5" spans="1:56">
+      <c r="BE4">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5163,8 +5279,11 @@
       <c r="BD5">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:56">
+      <c r="BE5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5301,8 +5420,11 @@
       <c r="BD6">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BE6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5358,7 +5480,7 @@
       <c r="BA7" s="12"/>
       <c r="BB7" s="12"/>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:57">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -5423,8 +5545,11 @@
       <c r="BD8">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BE8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5557,8 +5682,11 @@
       <c r="BD9">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -5691,8 +5819,11 @@
       <c r="BD10">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -5825,8 +5956,11 @@
       <c r="BD11">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -5959,8 +6093,11 @@
       <c r="BD12">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6016,7 +6153,7 @@
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:57">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -6074,7 +6211,7 @@
       <c r="BA14" s="12"/>
       <c r="BB14" s="12"/>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:57">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -6134,7 +6271,7 @@
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:57">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -6269,8 +6406,11 @@
       <c r="BD16">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -6369,8 +6509,11 @@
       <c r="BD17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -6469,8 +6612,11 @@
       <c r="BD18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -6599,8 +6745,11 @@
       <c r="BD19">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -6729,8 +6878,11 @@
       <c r="BD20">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -6859,8 +7011,11 @@
       <c r="BD21">
         <v>706</v>
       </c>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -6916,7 +7071,7 @@
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:57">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -6974,7 +7129,7 @@
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:57">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -7109,8 +7264,11 @@
       <c r="BD24">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -7209,8 +7367,11 @@
       <c r="BD25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -7309,8 +7470,11 @@
       <c r="BD26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -7439,8 +7603,11 @@
       <c r="BD27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:56">
+      <c r="BE27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -7569,8 +7736,11 @@
       <c r="BD28">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:56">
+      <c r="BE28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -7699,8 +7869,11 @@
       <c r="BD29">
         <v>784</v>
       </c>
-    </row>
-    <row r="30" spans="1:56">
+      <c r="BE29">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -7756,7 +7929,7 @@
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:57">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>58</v>
@@ -7814,7 +7987,7 @@
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:57">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -7940,8 +8113,11 @@
       <c r="BC32">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:56">
+      <c r="BE32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -8035,8 +8211,11 @@
       <c r="BC33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:56">
+      <c r="BE33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -8130,8 +8309,11 @@
       <c r="BC34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:56">
+      <c r="BE34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -8258,7 +8440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:57">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -8383,7 +8565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:57">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -8509,8 +8691,11 @@
       <c r="BC37">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:56">
+      <c r="BE37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -8592,8 +8777,11 @@
       <c r="BC38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:56">
+      <c r="BE38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -8649,7 +8837,7 @@
       <c r="BA39" s="12"/>
       <c r="BB39" s="12"/>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:57">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
@@ -8707,7 +8895,7 @@
       <c r="BA40" s="12"/>
       <c r="BB40" s="12"/>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:57">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -8838,8 +9026,11 @@
       <c r="BD41">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:56">
+      <c r="BE41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -8938,8 +9129,11 @@
       <c r="BD42">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:56">
+      <c r="BE42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -9038,8 +9232,11 @@
       <c r="BD43">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:56">
+      <c r="BE43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -9168,8 +9365,11 @@
       <c r="BD44">
         <v>794</v>
       </c>
-    </row>
-    <row r="45" spans="1:56">
+      <c r="BE44">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -9268,8 +9468,11 @@
       <c r="BD45">
         <v>830</v>
       </c>
-    </row>
-    <row r="46" spans="1:56">
+      <c r="BE45">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -9366,8 +9569,11 @@
       <c r="BD46">
         <v>527</v>
       </c>
-    </row>
-    <row r="47" spans="1:56">
+      <c r="BE46">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57">
       <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
@@ -9460,8 +9666,11 @@
       <c r="BD47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:56">
+      <c r="BE47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -9517,7 +9726,7 @@
       <c r="BA48" s="12"/>
       <c r="BB48" s="12"/>
     </row>
-    <row r="49" spans="1:56">
+    <row r="49" spans="1:57">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
@@ -9575,7 +9784,7 @@
       <c r="BA49" s="12"/>
       <c r="BB49" s="12"/>
     </row>
-    <row r="50" spans="1:56">
+    <row r="50" spans="1:57">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -9696,8 +9905,11 @@
       <c r="BD50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:56">
+      <c r="BE50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -9794,8 +10006,11 @@
       <c r="BD51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:56">
+      <c r="BE51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -9892,8 +10107,11 @@
       <c r="BD52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:56">
+      <c r="BE52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -10014,8 +10232,11 @@
       <c r="BD53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:56">
+      <c r="BE53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -10136,8 +10357,11 @@
       <c r="BD54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:56">
+      <c r="BE54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -10258,8 +10482,11 @@
       <c r="BD55">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:56">
+      <c r="BE55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -10352,8 +10579,11 @@
       <c r="BD56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:56">
+      <c r="BE56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -10409,7 +10639,7 @@
       <c r="BA57" s="12"/>
       <c r="BB57" s="12"/>
     </row>
-    <row r="58" spans="1:56">
+    <row r="58" spans="1:57">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -10530,8 +10760,11 @@
       <c r="BD58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:56">
+      <c r="BE58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -10628,8 +10861,11 @@
       <c r="BD59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:56">
+      <c r="BE59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57">
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
@@ -10726,8 +10962,11 @@
       <c r="BD60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:56">
+      <c r="BE60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
@@ -10848,8 +11087,11 @@
       <c r="BD61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:56">
+      <c r="BE61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
@@ -10970,8 +11212,11 @@
       <c r="BD62">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:56">
+      <c r="BE62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57">
       <c r="A63" s="6" t="s">
         <v>74</v>
       </c>
@@ -11090,8 +11335,11 @@
       <c r="BD63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:56">
+      <c r="BE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57">
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
@@ -11188,8 +11436,11 @@
       <c r="BD64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:56">
+      <c r="BE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -11245,7 +11496,7 @@
       <c r="BA65" s="12"/>
       <c r="BB65" s="12"/>
     </row>
-    <row r="66" spans="1:56">
+    <row r="66" spans="1:57">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>81</v>
@@ -11303,7 +11554,7 @@
       <c r="BA66" s="12"/>
       <c r="BB66" s="12"/>
     </row>
-    <row r="67" spans="1:56">
+    <row r="67" spans="1:57">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -11424,8 +11675,11 @@
       <c r="BD67">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="1:56">
+      <c r="BE67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57">
       <c r="A68" s="6" t="s">
         <v>82</v>
       </c>
@@ -11546,8 +11800,11 @@
       <c r="BD68">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:56">
+      <c r="BE68">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57">
       <c r="A69" s="6" t="s">
         <v>82</v>
       </c>
@@ -11668,8 +11925,11 @@
       <c r="BD69">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:56">
+      <c r="BE69">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57">
       <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
@@ -11762,8 +12022,11 @@
       <c r="BD70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:56">
+      <c r="BE70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -11819,7 +12082,7 @@
       <c r="BA71" s="12"/>
       <c r="BB71" s="12"/>
     </row>
-    <row r="72" spans="1:56">
+    <row r="72" spans="1:57">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -11940,8 +12203,11 @@
       <c r="BD72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:56">
+      <c r="BE72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -12062,8 +12328,11 @@
       <c r="BD73">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:56">
+      <c r="BE73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -12184,8 +12453,11 @@
       <c r="BD74">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:56">
+      <c r="BE74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57">
       <c r="A75" s="6" t="s">
         <v>87</v>
       </c>
@@ -12298,8 +12570,11 @@
       <c r="BD75">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:56">
+      <c r="BE75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -12355,7 +12630,7 @@
       <c r="BA76" s="12"/>
       <c r="BB76" s="12"/>
     </row>
-    <row r="77" spans="1:56">
+    <row r="77" spans="1:57">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
@@ -12476,8 +12751,11 @@
       <c r="BD77">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:56">
+      <c r="BE77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
@@ -12598,8 +12876,11 @@
       <c r="BD78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:56">
+      <c r="BE78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -12698,8 +12979,11 @@
       <c r="BD79" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:56">
+      <c r="BE79">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
@@ -12794,8 +13078,11 @@
       <c r="BD80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:56">
+      <c r="BE80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
@@ -12914,8 +13201,11 @@
       <c r="BD81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:56">
+      <c r="BE81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -12971,7 +13261,7 @@
       <c r="BA82" s="12"/>
       <c r="BB82" s="12"/>
     </row>
-    <row r="83" spans="1:56">
+    <row r="83" spans="1:57">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -13038,8 +13328,11 @@
       <c r="BD83">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:56">
+      <c r="BE83">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -13106,8 +13399,11 @@
       <c r="BD84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:56">
+      <c r="BE84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -13174,8 +13470,11 @@
       <c r="BD85">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:56">
+      <c r="BE85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3260BD9-F979-974A-9B52-BC9500D54973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56940EA8-7F24-114A-BDBD-0EFF76784996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53640" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
     <sheet name="Total Cases by Age and Gender" sheetId="5" r:id="rId2"/>
-    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId3"/>
-    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId4"/>
+    <sheet name="Lives Lost by Race" sheetId="4" r:id="rId3"/>
+    <sheet name="Total Cases by Ward" sheetId="2" r:id="rId4"/>
     <sheet name="Total Cases by Race" sheetId="3" r:id="rId5"/>
     <sheet name="Lives Lost by Ward" sheetId="7" r:id="rId6"/>
     <sheet name="Overall Stats" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -89,9 +89,6 @@
     <t>81+</t>
   </si>
   <si>
-    <t>Ward</t>
-  </si>
-  <si>
     <t>Race</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Ward</t>
   </si>
   <si>
     <t>Race/Ethnicity Category</t>
@@ -346,7 +346,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,8 +500,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -825,14 +823,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.95">
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -846,18 +844,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -874,24 +872,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>4658</v>
+        <v>4797</v>
       </c>
       <c r="C2" s="13">
-        <v>2266</v>
+        <v>2328</v>
       </c>
       <c r="D2" s="13">
-        <v>2384</v>
+        <v>2460</v>
       </c>
       <c r="E2" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -908,143 +906,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C5" s="8">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D5" s="8">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E5" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="C6" s="8">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D6" s="8">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="C7" s="8">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D7" s="8">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="C8" s="8">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D8" s="8">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="C9" s="8">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D9" s="8">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C10" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D10" s="8">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C11" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D11" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
@@ -1054,20 +1052,732 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF11"/>
+    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="5">
+        <v>43926</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43927</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43928</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43929</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43930</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43931</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43932</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43933</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43934</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43935</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43936</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43937</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43938</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43939</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43940</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43941</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43942</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43943</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43944</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43945</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43946</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43947</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43948</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43949</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43950</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43951</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>3</v>
+      </c>
+      <c r="S3" s="8">
+        <v>3</v>
+      </c>
+      <c r="T3" s="8">
+        <v>3</v>
+      </c>
+      <c r="U3" s="8">
+        <v>4</v>
+      </c>
+      <c r="V3" s="8">
+        <v>4</v>
+      </c>
+      <c r="W3" s="8">
+        <v>4</v>
+      </c>
+      <c r="X3" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8">
+        <v>38</v>
+      </c>
+      <c r="J4" s="8">
+        <v>51</v>
+      </c>
+      <c r="K4" s="8">
+        <v>54</v>
+      </c>
+      <c r="L4" s="8">
+        <v>61</v>
+      </c>
+      <c r="M4" s="8">
+        <v>66</v>
+      </c>
+      <c r="N4" s="8">
+        <v>71</v>
+      </c>
+      <c r="O4" s="8">
+        <v>75</v>
+      </c>
+      <c r="P4" s="8">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>90</v>
+      </c>
+      <c r="R4" s="8">
+        <v>102</v>
+      </c>
+      <c r="S4" s="8">
+        <v>112</v>
+      </c>
+      <c r="T4" s="8">
+        <v>124</v>
+      </c>
+      <c r="U4" s="8">
+        <v>131</v>
+      </c>
+      <c r="V4" s="8">
+        <v>142</v>
+      </c>
+      <c r="W4" s="8">
+        <v>147</v>
+      </c>
+      <c r="X4" s="8">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>163</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>177</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>183</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
+      </c>
+      <c r="L5" s="8">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>8</v>
+      </c>
+      <c r="N5" s="8">
+        <v>8</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>8</v>
+      </c>
+      <c r="R5" s="8">
+        <v>8</v>
+      </c>
+      <c r="S5" s="8">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>9</v>
+      </c>
+      <c r="U5" s="8">
+        <v>10</v>
+      </c>
+      <c r="V5" s="8">
+        <v>11</v>
+      </c>
+      <c r="W5" s="8">
+        <v>11</v>
+      </c>
+      <c r="X5" s="8">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8">
+        <v>10</v>
+      </c>
+      <c r="O6" s="8">
+        <v>11</v>
+      </c>
+      <c r="P6" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>12</v>
+      </c>
+      <c r="R6" s="8">
+        <v>14</v>
+      </c>
+      <c r="S6" s="8">
+        <v>15</v>
+      </c>
+      <c r="T6" s="8">
+        <v>16</v>
+      </c>
+      <c r="U6" s="8">
+        <v>19</v>
+      </c>
+      <c r="V6" s="8">
+        <v>20</v>
+      </c>
+      <c r="W6" s="8">
+        <v>21</v>
+      </c>
+      <c r="X6" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>2</v>
+      </c>
+      <c r="X7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1097,10 +1807,14 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>43921</v>
@@ -1186,17 +1900,20 @@
       <c r="AC2" s="5">
         <v>43948</v>
       </c>
-      <c r="AD2" s="21">
+      <c r="AD2" s="5">
         <v>43949</v>
       </c>
-      <c r="AE2" s="21">
+      <c r="AE2" s="5">
         <v>43950</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AF2" s="5">
         <v>43951</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1284,17 +2001,20 @@
       <c r="AC3" s="8">
         <v>475</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="8">
         <v>503</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="8">
         <v>543</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="8">
         <v>593</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" s="8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1382,17 +2102,20 @@
       <c r="AC4" s="8">
         <v>266</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="8">
         <v>284</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="8">
         <v>291</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="8">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4" s="8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1480,17 +2203,20 @@
       <c r="AC5" s="8">
         <v>264</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="8">
         <v>270</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="8">
         <v>282</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="8">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1578,17 +2304,20 @@
       <c r="AC6" s="8">
         <v>702</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="8">
         <v>727</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="8">
         <v>774</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="8">
         <v>849</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6" s="8">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1676,17 +2405,20 @@
       <c r="AC7" s="8">
         <v>587</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="8">
         <v>622</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="8">
         <v>646</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="8">
         <v>699</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7" s="8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1774,17 +2506,20 @@
       <c r="AC8" s="8">
         <v>414</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="8">
         <v>433</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="8">
         <v>450</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="8">
         <v>468</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8" s="8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1872,17 +2607,20 @@
       <c r="AC9" s="8">
         <v>594</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="8">
         <v>630</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="8">
         <v>659</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="8">
         <v>701</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9" s="8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1970,17 +2708,20 @@
       <c r="AC10" s="8">
         <v>560</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="8">
         <v>597</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="8">
         <v>632</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="8">
         <v>677</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2068,14 +2809,17 @@
       <c r="AC11" s="8">
         <v>132</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="8">
         <v>40</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="8">
         <v>46</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="8">
         <v>60</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2084,401 +2828,489 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AA7"/>
+    <sheetView showGridLines="0" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="9"/>
-      <c r="B1" s="5">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5">
         <v>43926</v>
       </c>
-      <c r="C1" s="5">
+      <c r="D1" s="5">
         <v>43927</v>
       </c>
-      <c r="D1" s="5">
+      <c r="E1" s="5">
         <v>43928</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>43929</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <v>43930</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>43931</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>43932</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <v>43933</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <v>43934</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>43935</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>43936</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>43937</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <v>43938</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>43939</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>43940</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="R1" s="5">
         <v>43941</v>
       </c>
-      <c r="R1" s="5">
+      <c r="S1" s="5">
         <v>43942</v>
       </c>
-      <c r="S1" s="5">
+      <c r="T1" s="5">
         <v>43943</v>
       </c>
-      <c r="T1" s="5">
+      <c r="U1" s="5">
         <v>43944</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>43945</v>
       </c>
-      <c r="V1" s="5">
+      <c r="W1" s="5">
         <v>43946</v>
       </c>
-      <c r="W1" s="5">
+      <c r="X1" s="5">
         <v>43947</v>
       </c>
-      <c r="X1" s="5">
+      <c r="Y1" s="5">
         <v>43948</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Z1" s="5">
         <v>43949</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AA1" s="5">
         <v>43950</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>43951</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="9" t="s">
+      <c r="AC1" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
+        <v>349</v>
+      </c>
+      <c r="D2" s="8">
+        <v>596</v>
+      </c>
+      <c r="E2" s="8">
+        <v>604</v>
+      </c>
+      <c r="F2" s="8">
+        <v>536</v>
+      </c>
+      <c r="G2" s="8">
+        <v>516</v>
+      </c>
+      <c r="H2" s="8">
+        <v>355</v>
+      </c>
+      <c r="I2" s="8">
+        <v>379</v>
+      </c>
+      <c r="J2" s="8">
+        <v>391</v>
+      </c>
+      <c r="K2" s="8">
+        <v>400</v>
+      </c>
+      <c r="L2" s="8">
+        <v>410</v>
+      </c>
+      <c r="M2" s="8">
+        <v>404</v>
+      </c>
+      <c r="N2" s="8">
+        <v>383</v>
+      </c>
+      <c r="O2" s="8">
+        <v>413</v>
+      </c>
+      <c r="P2" s="8">
+        <v>358</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>406</v>
+      </c>
+      <c r="R2" s="8">
+        <v>470</v>
+      </c>
+      <c r="S2" s="8">
+        <v>443</v>
+      </c>
+      <c r="T2" s="8">
+        <v>479</v>
+      </c>
+      <c r="U2" s="8">
+        <v>490</v>
+      </c>
+      <c r="V2" s="8">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8">
+        <v>527</v>
+      </c>
+      <c r="X2" s="8">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>487</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>534</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>666</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8">
+        <v>154</v>
+      </c>
+      <c r="E3" s="8">
+        <v>218</v>
+      </c>
+      <c r="F3" s="8">
+        <v>253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>281</v>
+      </c>
+      <c r="H3" s="8">
+        <v>339</v>
+      </c>
+      <c r="I3" s="8">
+        <v>354</v>
+      </c>
+      <c r="J3" s="8">
+        <v>365</v>
+      </c>
+      <c r="K3" s="8">
+        <v>388</v>
+      </c>
+      <c r="L3" s="8">
+        <v>411</v>
+      </c>
+      <c r="M3" s="8">
+        <v>439</v>
+      </c>
+      <c r="N3" s="8">
+        <v>461</v>
+      </c>
+      <c r="O3" s="8">
+        <v>473</v>
+      </c>
+      <c r="P3" s="8">
+        <v>548</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>553</v>
+      </c>
+      <c r="R3" s="8">
+        <v>565</v>
+      </c>
+      <c r="S3" s="8">
+        <v>587</v>
+      </c>
+      <c r="T3" s="8">
+        <v>603</v>
+      </c>
+      <c r="U3" s="8">
+        <v>635</v>
+      </c>
+      <c r="V3" s="8">
+        <v>653</v>
+      </c>
+      <c r="W3" s="8">
+        <v>665</v>
+      </c>
+      <c r="X3" s="8">
+        <v>670</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>690</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>703</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>743</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>765</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8">
+        <v>303</v>
+      </c>
+      <c r="D4" s="8">
+        <v>353</v>
+      </c>
+      <c r="E4" s="8">
+        <v>460</v>
+      </c>
+      <c r="F4" s="8">
+        <v>542</v>
+      </c>
+      <c r="G4" s="8">
+        <v>642</v>
+      </c>
+      <c r="H4" s="8">
+        <v>812</v>
+      </c>
+      <c r="I4" s="8">
+        <v>852</v>
+      </c>
+      <c r="J4" s="8">
+        <v>884</v>
+      </c>
+      <c r="K4" s="8">
+        <v>932</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1089</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1171</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1271</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1403</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1458</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1517</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1595</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1670</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1762</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1846</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1891</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1919</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1978</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>2037</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>2138</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>2247</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="10" t="s">
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="8">
-        <v>3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>3</v>
-      </c>
-      <c r="T3" s="8">
-        <v>3</v>
-      </c>
-      <c r="U3" s="8">
+      <c r="F5" s="8">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
+        <v>38</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>52</v>
+      </c>
+      <c r="R5" s="8">
+        <v>54</v>
+      </c>
+      <c r="S5" s="8">
+        <v>57</v>
+      </c>
+      <c r="T5" s="8">
+        <v>58</v>
+      </c>
+      <c r="U5" s="8">
+        <v>60</v>
+      </c>
+      <c r="V5" s="8">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>4</v>
-      </c>
-      <c r="V3" s="8">
-        <v>4</v>
-      </c>
-      <c r="W3" s="8">
-        <v>4</v>
-      </c>
-      <c r="X3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8">
-        <v>36</v>
-      </c>
-      <c r="I4" s="8">
-        <v>38</v>
-      </c>
-      <c r="J4" s="8">
-        <v>51</v>
-      </c>
-      <c r="K4" s="8">
-        <v>54</v>
-      </c>
-      <c r="L4" s="8">
-        <v>61</v>
-      </c>
-      <c r="M4" s="8">
-        <v>66</v>
-      </c>
-      <c r="N4" s="8">
-        <v>71</v>
-      </c>
-      <c r="O4" s="8">
-        <v>75</v>
-      </c>
-      <c r="P4" s="8">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>90</v>
-      </c>
-      <c r="R4" s="8">
-        <v>102</v>
-      </c>
-      <c r="S4" s="8">
-        <v>112</v>
-      </c>
-      <c r="T4" s="8">
-        <v>124</v>
-      </c>
-      <c r="U4" s="8">
-        <v>131</v>
-      </c>
-      <c r="V4" s="8">
-        <v>142</v>
-      </c>
-      <c r="W4" s="8">
-        <v>147</v>
-      </c>
-      <c r="X4" s="8">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>163</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>177</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8">
-        <v>7</v>
-      </c>
-      <c r="K5" s="8">
-        <v>8</v>
-      </c>
-      <c r="L5" s="8">
-        <v>9</v>
-      </c>
-      <c r="M5" s="8">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8">
-        <v>8</v>
-      </c>
-      <c r="O5" s="8">
-        <v>8</v>
-      </c>
-      <c r="P5" s="8">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>8</v>
-      </c>
-      <c r="R5" s="8">
-        <v>8</v>
-      </c>
-      <c r="S5" s="8">
-        <v>9</v>
-      </c>
-      <c r="T5" s="8">
-        <v>9</v>
-      </c>
-      <c r="U5" s="8">
-        <v>10</v>
-      </c>
-      <c r="V5" s="8">
-        <v>11</v>
-      </c>
-      <c r="W5" s="8">
-        <v>11</v>
-      </c>
-      <c r="X5" s="8">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="8">
         <v>6</v>
@@ -2487,22 +3319,22 @@
         <v>6</v>
       </c>
       <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
+        <v>7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
+      <c r="O6" s="8">
         <v>8</v>
-      </c>
-      <c r="L6" s="8">
-        <v>8</v>
-      </c>
-      <c r="M6" s="8">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8">
-        <v>10</v>
-      </c>
-      <c r="O6" s="8">
-        <v>11</v>
       </c>
       <c r="P6" s="8">
         <v>12</v>
@@ -2511,768 +3343,6 @@
         <v>12</v>
       </c>
       <c r="R6" s="8">
-        <v>14</v>
-      </c>
-      <c r="S6" s="8">
-        <v>15</v>
-      </c>
-      <c r="T6" s="8">
-        <v>16</v>
-      </c>
-      <c r="U6" s="8">
-        <v>19</v>
-      </c>
-      <c r="V6" s="8">
-        <v>20</v>
-      </c>
-      <c r="W6" s="8">
-        <v>21</v>
-      </c>
-      <c r="X6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8">
-        <v>1</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1</v>
-      </c>
-      <c r="W7" s="8">
-        <v>2</v>
-      </c>
-      <c r="X7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AB13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43926</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43927</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43928</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43929</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43930</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43931</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43932</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43933</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43934</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43935</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43936</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43937</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43938</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43939</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>43940</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43941</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43942</v>
-      </c>
-      <c r="T1" s="5">
-        <v>43943</v>
-      </c>
-      <c r="U1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="V1" s="5">
-        <v>43945</v>
-      </c>
-      <c r="W1" s="5">
-        <v>43946</v>
-      </c>
-      <c r="X1" s="5">
-        <v>43947</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>43948</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>43949</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>43950</v>
-      </c>
-      <c r="AB1" s="20">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>349</v>
-      </c>
-      <c r="D2" s="8">
-        <v>596</v>
-      </c>
-      <c r="E2" s="8">
-        <v>604</v>
-      </c>
-      <c r="F2" s="8">
-        <v>536</v>
-      </c>
-      <c r="G2" s="8">
-        <v>516</v>
-      </c>
-      <c r="H2" s="8">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8">
-        <v>379</v>
-      </c>
-      <c r="J2" s="8">
-        <v>391</v>
-      </c>
-      <c r="K2" s="8">
-        <v>400</v>
-      </c>
-      <c r="L2" s="8">
-        <v>410</v>
-      </c>
-      <c r="M2" s="8">
-        <v>404</v>
-      </c>
-      <c r="N2" s="8">
-        <v>383</v>
-      </c>
-      <c r="O2" s="8">
-        <v>413</v>
-      </c>
-      <c r="P2" s="8">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>406</v>
-      </c>
-      <c r="R2" s="8">
-        <v>470</v>
-      </c>
-      <c r="S2" s="8">
-        <v>443</v>
-      </c>
-      <c r="T2" s="8">
-        <v>479</v>
-      </c>
-      <c r="U2" s="8">
-        <v>490</v>
-      </c>
-      <c r="V2" s="8">
-        <v>494</v>
-      </c>
-      <c r="W2" s="8">
-        <v>527</v>
-      </c>
-      <c r="X2" s="8">
-        <v>517</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>503</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>534</v>
-      </c>
-      <c r="AB2">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8">
-        <v>154</v>
-      </c>
-      <c r="E3" s="8">
-        <v>218</v>
-      </c>
-      <c r="F3" s="8">
-        <v>253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>281</v>
-      </c>
-      <c r="H3" s="8">
-        <v>339</v>
-      </c>
-      <c r="I3" s="8">
-        <v>354</v>
-      </c>
-      <c r="J3" s="8">
-        <v>365</v>
-      </c>
-      <c r="K3" s="8">
-        <v>388</v>
-      </c>
-      <c r="L3" s="8">
-        <v>411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>439</v>
-      </c>
-      <c r="N3" s="8">
-        <v>461</v>
-      </c>
-      <c r="O3" s="8">
-        <v>473</v>
-      </c>
-      <c r="P3" s="8">
-        <v>548</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>553</v>
-      </c>
-      <c r="R3" s="8">
-        <v>565</v>
-      </c>
-      <c r="S3" s="8">
-        <v>587</v>
-      </c>
-      <c r="T3" s="8">
-        <v>603</v>
-      </c>
-      <c r="U3" s="8">
-        <v>635</v>
-      </c>
-      <c r="V3" s="8">
-        <v>653</v>
-      </c>
-      <c r="W3" s="8">
-        <v>665</v>
-      </c>
-      <c r="X3" s="8">
-        <v>670</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>690</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>703</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>743</v>
-      </c>
-      <c r="AB3">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8">
-        <v>303</v>
-      </c>
-      <c r="D4" s="8">
-        <v>353</v>
-      </c>
-      <c r="E4" s="8">
-        <v>460</v>
-      </c>
-      <c r="F4" s="8">
-        <v>542</v>
-      </c>
-      <c r="G4" s="8">
-        <v>642</v>
-      </c>
-      <c r="H4" s="8">
-        <v>812</v>
-      </c>
-      <c r="I4" s="8">
-        <v>852</v>
-      </c>
-      <c r="J4" s="8">
-        <v>884</v>
-      </c>
-      <c r="K4" s="8">
-        <v>932</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1009</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1089</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1171</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1271</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1403</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1458</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1517</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1595</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1670</v>
-      </c>
-      <c r="U4" s="8">
-        <v>1762</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1846</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1891</v>
-      </c>
-      <c r="X4" s="8">
-        <v>1919</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>1978</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>2037</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>2138</v>
-      </c>
-      <c r="AB4">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8">
-        <v>26</v>
-      </c>
-      <c r="J5" s="8">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8">
-        <v>36</v>
-      </c>
-      <c r="O5" s="8">
-        <v>38</v>
-      </c>
-      <c r="P5" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>52</v>
-      </c>
-      <c r="R5" s="8">
-        <v>54</v>
-      </c>
-      <c r="S5" s="8">
-        <v>57</v>
-      </c>
-      <c r="T5" s="8">
-        <v>58</v>
-      </c>
-      <c r="U5" s="8">
-        <v>60</v>
-      </c>
-      <c r="V5" s="8">
-        <v>63</v>
-      </c>
-      <c r="W5" s="8">
-        <v>63</v>
-      </c>
-      <c r="X5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>65</v>
-      </c>
-      <c r="AB5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8">
-        <v>7</v>
-      </c>
-      <c r="M6" s="8">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8">
-        <v>7</v>
-      </c>
-      <c r="O6" s="8">
-        <v>8</v>
-      </c>
-      <c r="P6" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12</v>
-      </c>
-      <c r="R6" s="8">
         <v>12</v>
       </c>
       <c r="S6" s="8">
@@ -3302,13 +3372,16 @@
       <c r="AA6" s="8">
         <v>13</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
@@ -3384,13 +3457,16 @@
       <c r="AA7" s="8">
         <v>8</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>28</v>
@@ -3470,13 +3546,16 @@
       <c r="AA8" s="8">
         <v>794</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="8">
         <v>861</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="8">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>29</v>
@@ -3556,11 +3635,14 @@
       <c r="AA9" s="8">
         <v>28</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -3642,11 +3724,14 @@
       <c r="AA10" s="8">
         <v>838</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="8">
         <v>1013</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="8">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -3728,11 +3813,14 @@
       <c r="AA11" s="8">
         <v>855</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="8">
         <v>886</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" s="8">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3814,11 +3902,14 @@
       <c r="AA12" s="8">
         <v>2613</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="8">
         <v>2741</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="8">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -3900,11 +3991,14 @@
       <c r="AA13" s="8">
         <v>17</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -3932,8 +4026,10 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -3961,8 +4057,10 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -3990,14 +4088,16 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
   </sheetData>
@@ -4007,20 +4107,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5">
         <v>43940</v>
@@ -4058,8 +4158,11 @@
       <c r="M1" s="5">
         <v>43951</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -4100,8 +4203,11 @@
       <c r="M2" s="19">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4141,8 +4247,11 @@
       <c r="M3" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4182,8 +4291,11 @@
       <c r="M4" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4223,8 +4335,11 @@
       <c r="M5" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4264,8 +4379,11 @@
       <c r="M6" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4305,8 +4423,11 @@
       <c r="M7" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4346,8 +4467,11 @@
       <c r="M8" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4387,8 +4511,11 @@
       <c r="M9" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4428,8 +4555,11 @@
       <c r="M10" s="8">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -4469,8 +4599,11 @@
       <c r="M11" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4510,32 +4643,35 @@
       <c r="M12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
@@ -4545,23 +4681,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE86"/>
+  <dimension ref="A1:BF86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BC54" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE72" sqref="BE72"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK19" sqref="BK19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
     <col min="3" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4720,17 +4856,20 @@
       <c r="BB1" s="5">
         <v>43948</v>
       </c>
-      <c r="BC1" s="20">
+      <c r="BC1" s="5">
         <v>43949</v>
       </c>
-      <c r="BD1" s="20">
+      <c r="BD1" s="5">
         <v>43950</v>
       </c>
-      <c r="BE1" s="20">
+      <c r="BE1" s="5">
         <v>43951</v>
       </c>
-    </row>
-    <row r="2" spans="1:57">
+      <c r="BF1" s="5">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4787,8 +4926,12 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
-    </row>
-    <row r="3" spans="1:57">
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -4939,17 +5082,20 @@
       <c r="BB3" s="12">
         <v>18885</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="12">
         <v>19229</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="12">
         <v>20079</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="12">
         <v>21135</v>
       </c>
-    </row>
-    <row r="4" spans="1:57">
+      <c r="BF3" s="12">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -5112,17 +5258,20 @@
       <c r="BB4" s="12">
         <v>3994</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="12">
         <v>4106</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="12">
         <v>4323</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="12">
         <v>4658</v>
       </c>
-    </row>
-    <row r="5" spans="1:57">
+      <c r="BF4" s="12">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5273,17 +5422,20 @@
       <c r="BB5" s="12">
         <v>190</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="12">
         <v>205</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="12">
         <v>224</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="12">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:57">
+      <c r="BF5" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5414,17 +5566,20 @@
       <c r="BB6" s="12">
         <v>660</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="12">
         <v>660</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="12">
         <v>660</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="12">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:57">
+      <c r="BF6" s="12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5479,8 +5634,12 @@
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
       <c r="BB7" s="12"/>
-    </row>
-    <row r="8" spans="1:57">
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -5539,17 +5698,20 @@
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
       <c r="BB8" s="12"/>
-      <c r="BC8">
+      <c r="BC8" s="12">
         <v>345</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="12">
         <v>345</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="12">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:57">
+      <c r="BF8" s="12">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5676,17 +5838,20 @@
       <c r="BB9" s="12">
         <v>136</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="12">
         <v>136</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="12">
         <v>89</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="12">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:57">
+      <c r="BF9" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -5813,17 +5978,20 @@
       <c r="BB10" s="12">
         <v>440</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="12">
         <v>440</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="12">
         <v>440</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:57">
+      <c r="BF10" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -5950,17 +6118,20 @@
       <c r="BB11" s="12">
         <v>206</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" s="12">
         <v>206</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="12">
         <v>245</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="12">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:57">
+      <c r="BF11" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -6087,17 +6258,20 @@
       <c r="BB12" s="12">
         <v>234</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" s="12">
         <v>234</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" s="12">
         <v>195</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" s="12">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:57">
+      <c r="BF12" s="12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6152,8 +6326,12 @@
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
-    </row>
-    <row r="14" spans="1:57">
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -6210,8 +6388,12 @@
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
       <c r="BB14" s="12"/>
-    </row>
-    <row r="15" spans="1:57">
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -6270,8 +6452,12 @@
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
-    </row>
-    <row r="16" spans="1:57">
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -6400,17 +6586,20 @@
       <c r="BB16" s="12">
         <v>87</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" s="12">
         <v>88</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" s="12">
         <v>93</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" s="12">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:57">
+      <c r="BF16" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -6503,17 +6692,20 @@
       <c r="BB17" s="12">
         <v>30</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" s="12">
         <v>31</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" s="12">
         <v>36</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:57">
+      <c r="BF17" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -6606,17 +6798,20 @@
       <c r="BB18" s="12">
         <v>57</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" s="12">
         <v>57</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" s="12">
         <v>57</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" s="12">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:57">
+      <c r="BF18" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -6739,17 +6934,20 @@
       <c r="BB19" s="12">
         <v>183</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" s="12">
         <v>203</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" s="12">
         <v>187</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" s="12">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:57">
+      <c r="BF19" s="12">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -6872,17 +7070,20 @@
       <c r="BB20" s="12">
         <v>213</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" s="12">
         <v>234</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" s="12">
         <v>223</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" s="12">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:57">
+      <c r="BF20" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -7005,17 +7206,20 @@
       <c r="BB21" s="12">
         <v>672</v>
       </c>
-      <c r="BC21">
+      <c r="BC21" s="12">
         <v>687</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" s="12">
         <v>706</v>
       </c>
-      <c r="BE21">
+      <c r="BE21" s="12">
         <v>722</v>
       </c>
-    </row>
-    <row r="22" spans="1:57">
+      <c r="BF21" s="12">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7070,8 +7274,12 @@
       <c r="AZ22" s="12"/>
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
-    </row>
-    <row r="23" spans="1:57">
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -7128,8 +7336,12 @@
       <c r="AZ23" s="12"/>
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
-    </row>
-    <row r="24" spans="1:57">
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -7258,17 +7470,20 @@
       <c r="BB24" s="12">
         <v>92</v>
       </c>
-      <c r="BC24">
+      <c r="BC24" s="12">
         <v>92</v>
       </c>
-      <c r="BD24">
+      <c r="BD24" s="12">
         <v>96</v>
       </c>
-      <c r="BE24">
+      <c r="BE24" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:57">
+      <c r="BF24" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -7361,17 +7576,20 @@
       <c r="BB25" s="12">
         <v>48</v>
       </c>
-      <c r="BC25">
+      <c r="BC25" s="12">
         <v>41</v>
       </c>
-      <c r="BD25">
+      <c r="BD25" s="12">
         <v>42</v>
       </c>
-      <c r="BE25">
+      <c r="BE25" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:57">
+      <c r="BF25" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -7464,17 +7682,20 @@
       <c r="BB26" s="12">
         <v>44</v>
       </c>
-      <c r="BC26">
+      <c r="BC26" s="12">
         <v>51</v>
       </c>
-      <c r="BD26">
+      <c r="BD26" s="12">
         <v>54</v>
       </c>
-      <c r="BE26">
+      <c r="BE26" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:57">
+      <c r="BF26" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -7597,17 +7818,20 @@
       <c r="BB27" s="12">
         <v>68</v>
       </c>
-      <c r="BC27">
+      <c r="BC27" s="12">
         <v>64</v>
       </c>
-      <c r="BD27">
+      <c r="BD27" s="12">
         <v>69</v>
       </c>
-      <c r="BE27">
+      <c r="BE27" s="12">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:57">
+      <c r="BF27" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -7730,17 +7954,20 @@
       <c r="BB28" s="12">
         <v>116</v>
       </c>
-      <c r="BC28">
+      <c r="BC28" s="12">
         <v>105</v>
       </c>
-      <c r="BD28">
+      <c r="BD28" s="12">
         <v>111</v>
       </c>
-      <c r="BE28">
+      <c r="BE28" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:57">
+      <c r="BF28" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -7863,17 +8090,20 @@
       <c r="BB29" s="12">
         <v>743</v>
       </c>
-      <c r="BC29">
+      <c r="BC29" s="12">
         <v>776</v>
       </c>
-      <c r="BD29">
+      <c r="BD29" s="12">
         <v>784</v>
       </c>
-      <c r="BE29">
+      <c r="BE29" s="12">
         <v>798</v>
       </c>
-    </row>
-    <row r="30" spans="1:57">
+      <c r="BF29" s="12">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -7928,8 +8158,12 @@
       <c r="AZ30" s="12"/>
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
-    </row>
-    <row r="31" spans="1:57">
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>58</v>
@@ -7986,8 +8220,12 @@
       <c r="AZ31" s="12"/>
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
-    </row>
-    <row r="32" spans="1:57">
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -8110,14 +8348,18 @@
       <c r="BB32" s="12">
         <v>45</v>
       </c>
-      <c r="BC32">
+      <c r="BC32" s="12">
         <v>49</v>
       </c>
-      <c r="BE32">
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:57">
+      <c r="BF32" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -8208,14 +8450,18 @@
       <c r="BB33" s="12">
         <v>35</v>
       </c>
-      <c r="BC33">
+      <c r="BC33" s="12">
         <v>39</v>
       </c>
-      <c r="BE33">
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:57">
+      <c r="BF33" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -8306,14 +8552,18 @@
       <c r="BB34" s="12">
         <v>9</v>
       </c>
-      <c r="BC34">
+      <c r="BC34" s="12">
         <v>13</v>
       </c>
-      <c r="BE34">
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:57">
+      <c r="BF34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -8436,11 +8686,16 @@
       <c r="BB35" s="12">
         <v>34</v>
       </c>
-      <c r="BC35">
+      <c r="BC35" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:57">
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -8561,11 +8816,16 @@
       <c r="BB36" s="12">
         <v>69</v>
       </c>
-      <c r="BC36">
+      <c r="BC36" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:57">
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -8688,14 +8948,18 @@
       <c r="BB37" s="12">
         <v>123</v>
       </c>
-      <c r="BC37">
+      <c r="BC37" s="12">
         <v>174</v>
       </c>
-      <c r="BE37">
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:57">
+      <c r="BF37" s="12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -8774,14 +9038,18 @@
       <c r="BB38" s="12">
         <v>1</v>
       </c>
-      <c r="BC38">
+      <c r="BC38" s="12">
         <v>1</v>
       </c>
-      <c r="BE38">
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:57">
+      <c r="BF38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -8836,8 +9104,12 @@
       <c r="AZ39" s="12"/>
       <c r="BA39" s="12"/>
       <c r="BB39" s="12"/>
-    </row>
-    <row r="40" spans="1:57">
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
@@ -8894,8 +9166,12 @@
       <c r="AZ40" s="12"/>
       <c r="BA40" s="12"/>
       <c r="BB40" s="12"/>
-    </row>
-    <row r="41" spans="1:57">
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -9020,17 +9296,20 @@
       <c r="BB41" s="12">
         <v>127</v>
       </c>
-      <c r="BC41">
+      <c r="BC41" s="12">
         <v>131</v>
       </c>
-      <c r="BD41">
+      <c r="BD41" s="12">
         <v>135</v>
       </c>
-      <c r="BE41">
+      <c r="BE41" s="12">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:57">
+      <c r="BF41" s="12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -9123,17 +9402,20 @@
       <c r="BB42" s="12">
         <v>51</v>
       </c>
-      <c r="BC42">
+      <c r="BC42" s="12">
         <v>45</v>
       </c>
-      <c r="BD42">
+      <c r="BD42" s="12">
         <v>36</v>
       </c>
-      <c r="BE42">
+      <c r="BE42" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:57">
+      <c r="BF42" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -9226,17 +9508,20 @@
       <c r="BB43" s="12">
         <v>75</v>
       </c>
-      <c r="BC43">
+      <c r="BC43" s="12">
         <v>85</v>
       </c>
-      <c r="BD43">
+      <c r="BD43" s="12">
         <v>86</v>
       </c>
-      <c r="BE43">
+      <c r="BE43" s="12">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:57">
+      <c r="BF43" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -9359,17 +9644,20 @@
       <c r="BB44" s="12">
         <v>852</v>
       </c>
-      <c r="BC44">
+      <c r="BC44" s="12">
         <v>810</v>
       </c>
-      <c r="BD44">
+      <c r="BD44" s="12">
         <v>794</v>
       </c>
-      <c r="BE44">
+      <c r="BE44" s="12">
         <v>860</v>
       </c>
-    </row>
-    <row r="45" spans="1:57">
+      <c r="BF44" s="12">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -9462,17 +9750,20 @@
       <c r="BB45" s="12">
         <v>903</v>
       </c>
-      <c r="BC45">
+      <c r="BC45" s="12">
         <v>855</v>
       </c>
-      <c r="BD45">
+      <c r="BD45" s="12">
         <v>830</v>
       </c>
-      <c r="BE45">
+      <c r="BE45" s="12">
         <v>910</v>
       </c>
-    </row>
-    <row r="46" spans="1:57">
+      <c r="BF45" s="12">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -9563,17 +9854,20 @@
       <c r="BB46" s="12">
         <v>251</v>
       </c>
-      <c r="BC46">
+      <c r="BC46" s="12">
         <v>300</v>
       </c>
-      <c r="BD46">
+      <c r="BD46" s="12">
         <v>527</v>
       </c>
-      <c r="BE46">
+      <c r="BE46" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="47" spans="1:57">
+      <c r="BF46" s="12">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
@@ -9660,17 +9954,20 @@
       <c r="BB47" s="12">
         <v>1</v>
       </c>
-      <c r="BC47">
+      <c r="BC47" s="12">
         <v>1</v>
       </c>
-      <c r="BD47">
+      <c r="BD47" s="12">
         <v>1</v>
       </c>
-      <c r="BE47">
+      <c r="BE47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:57">
+      <c r="BF47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -9725,8 +10022,12 @@
       <c r="AZ48" s="12"/>
       <c r="BA48" s="12"/>
       <c r="BB48" s="12"/>
-    </row>
-    <row r="49" spans="1:57">
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
@@ -9783,8 +10084,12 @@
       <c r="AZ49" s="12"/>
       <c r="BA49" s="12"/>
       <c r="BB49" s="12"/>
-    </row>
-    <row r="50" spans="1:57">
+      <c r="BC49" s="12"/>
+      <c r="BD49" s="12"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="12"/>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -9899,17 +10204,20 @@
       <c r="BB50" s="12">
         <v>24</v>
       </c>
-      <c r="BC50">
+      <c r="BC50" s="12">
         <v>25</v>
       </c>
-      <c r="BD50">
+      <c r="BD50" s="12">
         <v>25</v>
       </c>
-      <c r="BE50">
+      <c r="BE50" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:57">
+      <c r="BF50" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -10000,17 +10308,20 @@
       <c r="BB51" s="12">
         <v>19</v>
       </c>
-      <c r="BC51">
+      <c r="BC51" s="12">
         <v>20</v>
       </c>
-      <c r="BD51">
+      <c r="BD51" s="12">
         <v>20</v>
       </c>
-      <c r="BE51">
+      <c r="BE51" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:57">
+      <c r="BF51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -10101,17 +10412,20 @@
       <c r="BB52" s="12">
         <v>4</v>
       </c>
-      <c r="BC52">
+      <c r="BC52" s="12">
         <v>5</v>
       </c>
-      <c r="BD52">
+      <c r="BD52" s="12">
         <v>5</v>
       </c>
-      <c r="BE52">
+      <c r="BE52" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:57">
+      <c r="BF52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -10226,17 +10540,20 @@
       <c r="BB53" s="12">
         <v>34</v>
       </c>
-      <c r="BC53">
+      <c r="BC53" s="12">
         <v>33</v>
       </c>
-      <c r="BD53">
+      <c r="BD53" s="12">
         <v>33</v>
       </c>
-      <c r="BE53">
+      <c r="BE53" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:57">
+      <c r="BF53" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -10351,17 +10668,20 @@
       <c r="BB54" s="12">
         <v>53</v>
       </c>
-      <c r="BC54">
+      <c r="BC54" s="12">
         <v>53</v>
       </c>
-      <c r="BD54">
+      <c r="BD54" s="12">
         <v>53</v>
       </c>
-      <c r="BE54">
+      <c r="BE54" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:57">
+      <c r="BF54" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -10476,17 +10796,20 @@
       <c r="BB55" s="12">
         <v>88</v>
       </c>
-      <c r="BC55">
+      <c r="BC55" s="12">
         <v>94</v>
       </c>
-      <c r="BD55">
+      <c r="BD55" s="12">
         <v>85</v>
       </c>
-      <c r="BE55">
+      <c r="BE55" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:57">
+      <c r="BF55" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -10573,17 +10896,20 @@
       <c r="BB56" s="12">
         <v>1</v>
       </c>
-      <c r="BC56">
+      <c r="BC56" s="12">
         <v>1</v>
       </c>
-      <c r="BD56">
+      <c r="BD56" s="12">
         <v>1</v>
       </c>
-      <c r="BE56">
+      <c r="BE56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:57">
+      <c r="BF56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -10638,8 +10964,12 @@
       <c r="AZ57" s="12"/>
       <c r="BA57" s="12"/>
       <c r="BB57" s="12"/>
-    </row>
-    <row r="58" spans="1:57">
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -10754,17 +11084,20 @@
       <c r="BB58" s="12">
         <v>9</v>
       </c>
-      <c r="BC58">
+      <c r="BC58" s="12">
         <v>9</v>
       </c>
-      <c r="BD58">
+      <c r="BD58" s="12">
         <v>9</v>
       </c>
-      <c r="BE58">
+      <c r="BE58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:57">
+      <c r="BF58" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -10855,17 +11188,20 @@
       <c r="BB59" s="12">
         <v>8</v>
       </c>
-      <c r="BC59">
+      <c r="BC59" s="12">
         <v>8</v>
       </c>
-      <c r="BD59">
+      <c r="BD59" s="12">
         <v>8</v>
       </c>
-      <c r="BE59">
+      <c r="BE59" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:57">
+      <c r="BF59" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
@@ -10956,17 +11292,20 @@
       <c r="BB60" s="12">
         <v>1</v>
       </c>
-      <c r="BC60">
+      <c r="BC60" s="12">
         <v>1</v>
       </c>
-      <c r="BD60">
+      <c r="BD60" s="12">
         <v>1</v>
       </c>
-      <c r="BE60">
+      <c r="BE60" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:57">
+      <c r="BF60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
@@ -11081,17 +11420,20 @@
       <c r="BB61" s="12">
         <v>39</v>
       </c>
-      <c r="BC61">
+      <c r="BC61" s="12">
         <v>39</v>
       </c>
-      <c r="BD61">
+      <c r="BD61" s="12">
         <v>40</v>
       </c>
-      <c r="BE61">
+      <c r="BE61" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:57">
+      <c r="BF61" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
@@ -11206,17 +11548,20 @@
       <c r="BB62" s="12">
         <v>47</v>
       </c>
-      <c r="BC62">
+      <c r="BC62" s="12">
         <v>47</v>
       </c>
-      <c r="BD62">
+      <c r="BD62" s="12">
         <v>48</v>
       </c>
-      <c r="BE62">
+      <c r="BE62" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:57">
+      <c r="BF62" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>74</v>
       </c>
@@ -11329,17 +11674,20 @@
       <c r="BB63" s="12">
         <v>0</v>
       </c>
-      <c r="BC63">
+      <c r="BC63" s="12">
         <v>0</v>
       </c>
-      <c r="BD63">
+      <c r="BD63" s="12">
         <v>0</v>
       </c>
-      <c r="BE63">
+      <c r="BE63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:57">
+      <c r="BF63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
@@ -11430,17 +11778,20 @@
       <c r="BB64" s="12">
         <v>0</v>
       </c>
-      <c r="BC64">
+      <c r="BC64" s="12">
         <v>0</v>
       </c>
-      <c r="BD64">
+      <c r="BD64" s="12">
         <v>0</v>
       </c>
-      <c r="BE64">
+      <c r="BE64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:57">
+      <c r="BF64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -11495,8 +11846,12 @@
       <c r="AZ65" s="12"/>
       <c r="BA65" s="12"/>
       <c r="BB65" s="12"/>
-    </row>
-    <row r="66" spans="1:57">
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>81</v>
@@ -11553,8 +11908,12 @@
       <c r="AZ66" s="12"/>
       <c r="BA66" s="12"/>
       <c r="BB66" s="12"/>
-    </row>
-    <row r="67" spans="1:57">
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -11669,17 +12028,20 @@
       <c r="BB67" s="12">
         <v>158</v>
       </c>
-      <c r="BC67">
+      <c r="BC67" s="12">
         <v>162</v>
       </c>
-      <c r="BD67">
+      <c r="BD67" s="12">
         <v>164</v>
       </c>
-      <c r="BE67">
+      <c r="BE67" s="12">
         <v>177</v>
       </c>
-    </row>
-    <row r="68" spans="1:57">
+      <c r="BF67" s="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>82</v>
       </c>
@@ -11794,17 +12156,20 @@
       <c r="BB68" s="12">
         <v>249</v>
       </c>
-      <c r="BC68">
+      <c r="BC68" s="12">
         <v>256</v>
       </c>
-      <c r="BD68">
+      <c r="BD68" s="12">
         <v>271</v>
       </c>
-      <c r="BE68">
+      <c r="BE68" s="12">
         <v>286</v>
       </c>
-    </row>
-    <row r="69" spans="1:57">
+      <c r="BF68" s="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>82</v>
       </c>
@@ -11919,17 +12284,20 @@
       <c r="BB69" s="12">
         <v>210</v>
       </c>
-      <c r="BC69">
+      <c r="BC69" s="12">
         <v>205</v>
       </c>
-      <c r="BD69">
+      <c r="BD69" s="12">
         <v>250</v>
       </c>
-      <c r="BE69">
+      <c r="BE69" s="12">
         <v>268</v>
       </c>
-    </row>
-    <row r="70" spans="1:57">
+      <c r="BF69" s="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
@@ -12016,17 +12384,20 @@
       <c r="BB70" s="12">
         <v>9</v>
       </c>
-      <c r="BC70">
+      <c r="BC70" s="12">
         <v>9</v>
       </c>
-      <c r="BD70">
+      <c r="BD70" s="12">
         <v>9</v>
       </c>
-      <c r="BE70">
+      <c r="BE70" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:57">
+      <c r="BF70" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -12081,8 +12452,12 @@
       <c r="AZ71" s="12"/>
       <c r="BA71" s="12"/>
       <c r="BB71" s="12"/>
-    </row>
-    <row r="72" spans="1:57">
+      <c r="BC71" s="12"/>
+      <c r="BD71" s="12"/>
+      <c r="BE71" s="12"/>
+      <c r="BF71" s="12"/>
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -12197,17 +12572,20 @@
       <c r="BB72" s="12">
         <v>69</v>
       </c>
-      <c r="BC72">
+      <c r="BC72" s="12">
         <v>71</v>
       </c>
-      <c r="BD72">
+      <c r="BD72" s="12">
         <v>71</v>
       </c>
-      <c r="BE72">
+      <c r="BE72" s="12">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:57">
+      <c r="BF72" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -12322,17 +12700,20 @@
       <c r="BB73" s="12">
         <v>11</v>
       </c>
-      <c r="BC73">
+      <c r="BC73" s="12">
         <v>24</v>
       </c>
-      <c r="BD73">
+      <c r="BD73" s="12">
         <v>27</v>
       </c>
-      <c r="BE73">
+      <c r="BE73" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:57">
+      <c r="BF73" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -12447,17 +12828,20 @@
       <c r="BB74" s="12">
         <v>80</v>
       </c>
-      <c r="BC74">
+      <c r="BC74" s="12">
         <v>80</v>
       </c>
-      <c r="BD74">
+      <c r="BD74" s="12">
         <v>98</v>
       </c>
-      <c r="BE74">
+      <c r="BE74" s="12">
         <v>99</v>
       </c>
-    </row>
-    <row r="75" spans="1:57">
+      <c r="BF74" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>87</v>
       </c>
@@ -12564,17 +12948,20 @@
       <c r="BB75" s="12">
         <v>110</v>
       </c>
-      <c r="BC75">
+      <c r="BC75" s="12">
         <v>112</v>
       </c>
-      <c r="BD75">
+      <c r="BD75" s="12">
         <v>113</v>
       </c>
-      <c r="BE75">
+      <c r="BE75" s="12">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:57">
+      <c r="BF75" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -12629,8 +13016,12 @@
       <c r="AZ76" s="12"/>
       <c r="BA76" s="12"/>
       <c r="BB76" s="12"/>
-    </row>
-    <row r="77" spans="1:57">
+      <c r="BC76" s="12"/>
+      <c r="BD76" s="12"/>
+      <c r="BE76" s="12"/>
+      <c r="BF76" s="12"/>
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
@@ -12745,17 +13136,20 @@
       <c r="BB77" s="12">
         <v>48</v>
       </c>
-      <c r="BC77">
+      <c r="BC77" s="12">
         <v>55</v>
       </c>
-      <c r="BD77">
+      <c r="BD77" s="12">
         <v>66</v>
       </c>
-      <c r="BE77">
+      <c r="BE77" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:57">
+      <c r="BF77" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
@@ -12870,17 +13264,20 @@
       <c r="BB78" s="12">
         <v>29</v>
       </c>
-      <c r="BC78">
+      <c r="BC78" s="12">
         <v>43</v>
       </c>
-      <c r="BD78">
+      <c r="BD78" s="12">
         <v>50</v>
       </c>
-      <c r="BE78">
+      <c r="BE78" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:57">
+      <c r="BF78" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -12973,17 +13370,20 @@
       <c r="BB79" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BC79">
+      <c r="BC79" s="12">
         <v>17</v>
       </c>
-      <c r="BD79" t="s">
+      <c r="BD79" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BE79">
+      <c r="BE79" s="12">
         <v>127</v>
       </c>
-    </row>
-    <row r="80" spans="1:57">
+      <c r="BF79" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
@@ -13072,17 +13472,20 @@
       <c r="BB80" s="12">
         <v>2</v>
       </c>
-      <c r="BC80">
+      <c r="BC80" s="12">
         <v>2</v>
       </c>
-      <c r="BD80">
+      <c r="BD80" s="12">
         <v>2</v>
       </c>
-      <c r="BE80">
+      <c r="BE80" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:57">
+      <c r="BF80" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
@@ -13195,17 +13598,20 @@
       <c r="BB81" s="12">
         <v>9</v>
       </c>
-      <c r="BC81">
+      <c r="BC81" s="12">
         <v>9</v>
       </c>
-      <c r="BD81">
+      <c r="BD81" s="12">
         <v>9</v>
       </c>
-      <c r="BE81">
+      <c r="BE81" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:57">
+      <c r="BF81" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -13260,8 +13666,12 @@
       <c r="AZ82" s="12"/>
       <c r="BA82" s="12"/>
       <c r="BB82" s="12"/>
-    </row>
-    <row r="83" spans="1:57">
+      <c r="BC82" s="12"/>
+      <c r="BD82" s="12"/>
+      <c r="BE82" s="12"/>
+      <c r="BF82" s="12"/>
+    </row>
+    <row r="83" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -13322,17 +13732,20 @@
       <c r="BB83" s="12">
         <v>112</v>
       </c>
-      <c r="BC83">
+      <c r="BC83" s="12">
         <v>121</v>
       </c>
-      <c r="BD83">
+      <c r="BD83" s="12">
         <v>130</v>
       </c>
-      <c r="BE83">
+      <c r="BE83" s="12">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:57">
+      <c r="BF83" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -13393,17 +13806,20 @@
       <c r="BB84" s="12">
         <v>5</v>
       </c>
-      <c r="BC84">
+      <c r="BC84" s="12">
         <v>8</v>
       </c>
-      <c r="BD84">
+      <c r="BD84" s="12">
         <v>10</v>
       </c>
-      <c r="BE84">
+      <c r="BE84" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:57">
+      <c r="BF84" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -13464,17 +13880,20 @@
       <c r="BB85" s="12">
         <v>16</v>
       </c>
-      <c r="BC85">
+      <c r="BC85" s="12">
         <v>16</v>
       </c>
-      <c r="BD85">
+      <c r="BD85" s="12">
         <v>17</v>
       </c>
-      <c r="BE85">
+      <c r="BE85" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:57">
+      <c r="BF85" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -13529,6 +13948,10 @@
       <c r="AZ86" s="12"/>
       <c r="BA86" s="12"/>
       <c r="BB86" s="12"/>
+      <c r="BC86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="12"/>
+      <c r="BF86" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56940EA8-7F24-114A-BDBD-0EFF76784996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F5A2BA-E259-1548-A8CD-214E9F8DA2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="1220" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -471,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,6 +500,8 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -844,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,16 +879,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>4797</v>
+        <v>5016</v>
       </c>
       <c r="C2" s="13">
-        <v>2328</v>
+        <v>2426</v>
       </c>
       <c r="D2" s="13">
-        <v>2460</v>
+        <v>2580</v>
       </c>
       <c r="E2" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C4" s="8">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4" s="8">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -928,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="C5" s="8">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D5" s="8">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -945,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="C6" s="8">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="D6" s="8">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -962,13 +964,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="C7" s="8">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D7" s="8">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -979,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="C8" s="8">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="D8" s="8">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -996,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="C9" s="8">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D9" s="8">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1013,16 +1015,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C10" s="8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D10" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C11" s="8">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D11" s="8">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1053,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1066,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -1147,8 +1149,11 @@
       <c r="AB1" s="5">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="5">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1179,8 +1184,9 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1265,8 +1271,11 @@
       <c r="AB3" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1351,8 +1360,11 @@
       <c r="AB4" s="8">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1437,8 +1449,11 @@
       <c r="AB5" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1523,8 +1538,11 @@
       <c r="AB6" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1607,8 +1625,11 @@
       <c r="AB7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1637,8 +1658,9 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1667,8 +1689,9 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1697,8 +1720,9 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1727,20 +1751,21 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1760,15 +1785,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1803,7 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1812,7 +1838,7 @@
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1912,8 +1938,11 @@
       <c r="AG2" s="5">
         <v>43952</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" s="21">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2013,8 +2042,11 @@
       <c r="AG3" s="8">
         <v>621</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2114,8 +2146,11 @@
       <c r="AG4" s="8">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2215,8 +2250,11 @@
       <c r="AG5" s="8">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2316,8 +2354,11 @@
       <c r="AG6" s="8">
         <v>889</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH6">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2417,8 +2458,11 @@
       <c r="AG7" s="8">
         <v>722</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH7">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2518,8 +2562,11 @@
       <c r="AG8" s="8">
         <v>476</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2619,8 +2666,11 @@
       <c r="AG9" s="8">
         <v>711</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2720,8 +2770,11 @@
       <c r="AG10" s="8">
         <v>692</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2820,6 +2873,9 @@
       </c>
       <c r="AG11" s="8">
         <v>66</v>
+      </c>
+      <c r="AH11">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2830,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2845,7 +2901,7 @@
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -2933,8 +2989,11 @@
       <c r="AC1" s="5">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="5">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -3022,8 +3081,11 @@
       <c r="AC2" s="8">
         <v>726</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="8">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -3111,8 +3173,11 @@
       <c r="AC3" s="8">
         <v>773</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="8">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -3200,8 +3265,11 @@
       <c r="AC4" s="8">
         <v>2287</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="8">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -3289,8 +3357,11 @@
       <c r="AC5" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3378,8 +3449,11 @@
       <c r="AC6" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -3463,8 +3537,11 @@
       <c r="AC7" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -3552,8 +3629,11 @@
       <c r="AC8" s="8">
         <v>889</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="8">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -3641,8 +3721,11 @@
       <c r="AC9" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -3730,8 +3813,11 @@
       <c r="AC10" s="8">
         <v>1083</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="8">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -3819,8 +3905,11 @@
       <c r="AC11" s="8">
         <v>913</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="8">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3908,8 +3997,11 @@
       <c r="AC12" s="8">
         <v>2782</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="8">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -3997,8 +4089,11 @@
       <c r="AC13" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4028,8 +4123,9 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4059,8 +4155,9 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4090,6 +4187,7 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -4107,10 +4205,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4118,7 +4216,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -4161,8 +4259,11 @@
       <c r="N1" s="5">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="20">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -4206,8 +4307,11 @@
       <c r="N2" s="19">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4250,8 +4354,11 @@
       <c r="N3" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4294,8 +4401,11 @@
       <c r="N4" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4338,8 +4448,11 @@
       <c r="N5" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4382,8 +4495,11 @@
       <c r="N6" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4426,8 +4542,11 @@
       <c r="N7" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4470,8 +4589,11 @@
       <c r="N8" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4514,8 +4636,11 @@
       <c r="N9" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4558,8 +4683,11 @@
       <c r="N10" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -4602,8 +4730,11 @@
       <c r="N11" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4646,17 +4777,20 @@
       <c r="N12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4681,11 +4815,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF86"/>
+  <dimension ref="A1:BG86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK19" sqref="BK19"/>
+      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG67" sqref="BG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4697,7 +4831,7 @@
     <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -4868,8 +5002,11 @@
       <c r="BF1" s="5">
         <v>43952</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG1" s="20">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4931,7 +5068,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -5094,8 +5231,11 @@
       <c r="BF3" s="12">
         <v>22004</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG3">
+        <v>23102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -5270,8 +5410,11 @@
       <c r="BF4" s="12">
         <v>4797</v>
       </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG4">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5434,8 +5577,11 @@
       <c r="BF5" s="12">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5578,8 +5724,11 @@
       <c r="BF6" s="12">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5639,7 +5788,7 @@
       <c r="BE7" s="12"/>
       <c r="BF7" s="12"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -5710,8 +5859,11 @@
       <c r="BF8" s="12">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -5850,8 +6002,11 @@
       <c r="BF9" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -5990,8 +6145,11 @@
       <c r="BF10" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -6130,8 +6288,11 @@
       <c r="BF11" s="12">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -6270,8 +6431,11 @@
       <c r="BF12" s="12">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6331,7 +6495,7 @@
       <c r="BE13" s="12"/>
       <c r="BF13" s="12"/>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -6393,7 +6557,7 @@
       <c r="BE14" s="12"/>
       <c r="BF14" s="12"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -6457,7 +6621,7 @@
       <c r="BE15" s="12"/>
       <c r="BF15" s="12"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -6598,8 +6762,11 @@
       <c r="BF16" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -6704,8 +6871,11 @@
       <c r="BF17" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -6810,8 +6980,11 @@
       <c r="BF18" s="12">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -6946,8 +7119,11 @@
       <c r="BF19" s="12">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG19">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -7082,8 +7258,11 @@
       <c r="BF20" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG20">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -7218,8 +7397,11 @@
       <c r="BF21" s="12">
         <v>737</v>
       </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG21">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7279,7 +7461,7 @@
       <c r="BE22" s="12"/>
       <c r="BF22" s="12"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -7341,7 +7523,7 @@
       <c r="BE23" s="12"/>
       <c r="BF23" s="12"/>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -7482,8 +7664,11 @@
       <c r="BF24" s="12">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -7588,8 +7773,11 @@
       <c r="BF25" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -7694,8 +7882,11 @@
       <c r="BF26" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -7830,8 +8021,11 @@
       <c r="BF27" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -7966,8 +8160,11 @@
       <c r="BF28" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -8102,8 +8299,11 @@
       <c r="BF29" s="12">
         <v>809</v>
       </c>
-    </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG29">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8163,7 +8363,7 @@
       <c r="BE30" s="12"/>
       <c r="BF30" s="12"/>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>58</v>
@@ -8225,7 +8425,7 @@
       <c r="BE31" s="12"/>
       <c r="BF31" s="12"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -8358,8 +8558,11 @@
       <c r="BF32" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -8460,8 +8663,11 @@
       <c r="BF33" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -8562,8 +8768,11 @@
       <c r="BF34" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -8694,8 +8903,11 @@
       <c r="BF35" s="12">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -8824,8 +9036,11 @@
       <c r="BF36" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG36">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -8958,8 +9173,11 @@
       <c r="BF37" s="12">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -9048,8 +9266,11 @@
       <c r="BF38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9109,7 +9330,7 @@
       <c r="BE39" s="12"/>
       <c r="BF39" s="12"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
@@ -9171,7 +9392,7 @@
       <c r="BE40" s="12"/>
       <c r="BF40" s="12"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -9308,8 +9529,11 @@
       <c r="BF41" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -9414,8 +9638,11 @@
       <c r="BF42" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -9520,8 +9747,11 @@
       <c r="BF43" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG43">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -9656,8 +9886,11 @@
       <c r="BF44" s="12">
         <v>844</v>
       </c>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG44">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -9762,8 +9995,11 @@
       <c r="BF45" s="12">
         <v>896</v>
       </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG45">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -9866,8 +10102,11 @@
       <c r="BF46" s="12">
         <v>452</v>
       </c>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG46">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
@@ -9966,8 +10205,11 @@
       <c r="BF47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10027,7 +10269,7 @@
       <c r="BE48" s="12"/>
       <c r="BF48" s="12"/>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
@@ -10089,7 +10331,7 @@
       <c r="BE49" s="12"/>
       <c r="BF49" s="12"/>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -10216,8 +10458,11 @@
       <c r="BF50" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -10320,8 +10565,11 @@
       <c r="BF51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -10424,8 +10672,11 @@
       <c r="BF52" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -10552,8 +10803,11 @@
       <c r="BF53" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -10680,8 +10934,11 @@
       <c r="BF54" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -10808,8 +11065,11 @@
       <c r="BF55" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -10908,8 +11168,11 @@
       <c r="BF56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -10969,7 +11232,7 @@
       <c r="BE57" s="12"/>
       <c r="BF57" s="12"/>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -11096,8 +11359,11 @@
       <c r="BF58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -11200,8 +11466,11 @@
       <c r="BF59" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
@@ -11304,8 +11573,11 @@
       <c r="BF60" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
@@ -11432,8 +11704,11 @@
       <c r="BF61" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG61">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
@@ -11560,8 +11835,11 @@
       <c r="BF62" s="12">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>74</v>
       </c>
@@ -11686,8 +11964,11 @@
       <c r="BF63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
@@ -11790,8 +12071,11 @@
       <c r="BF64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -11851,7 +12135,7 @@
       <c r="BE65" s="12"/>
       <c r="BF65" s="12"/>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>81</v>
@@ -11913,7 +12197,7 @@
       <c r="BE66" s="12"/>
       <c r="BF66" s="12"/>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -12040,8 +12324,11 @@
       <c r="BF67" s="12">
         <v>202</v>
       </c>
-    </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG67">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>82</v>
       </c>
@@ -12169,7 +12456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>82</v>
       </c>
@@ -12294,10 +12581,10 @@
         <v>268</v>
       </c>
       <c r="BF69" s="12">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
@@ -12396,8 +12683,11 @@
       <c r="BF70" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -12457,7 +12747,7 @@
       <c r="BE71" s="12"/>
       <c r="BF71" s="12"/>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -12584,8 +12874,11 @@
       <c r="BF72" s="12">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG72">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -12712,8 +13005,11 @@
       <c r="BF73" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -12840,8 +13136,11 @@
       <c r="BF74" s="12">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG74">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>87</v>
       </c>
@@ -12960,8 +13259,11 @@
       <c r="BF75" s="12">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -13021,7 +13323,7 @@
       <c r="BE76" s="12"/>
       <c r="BF76" s="12"/>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
@@ -13148,8 +13450,11 @@
       <c r="BF77" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
@@ -13276,8 +13581,11 @@
       <c r="BF78" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -13382,8 +13690,11 @@
       <c r="BF79" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
@@ -13484,8 +13795,11 @@
       <c r="BF80" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
@@ -13610,8 +13924,11 @@
       <c r="BF81" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -13671,7 +13988,7 @@
       <c r="BE82" s="12"/>
       <c r="BF82" s="12"/>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -13744,8 +14061,11 @@
       <c r="BF83" s="12">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG83">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -13818,8 +14138,11 @@
       <c r="BF84" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -13892,8 +14215,11 @@
       <c r="BF85" s="12">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BG85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>

--- a/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
+++ b/COVID19_DCHealthStatisticsDataV3 (NewFileStructure).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bircant2001/Box/DCHealthStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F5A2BA-E259-1548-A8CD-214E9F8DA2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E5FA1-9F30-3F4B-9A42-7870E96FF7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1220" windowWidth="51200" windowHeight="28340" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t xml:space="preserve">Due to the rapidly evolving nature of this public health crisis, DC is updating this dashboard daily between 8 am - 10 am based on the most recently available data. </t>
   </si>
@@ -471,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -500,8 +500,6 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -846,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB097C5-61FE-3342-9C03-F1C59662C9D7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,16 +877,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="13">
-        <v>5016</v>
+        <v>5170</v>
       </c>
       <c r="C2" s="13">
-        <v>2426</v>
+        <v>2498</v>
       </c>
       <c r="D2" s="13">
-        <v>2580</v>
+        <v>2663</v>
       </c>
       <c r="E2" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,13 +894,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -913,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="13">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8">
         <v>72</v>
@@ -930,16 +928,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="13">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="C5" s="8">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D5" s="8">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="E5" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="C6" s="8">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D6" s="8">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -964,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="13">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="C7" s="8">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D7" s="8">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -981,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="13">
-        <v>881</v>
+        <v>908</v>
       </c>
       <c r="C8" s="8">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D8" s="8">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -998,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="13">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="C9" s="8">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D9" s="8">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -1015,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="13">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C10" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D10" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E10" s="12">
         <v>2</v>
@@ -1032,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C11" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D11" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1055,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1064,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="5">
         <v>43926</v>
@@ -1152,8 +1150,11 @@
       <c r="AC1" s="5">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1186,9 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1274,8 +1276,11 @@
       <c r="AC3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1363,8 +1368,11 @@
       <c r="AC4" s="8">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1452,8 +1460,11 @@
       <c r="AC5" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1541,8 +1552,11 @@
       <c r="AC6" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1628,8 +1642,11 @@
       <c r="AC7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1659,8 +1676,9 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1690,8 +1708,9 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1721,8 +1740,9 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1752,20 +1772,21 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1791,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1824,7 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1837,8 +1858,10 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
-    </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -1938,11 +1961,14 @@
       <c r="AG2" s="5">
         <v>43952</v>
       </c>
-      <c r="AH2" s="21">
+      <c r="AH2" s="5">
         <v>43953</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2042,11 +2068,14 @@
       <c r="AG3" s="8">
         <v>621</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="8">
         <v>649</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI3" s="8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2146,11 +2175,14 @@
       <c r="AG4" s="8">
         <v>318</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="8">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2250,11 +2282,14 @@
       <c r="AG5" s="8">
         <v>302</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="8">
         <v>311</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2354,11 +2389,14 @@
       <c r="AG6" s="8">
         <v>889</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="8">
         <v>931</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="8">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2458,11 +2496,14 @@
       <c r="AG7" s="8">
         <v>722</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="8">
         <v>768</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="8">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2562,11 +2603,14 @@
       <c r="AG8" s="8">
         <v>476</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="8">
         <v>489</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2666,11 +2710,14 @@
       <c r="AG9" s="8">
         <v>711</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="8">
         <v>751</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="8">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2770,11 +2817,14 @@
       <c r="AG10" s="8">
         <v>692</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="8">
         <v>713</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="8">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2874,8 +2924,11 @@
       <c r="AG11" s="8">
         <v>66</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="8">
         <v>79</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2901,7 +2954,7 @@
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
@@ -2992,8 +3045,11 @@
       <c r="AD1" s="5">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE1" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -3084,8 +3140,11 @@
       <c r="AD2" s="8">
         <v>769</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE2" s="8">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -3176,8 +3235,11 @@
       <c r="AD3" s="8">
         <v>789</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE3" s="8">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -3268,8 +3330,11 @@
       <c r="AD4" s="8">
         <v>2341</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" s="8">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -3360,8 +3425,11 @@
       <c r="AD5" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -3452,8 +3520,11 @@
       <c r="AD6" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -3540,8 +3611,11 @@
       <c r="AD7" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -3632,8 +3706,11 @@
       <c r="AD8" s="8">
         <v>990</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="8">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -3724,8 +3801,11 @@
       <c r="AD9" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -3816,8 +3896,11 @@
       <c r="AD10" s="8">
         <v>1189</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="8">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -3908,8 +3991,11 @@
       <c r="AD11" s="8">
         <v>954</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="8">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -4000,8 +4086,11 @@
       <c r="AD12" s="8">
         <v>2854</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="8">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -4092,8 +4181,11 @@
       <c r="AD13" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -4124,8 +4216,9 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -4156,8 +4249,9 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -4188,6 +4282,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -4205,10 +4300,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212D455-FB8B-F64A-88A0-EC0232E3F0CE}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4216,7 +4311,7 @@
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -4259,11 +4354,14 @@
       <c r="N1" s="5">
         <v>43952</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="5">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -4307,11 +4405,14 @@
       <c r="N2" s="19">
         <v>240</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="19">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -4354,11 +4455,14 @@
       <c r="N3" s="8">
         <v>21</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -4401,11 +4505,14 @@
       <c r="N4" s="8">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -4448,11 +4555,14 @@
       <c r="N5" s="8">
         <v>15</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -4495,11 +4605,14 @@
       <c r="N6" s="8">
         <v>30</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -4542,11 +4655,14 @@
       <c r="N7" s="8">
         <v>38</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -4589,11 +4705,14 @@
       <c r="N8" s="8">
         <v>29</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -4636,11 +4755,14 @@
       <c r="N9" s="8">
         <v>32</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -4683,11 +4805,14 @@
       <c r="N10" s="8">
         <v>52</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -4730,11 +4855,14 @@
       <c r="N11" s="8">
         <v>9</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -4777,20 +4905,23 @@
       <c r="N12" s="8">
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4810,16 +4941,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG86"/>
+  <dimension ref="A1:BH86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG67" sqref="BG67"/>
+      <pane xSplit="2" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ13" sqref="BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4831,7 +4963,7 @@
     <col min="17" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5">
@@ -5002,11 +5134,14 @@
       <c r="BF1" s="5">
         <v>43952</v>
       </c>
-      <c r="BG1" s="20">
+      <c r="BG1" s="5">
         <v>43953</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH1" s="5">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -5067,8 +5202,10 @@
       <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -5231,11 +5368,14 @@
       <c r="BF3" s="12">
         <v>22004</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="12">
         <v>23102</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH3" s="12">
+        <v>23795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -5410,11 +5550,14 @@
       <c r="BF4" s="12">
         <v>4797</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="12">
         <v>5016</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH4" s="12">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5577,11 +5720,14 @@
       <c r="BF5" s="12">
         <v>240</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="12">
         <v>251</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH5" s="12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -5724,11 +5870,14 @@
       <c r="BF6" s="12">
         <v>666</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="12">
         <v>666</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH6" s="12">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -5787,8 +5936,10 @@
       <c r="BD7" s="12"/>
       <c r="BE7" s="12"/>
       <c r="BF7" s="12"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
@@ -5859,11 +6010,14 @@
       <c r="BF8" s="12">
         <v>345</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="12">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH8" s="12">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -6002,11 +6156,14 @@
       <c r="BF9" s="12">
         <v>66</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="12">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH9" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -6145,11 +6302,14 @@
       <c r="BF10" s="12">
         <v>440</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH10" s="12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
@@ -6288,11 +6448,14 @@
       <c r="BF11" s="12">
         <v>241</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="12">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH11" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -6431,11 +6594,14 @@
       <c r="BF12" s="12">
         <v>199</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="12">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH12" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -6494,8 +6660,10 @@
       <c r="BD13" s="12"/>
       <c r="BE13" s="12"/>
       <c r="BF13" s="12"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>44</v>
@@ -6556,8 +6724,10 @@
       <c r="BD14" s="12"/>
       <c r="BE14" s="12"/>
       <c r="BF14" s="12"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -6620,8 +6790,10 @@
       <c r="BD15" s="12"/>
       <c r="BE15" s="12"/>
       <c r="BF15" s="12"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -6762,11 +6934,14 @@
       <c r="BF16" s="12">
         <v>95</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" s="12">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH16" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -6871,11 +7046,14 @@
       <c r="BF17" s="12">
         <v>35</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH17" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -6980,11 +7158,14 @@
       <c r="BF18" s="12">
         <v>60</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" s="12">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH18" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -7119,11 +7300,14 @@
       <c r="BF19" s="12">
         <v>214</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" s="12">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH19" s="12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -7258,11 +7442,14 @@
       <c r="BF20" s="12">
         <v>29</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" s="12">
         <v>249</v>
       </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH20" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -7397,11 +7584,14 @@
       <c r="BF21" s="12">
         <v>737</v>
       </c>
-      <c r="BG21">
+      <c r="BG21" s="12">
         <v>737</v>
       </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH21" s="12">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -7460,8 +7650,10 @@
       <c r="BD22" s="12"/>
       <c r="BE22" s="12"/>
       <c r="BF22" s="12"/>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -7522,8 +7714,10 @@
       <c r="BD23" s="12"/>
       <c r="BE23" s="12"/>
       <c r="BF23" s="12"/>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -7664,11 +7858,14 @@
       <c r="BF24" s="12">
         <v>101</v>
       </c>
-      <c r="BG24">
+      <c r="BG24" s="12">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH24" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -7773,11 +7970,14 @@
       <c r="BF25" s="12">
         <v>46</v>
       </c>
-      <c r="BG25">
+      <c r="BG25" s="12">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH25" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -7882,11 +8082,14 @@
       <c r="BF26" s="12">
         <v>55</v>
       </c>
-      <c r="BG26">
+      <c r="BG26" s="12">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH26" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -8021,11 +8224,14 @@
       <c r="BF27" s="12">
         <v>66</v>
       </c>
-      <c r="BG27">
+      <c r="BG27" s="12">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH27" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -8160,11 +8366,14 @@
       <c r="BF28" s="12">
         <v>112</v>
       </c>
-      <c r="BG28">
+      <c r="BG28" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH28" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -8299,11 +8508,14 @@
       <c r="BF29" s="12">
         <v>809</v>
       </c>
-      <c r="BG29">
+      <c r="BG29" s="12">
         <v>809</v>
       </c>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH29" s="12">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="12"/>
@@ -8362,8 +8574,10 @@
       <c r="BD30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BF30" s="12"/>
-    </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>58</v>
@@ -8424,8 +8638,10 @@
       <c r="BD31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BF31" s="12"/>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -8558,11 +8774,14 @@
       <c r="BF32" s="12">
         <v>61</v>
       </c>
-      <c r="BG32">
+      <c r="BG32" s="12">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH32" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -8663,11 +8882,14 @@
       <c r="BF33" s="12">
         <v>44</v>
       </c>
-      <c r="BG33">
+      <c r="BG33" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH33" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -8768,11 +8990,14 @@
       <c r="BF34" s="12">
         <v>16</v>
       </c>
-      <c r="BG34">
+      <c r="BG34" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
@@ -8903,11 +9128,14 @@
       <c r="BF35" s="12">
         <v>36</v>
       </c>
-      <c r="BG35">
+      <c r="BG35" s="12">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH35" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
@@ -9036,11 +9264,14 @@
       <c r="BF36" s="12">
         <v>80</v>
       </c>
-      <c r="BG36">
+      <c r="BG36" s="12">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH36" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -9173,11 +9404,14 @@
       <c r="BF37" s="12">
         <v>187</v>
       </c>
-      <c r="BG37">
+      <c r="BG37" s="12">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH37" s="12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
@@ -9266,11 +9500,14 @@
       <c r="BF38" s="12">
         <v>1</v>
       </c>
-      <c r="BG38">
+      <c r="BG38" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
@@ -9329,8 +9566,10 @@
       <c r="BD39" s="12"/>
       <c r="BE39" s="12"/>
       <c r="BF39" s="12"/>
-    </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
@@ -9391,8 +9630,10 @@
       <c r="BD40" s="12"/>
       <c r="BE40" s="12"/>
       <c r="BF40" s="12"/>
-    </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -9529,11 +9770,14 @@
       <c r="BF41" s="12">
         <v>144</v>
       </c>
-      <c r="BG41">
+      <c r="BG41" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH41" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -9638,11 +9882,14 @@
       <c r="BF42" s="12">
         <v>52</v>
       </c>
-      <c r="BG42">
+      <c r="BG42" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH42" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -9747,11 +9994,14 @@
       <c r="BF43" s="12">
         <v>89</v>
       </c>
-      <c r="BG43">
+      <c r="BG43" s="12">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH43" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -9886,11 +10136,14 @@
       <c r="BF44" s="12">
         <v>844</v>
       </c>
-      <c r="BG44">
+      <c r="BG44" s="12">
         <v>832</v>
       </c>
-    </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH44" s="12">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -9995,11 +10248,14 @@
       <c r="BF45" s="12">
         <v>896</v>
       </c>
-      <c r="BG45">
+      <c r="BG45" s="12">
         <v>884</v>
       </c>
-    </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH45" s="12">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>63</v>
       </c>
@@ -10102,11 +10358,14 @@
       <c r="BF46" s="12">
         <v>452</v>
       </c>
-      <c r="BG46">
+      <c r="BG46" s="12">
         <v>456</v>
       </c>
-    </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH46" s="12">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>63</v>
       </c>
@@ -10205,11 +10464,14 @@
       <c r="BF47" s="12">
         <v>1</v>
       </c>
-      <c r="BG47">
+      <c r="BG47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="12"/>
@@ -10268,8 +10530,10 @@
       <c r="BD48" s="12"/>
       <c r="BE48" s="12"/>
       <c r="BF48" s="12"/>
-    </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
@@ -10330,8 +10594,10 @@
       <c r="BD49" s="12"/>
       <c r="BE49" s="12"/>
       <c r="BF49" s="12"/>
-    </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG49" s="12"/>
+      <c r="BH49" s="12"/>
+    </row>
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -10458,11 +10724,14 @@
       <c r="BF50" s="12">
         <v>26</v>
       </c>
-      <c r="BG50">
+      <c r="BG50" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH50" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -10565,11 +10834,14 @@
       <c r="BF51" s="12">
         <v>19</v>
       </c>
-      <c r="BG51">
+      <c r="BG51" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -10672,11 +10944,14 @@
       <c r="BF52" s="12">
         <v>6</v>
       </c>
-      <c r="BG52">
+      <c r="BG52" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH52" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -10803,11 +11078,14 @@
       <c r="BF53" s="12">
         <v>33</v>
       </c>
-      <c r="BG53">
+      <c r="BG53" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH53" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -10934,11 +11212,14 @@
       <c r="BF54" s="12">
         <v>52</v>
       </c>
-      <c r="BG54">
+      <c r="BG54" s="12">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH54" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -11065,11 +11346,14 @@
       <c r="BF55" s="12">
         <v>98</v>
       </c>
-      <c r="BG55">
+      <c r="BG55" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH55" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -11168,11 +11452,14 @@
       <c r="BF56" s="12">
         <v>1</v>
       </c>
-      <c r="BG56">
+      <c r="BG56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="12"/>
@@ -11231,8 +11518,10 @@
       <c r="BD57" s="12"/>
       <c r="BE57" s="12"/>
       <c r="BF57" s="12"/>
-    </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -11359,11 +11648,14 @@
       <c r="BF58" s="12">
         <v>10</v>
       </c>
-      <c r="BG58">
+      <c r="BG58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH58" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
@@ -11466,11 +11758,14 @@
       <c r="BF59" s="12">
         <v>9</v>
       </c>
-      <c r="BG59">
+      <c r="BG59" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH59" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
@@ -11573,11 +11868,14 @@
       <c r="BF60" s="12">
         <v>1</v>
       </c>
-      <c r="BG60">
+      <c r="BG60" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
@@ -11704,11 +12002,14 @@
       <c r="BF61" s="12">
         <v>40</v>
       </c>
-      <c r="BG61">
+      <c r="BG61" s="12">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH61" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>74</v>
       </c>
@@ -11835,11 +12136,14 @@
       <c r="BF62" s="12">
         <v>49</v>
       </c>
-      <c r="BG62">
+      <c r="BG62" s="12">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH62" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>74</v>
       </c>
@@ -11964,11 +12268,14 @@
       <c r="BF63" s="12">
         <v>0</v>
       </c>
-      <c r="BG63">
+      <c r="BG63" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
@@ -12071,11 +12378,14 @@
       <c r="BF64" s="12">
         <v>0</v>
       </c>
-      <c r="BG64">
+      <c r="BG64" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="12"/>
@@ -12134,8 +12444,10 @@
       <c r="BD65" s="12"/>
       <c r="BE65" s="12"/>
       <c r="BF65" s="12"/>
-    </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
         <v>81</v>
@@ -12196,8 +12508,10 @@
       <c r="BD66" s="12"/>
       <c r="BE66" s="12"/>
       <c r="BF66" s="12"/>
-    </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+    </row>
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
@@ -12324,11 +12638,14 @@
       <c r="BF67" s="12">
         <v>202</v>
       </c>
-      <c r="BG67">
+      <c r="BG67" s="12">
         <v>208</v>
       </c>
-    </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH67" s="12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>82</v>
       </c>
@@ -12455,8 +12772,14 @@
       <c r="BF68" s="12">
         <v>296</v>
       </c>
-    </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG68" s="12">
+        <v>299</v>
+      </c>
+      <c r="BH68" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>82</v>
       </c>
@@ -12583,8 +12906,14 @@
       <c r="BF69" s="12">
         <v>282</v>
       </c>
-    </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG69" s="12">
+        <v>269</v>
+      </c>
+      <c r="BH69" s="12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>82</v>
       </c>
@@ -12683,11 +13012,14 @@
       <c r="BF70" s="12">
         <v>9</v>
       </c>
-      <c r="BG70">
+      <c r="BG70" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH70" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="12"/>
@@ -12746,8 +13078,10 @@
       <c r="BD71" s="12"/>
       <c r="BE71" s="12"/>
       <c r="BF71" s="12"/>
-    </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG71" s="12"/>
+      <c r="BH71" s="12"/>
+    </row>
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -12874,11 +13208,14 @@
       <c r="BF72" s="12">
         <v>73</v>
       </c>
-      <c r="BG72">
+      <c r="BG72" s="12">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH72" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>87</v>
       </c>
@@ -13005,11 +13342,14 @@
       <c r="BF73" s="12">
         <v>23</v>
       </c>
-      <c r="BG73">
+      <c r="BG73" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH73" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>87</v>
       </c>
@@ -13136,11 +13476,14 @@
       <c r="BF74" s="12">
         <v>96</v>
       </c>
-      <c r="BG74">
+      <c r="BG74" s="12">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH74" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>87</v>
       </c>
@@ -13259,11 +13602,14 @@
       <c r="BF75" s="12">
         <v>127</v>
       </c>
-      <c r="BG75">
+      <c r="BG75" s="12">
         <v>127</v>
       </c>
-    </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH75" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="12"/>
@@ -13322,8 +13668,10 @@
       <c r="BD76" s="12"/>
       <c r="BE76" s="12"/>
       <c r="BF76" s="12"/>
-    </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG76" s="12"/>
+      <c r="BH76" s="12"/>
+    </row>
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
@@ -13450,11 +13798,14 @@
       <c r="BF77" s="12">
         <v>68</v>
       </c>
-      <c r="BG77">
+      <c r="BG77" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH77" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
@@ -13581,11 +13932,14 @@
       <c r="BF78" s="12">
         <v>50</v>
       </c>
-      <c r="BG78">
+      <c r="BG78" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH78" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -13690,11 +14044,14 @@
       <c r="BF79" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BG79" t="s">
+      <c r="BG79" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH79" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
@@ -13795,11 +14152,14 @@
       <c r="BF80" s="12">
         <v>2</v>
       </c>
-      <c r="BG80">
+      <c r="BG80" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH80" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
@@ -13924,11 +14284,14 @@
       <c r="BF81" s="12">
         <v>10</v>
       </c>
-      <c r="BG81">
+      <c r="BG81" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH81" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="12"/>
@@ -13987,8 +14350,10 @@
       <c r="BD82" s="12"/>
       <c r="BE82" s="12"/>
       <c r="BF82" s="12"/>
-    </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG82" s="12"/>
+      <c r="BH82" s="12"/>
+    </row>
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
@@ -14061,11 +14426,14 @@
       <c r="BF83" s="12">
         <v>137</v>
       </c>
-      <c r="BG83">
+      <c r="BG83" s="12">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH83" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>95</v>
       </c>
@@ -14138,11 +14506,14 @@
       <c r="BF84" s="12">
         <v>14</v>
       </c>
-      <c r="BG84">
+      <c r="BG84" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH84" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
@@ -14215,11 +14586,14 @@
       <c r="BF85" s="12">
         <v>18</v>
       </c>
-      <c r="BG85">
+      <c r="BG85" s="12">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BH85" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="12"/>
@@ -14278,6 +14652,8 @@
       <c r="BD86" s="12"/>
       <c r="BE86" s="12"/>
       <c r="BF86" s="12"/>
+      <c r="BG86" s="12"/>
+      <c r="BH86" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
